--- a/高考全国院校投档线-文件转换_数据清洗/江西/2023/二本.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2023/二本.xlsx
@@ -3346,7 +3346,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <sz val="10"/>
@@ -3427,16 +3427,6 @@
       </font>
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3456,6 +3446,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="理工"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="江西"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3765,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3820,7 +3815,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A2" s="3">
         <v>1361</v>
       </c>
@@ -3850,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A3" s="3">
         <v>843</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A4" s="3">
         <v>668</v>
       </c>
@@ -3910,7 +3905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A5" s="3">
         <v>956</v>
       </c>
@@ -3940,7 +3935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A6" s="3">
         <v>991</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>912</v>
       </c>
@@ -4000,7 +3995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>675</v>
       </c>
@@ -4030,7 +4025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>691</v>
       </c>
@@ -4060,7 +4055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>676</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A11" s="3">
         <v>1176</v>
       </c>
@@ -4120,7 +4115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>999</v>
       </c>
@@ -4150,7 +4145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A13" s="3">
         <v>805</v>
       </c>
@@ -4180,7 +4175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A14" s="3">
         <v>814</v>
       </c>
@@ -4210,7 +4205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A15" s="3">
         <v>851</v>
       </c>
@@ -4240,7 +4235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A16" s="3">
         <v>952</v>
       </c>
@@ -4270,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>983</v>
       </c>
@@ -4300,7 +4295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>803</v>
       </c>
@@ -4330,7 +4325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A19" s="3">
         <v>1021</v>
       </c>
@@ -4360,7 +4355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A20" s="3">
         <v>911</v>
       </c>
@@ -4390,7 +4385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>682</v>
       </c>
@@ -4420,7 +4415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A22" s="3">
         <v>769</v>
       </c>
@@ -4450,7 +4445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A23" s="3">
         <v>687</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A24" s="3">
         <v>686</v>
       </c>
@@ -4510,7 +4505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>1139</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>942</v>
       </c>
@@ -4570,7 +4565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>817</v>
       </c>
@@ -4600,7 +4595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>1392</v>
       </c>
@@ -4630,7 +4625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>944</v>
       </c>
@@ -4660,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A30" s="3">
         <v>1023</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A31" s="3">
         <v>822</v>
       </c>
@@ -4720,7 +4715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>997</v>
       </c>
@@ -4750,7 +4745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="33" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>889</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="34" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>1154</v>
       </c>
@@ -4810,7 +4805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="35" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>882</v>
       </c>
@@ -4840,7 +4835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="36" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>1404</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="37" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>811</v>
       </c>
@@ -4900,7 +4895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="38" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>827</v>
       </c>
@@ -4930,7 +4925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="39" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>824</v>
       </c>
@@ -4960,7 +4955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="40" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>1397</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="41" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>1450</v>
       </c>
@@ -5020,7 +5015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="42" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>848</v>
       </c>
@@ -5050,7 +5045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="43" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A43" s="3">
         <v>1366</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="44" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A44" s="3">
         <v>809</v>
       </c>
@@ -5110,7 +5105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="45" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>938</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="46" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>987</v>
       </c>
@@ -5170,7 +5165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="47" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>754</v>
       </c>
@@ -5200,7 +5195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="48" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>746</v>
       </c>
@@ -5230,7 +5225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="49" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>1319</v>
       </c>
@@ -5260,7 +5255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="50" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>884</v>
       </c>
@@ -5290,7 +5285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="51" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>810</v>
       </c>
@@ -5320,7 +5315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="52" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>1007</v>
       </c>
@@ -5350,7 +5345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="53" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>694</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="54" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>855</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="56" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>818</v>
       </c>
@@ -5472,7 +5467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="57" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>946</v>
       </c>
@@ -5502,7 +5497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="58" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>994</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="59" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>955</v>
       </c>
@@ -5562,7 +5557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="60" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>922</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="61" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>677</v>
       </c>
@@ -5622,7 +5617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="62" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>834</v>
       </c>
@@ -5652,7 +5647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="63" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>714</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="65" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A65" s="3">
         <v>1396</v>
       </c>
@@ -5744,7 +5739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="66" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>963</v>
       </c>
@@ -5774,7 +5769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="67" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>1357</v>
       </c>
@@ -5804,7 +5799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="68" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>1388</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="69" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>749</v>
       </c>
@@ -5864,7 +5859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="70" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>883</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="71" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>928</v>
       </c>
@@ -5924,7 +5919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="72" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>706</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="73" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>688</v>
       </c>
@@ -5984,7 +5979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="74" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A74" s="3">
         <v>1052</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="75" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>933</v>
       </c>
@@ -6044,7 +6039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="76" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>1039</v>
       </c>
@@ -6074,7 +6069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="77" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>1169</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="79" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>846</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="80" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A80" s="3">
         <v>886</v>
       </c>
@@ -6196,7 +6191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="81" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>881</v>
       </c>
@@ -6226,7 +6221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="82" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A82" s="3">
         <v>868</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="83" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A83" s="3">
         <v>750</v>
       </c>
@@ -6286,7 +6281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="84" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A84" s="3">
         <v>967</v>
       </c>
@@ -6316,7 +6311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="85" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>764</v>
       </c>
@@ -6346,7 +6341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="86" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>840</v>
       </c>
@@ -6408,7 +6403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="88" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A88" s="3">
         <v>1028</v>
       </c>
@@ -6438,7 +6433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="89" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>984</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="90" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A90" s="3">
         <v>685</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="91" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A91" s="3">
         <v>837</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="93" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>703</v>
       </c>
@@ -6590,7 +6585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="94" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>950</v>
       </c>
@@ -6620,7 +6615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="95" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A95" s="3">
         <v>1398</v>
       </c>
@@ -6682,7 +6677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="97" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A97" s="3">
         <v>964</v>
       </c>
@@ -6712,7 +6707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="98" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A98" s="3">
         <v>825</v>
       </c>
@@ -6742,7 +6737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="99" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A99" s="3">
         <v>957</v>
       </c>
@@ -6772,7 +6767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="100" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>924</v>
       </c>
@@ -6802,7 +6797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="101" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A101" s="3">
         <v>1387</v>
       </c>
@@ -6832,7 +6827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="102" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A102" s="3">
         <v>921</v>
       </c>
@@ -6862,7 +6857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="103" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A103" s="3">
         <v>812</v>
       </c>
@@ -6892,7 +6887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="104" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A104" s="3">
         <v>755</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="105" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A105" s="3">
         <v>1058</v>
       </c>
@@ -6952,7 +6947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="106" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A106" s="3">
         <v>941</v>
       </c>
@@ -6982,7 +6977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="107" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A107" s="3">
         <v>679</v>
       </c>
@@ -7012,7 +7007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="108" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A108" s="3">
         <v>831</v>
       </c>
@@ -7042,7 +7037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="109" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A109" s="3">
         <v>871</v>
       </c>
@@ -7072,7 +7067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="110" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A110" s="3">
         <v>878</v>
       </c>
@@ -7102,7 +7097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="111" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A111" s="3">
         <v>932</v>
       </c>
@@ -7132,7 +7127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="112" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A112" s="3">
         <v>986</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="113" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A113" s="3">
         <v>923</v>
       </c>
@@ -7192,7 +7187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="114" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A114" s="3">
         <v>1322</v>
       </c>
@@ -7222,7 +7217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="115" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A115" s="3">
         <v>826</v>
       </c>
@@ -7252,7 +7247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="116" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A116" s="3">
         <v>989</v>
       </c>
@@ -7282,7 +7277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="117" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A117" s="3">
         <v>874</v>
       </c>
@@ -7312,7 +7307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="118" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A118" s="3">
         <v>1002</v>
       </c>
@@ -7342,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="119" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A119" s="3">
         <v>1032</v>
       </c>
@@ -7372,7 +7367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="120" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A120" s="3">
         <v>850</v>
       </c>
@@ -7402,7 +7397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="121" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A121" s="3">
         <v>913</v>
       </c>
@@ -7432,7 +7427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="122" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A122" s="3">
         <v>937</v>
       </c>
@@ -7462,7 +7457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="123" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A123" s="3">
         <v>929</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="124" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A124" s="3">
         <v>852</v>
       </c>
@@ -7522,7 +7517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="125" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A125" s="3">
         <v>847</v>
       </c>
@@ -7552,7 +7547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="126" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A126" s="3">
         <v>1275</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="127" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A127" s="3">
         <v>1161</v>
       </c>
@@ -7612,7 +7607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="128" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A128" s="3">
         <v>1037</v>
       </c>
@@ -7642,7 +7637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="129" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A129" s="3">
         <v>752</v>
       </c>
@@ -7704,7 +7699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="131" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A131" s="3">
         <v>1353</v>
       </c>
@@ -7734,7 +7729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="132" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A132" s="3">
         <v>1026</v>
       </c>
@@ -7764,7 +7759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="133" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A133" s="3">
         <v>872</v>
       </c>
@@ -7794,7 +7789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="134" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A134" s="3">
         <v>940</v>
       </c>
@@ -7824,7 +7819,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="135" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A135" s="3">
         <v>865</v>
       </c>
@@ -7854,7 +7849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="136" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A136" s="3">
         <v>841</v>
       </c>
@@ -7884,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="137" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A137" s="3">
         <v>823</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="138" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A138" s="3">
         <v>1025</v>
       </c>
@@ -7944,7 +7939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="139" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A139" s="3">
         <v>733</v>
       </c>
@@ -7974,7 +7969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="140" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A140" s="3">
         <v>1008</v>
       </c>
@@ -8004,7 +7999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="141" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A141" s="3">
         <v>870</v>
       </c>
@@ -8034,7 +8029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="142" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A142" s="3">
         <v>954</v>
       </c>
@@ -8064,7 +8059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="143" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A143" s="3">
         <v>947</v>
       </c>
@@ -8094,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="144" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A144" s="3">
         <v>1423</v>
       </c>
@@ -8124,7 +8119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="145" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A145" s="3">
         <v>701</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="146" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A146" s="3">
         <v>1040</v>
       </c>
@@ -8216,7 +8211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="148" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A148" s="3">
         <v>936</v>
       </c>
@@ -8246,7 +8241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="149" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A149" s="3">
         <v>699</v>
       </c>
@@ -8308,7 +8303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="151" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A151" s="3">
         <v>996</v>
       </c>
@@ -8338,7 +8333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="152" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A152" s="3">
         <v>747</v>
       </c>
@@ -8368,7 +8363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="153" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A153" s="3">
         <v>695</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="154" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A154" s="3">
         <v>1029</v>
       </c>
@@ -8428,7 +8423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="155" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A155" s="3">
         <v>930</v>
       </c>
@@ -8458,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="156" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A156" s="3">
         <v>710</v>
       </c>
@@ -8488,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="157" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A157" s="3">
         <v>751</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="158" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A158" s="3">
         <v>1364</v>
       </c>
@@ -8548,7 +8543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="159" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A159" s="3">
         <v>1009</v>
       </c>
@@ -8578,7 +8573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="160" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A160" s="3">
         <v>838</v>
       </c>
@@ -8608,7 +8603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="161" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A161" s="3">
         <v>720</v>
       </c>
@@ -8638,7 +8633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="162" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A162" s="3">
         <v>864</v>
       </c>
@@ -8668,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="163" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A163" s="3">
         <v>993</v>
       </c>
@@ -8698,7 +8693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="164" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A164" s="3">
         <v>820</v>
       </c>
@@ -8728,7 +8723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="165" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A165" s="3">
         <v>985</v>
       </c>
@@ -8758,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="166" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A166" s="3">
         <v>1167</v>
       </c>
@@ -8788,7 +8783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="167" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A167" s="3">
         <v>777</v>
       </c>
@@ -8850,7 +8845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="169" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A169" s="3">
         <v>990</v>
       </c>
@@ -8880,7 +8875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="170" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A170" s="3">
         <v>1321</v>
       </c>
@@ -8910,7 +8905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="171" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A171" s="3">
         <v>968</v>
       </c>
@@ -8940,7 +8935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="172" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A172" s="3">
         <v>859</v>
       </c>
@@ -8970,7 +8965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="173" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A173" s="3">
         <v>916</v>
       </c>
@@ -9000,7 +8995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="174" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A174" s="3">
         <v>1284</v>
       </c>
@@ -9030,7 +9025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="175" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A175" s="3">
         <v>971</v>
       </c>
@@ -9060,7 +9055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="176" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A176" s="3">
         <v>1057</v>
       </c>
@@ -9090,7 +9085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="177" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A177" s="3">
         <v>877</v>
       </c>
@@ -9120,7 +9115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="178" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A178" s="3">
         <v>885</v>
       </c>
@@ -9150,7 +9145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="179" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A179" s="3">
         <v>888</v>
       </c>
@@ -9180,7 +9175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="180" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A180" s="3">
         <v>760</v>
       </c>
@@ -9210,7 +9205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="181" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A181" s="3">
         <v>904</v>
       </c>
@@ -9240,7 +9235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="182" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A182" s="3">
         <v>774</v>
       </c>
@@ -9270,7 +9265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="183" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A183" s="3">
         <v>718</v>
       </c>
@@ -9300,7 +9295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="184" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A184" s="3">
         <v>758</v>
       </c>
@@ -9330,7 +9325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="185" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A185" s="3">
         <v>1420</v>
       </c>
@@ -9360,7 +9355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="186" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A186" s="3">
         <v>1323</v>
       </c>
@@ -9390,7 +9385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="187" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A187" s="3">
         <v>951</v>
       </c>
@@ -9420,7 +9415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="188" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A188" s="3">
         <v>918</v>
       </c>
@@ -9450,7 +9445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="189" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A189" s="3">
         <v>1001</v>
       </c>
@@ -9480,7 +9475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="190" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A190" s="3">
         <v>879</v>
       </c>
@@ -9510,7 +9505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="191" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A191" s="3">
         <v>943</v>
       </c>
@@ -9540,7 +9535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="192" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A192" s="3">
         <v>708</v>
       </c>
@@ -9570,7 +9565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="193" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A193" s="3">
         <v>917</v>
       </c>
@@ -9600,7 +9595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="194" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A194" s="3">
         <v>690</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="195" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A195" s="3">
         <v>861</v>
       </c>
@@ -9660,7 +9655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="196" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A196" s="3">
         <v>844</v>
       </c>
@@ -9690,7 +9685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="197" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A197" s="3">
         <v>935</v>
       </c>
@@ -9720,7 +9715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="198" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A198" s="3">
         <v>919</v>
       </c>
@@ -9782,7 +9777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="200" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A200" s="3">
         <v>1184</v>
       </c>
@@ -9812,7 +9807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="201" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A201" s="3">
         <v>1339</v>
       </c>
@@ -9842,7 +9837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="202" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A202" s="3">
         <v>1369</v>
       </c>
@@ -9872,7 +9867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="203" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A203" s="3">
         <v>880</v>
       </c>
@@ -9902,7 +9897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="204" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A204" s="3">
         <v>958</v>
       </c>
@@ -9932,7 +9927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="205" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A205" s="3">
         <v>962</v>
       </c>
@@ -9962,7 +9957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="206" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A206" s="3">
         <v>1354</v>
       </c>
@@ -9992,7 +9987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="207" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A207" s="3">
         <v>807</v>
       </c>
@@ -10022,7 +10017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="208" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A208" s="3">
         <v>816</v>
       </c>
@@ -10052,7 +10047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="209" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A209" s="3">
         <v>700</v>
       </c>
@@ -10082,7 +10077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="210" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A210" s="3">
         <v>914</v>
       </c>
@@ -10112,7 +10107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="211" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A211" s="3">
         <v>866</v>
       </c>
@@ -10142,7 +10137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="212" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A212" s="3">
         <v>1248</v>
       </c>
@@ -10172,7 +10167,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="213" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A213" s="3">
         <v>869</v>
       </c>
@@ -10202,7 +10197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="214" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A214" s="3">
         <v>853</v>
       </c>
@@ -10232,7 +10227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="215" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A215" s="3">
         <v>1320</v>
       </c>
@@ -10262,7 +10257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="216" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A216" s="3">
         <v>1367</v>
       </c>
@@ -10324,7 +10319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="218" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A218" s="3">
         <v>763</v>
       </c>
@@ -10354,7 +10349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="219" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A219" s="3">
         <v>670</v>
       </c>
@@ -10384,7 +10379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="220" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A220" s="3">
         <v>1406</v>
       </c>
@@ -10414,7 +10409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="221" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A221" s="3">
         <v>1003</v>
       </c>
@@ -10444,7 +10439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="222" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A222" s="3">
         <v>948</v>
       </c>
@@ -10474,7 +10469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="223" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A223" s="3">
         <v>1409</v>
       </c>
@@ -10504,7 +10499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="224" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A224" s="3">
         <v>828</v>
       </c>
@@ -10534,7 +10529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="225" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A225" s="3">
         <v>773</v>
       </c>
@@ -10596,7 +10591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="227" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A227" s="3">
         <v>753</v>
       </c>
@@ -10626,7 +10621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="228" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A228" s="3">
         <v>712</v>
       </c>
@@ -10656,7 +10651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="229" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A229" s="3">
         <v>1338</v>
       </c>
@@ -10686,7 +10681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="230" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A230" s="3">
         <v>1258</v>
       </c>
@@ -10748,7 +10743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="232" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A232" s="3">
         <v>863</v>
       </c>
@@ -10778,7 +10773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="233" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A233" s="3">
         <v>1019</v>
       </c>
@@ -10808,7 +10803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="234" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A234" s="3">
         <v>808</v>
       </c>
@@ -10838,7 +10833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="235" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A235" s="3">
         <v>1395</v>
       </c>
@@ -10868,7 +10863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="236" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A236" s="3">
         <v>1400</v>
       </c>
@@ -10898,7 +10893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="237" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A237" s="3">
         <v>876</v>
       </c>
@@ -10928,7 +10923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="238" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A238" s="3">
         <v>1336</v>
       </c>
@@ -10958,7 +10953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="239" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A239" s="3">
         <v>806</v>
       </c>
@@ -10988,7 +10983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="240" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A240" s="3">
         <v>862</v>
       </c>
@@ -11018,7 +11013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="241" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A241" s="3">
         <v>830</v>
       </c>
@@ -11048,7 +11043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="242" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A242" s="3">
         <v>896</v>
       </c>
@@ -11078,7 +11073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="243" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A243" s="3">
         <v>1016</v>
       </c>
@@ -11108,7 +11103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="244" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A244" s="3">
         <v>819</v>
       </c>
@@ -11138,7 +11133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="245" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A245" s="3">
         <v>892</v>
       </c>
@@ -11168,7 +11163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="246" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A246" s="3">
         <v>1024</v>
       </c>
@@ -11198,7 +11193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="247" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A247" s="3">
         <v>931</v>
       </c>
@@ -11228,7 +11223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="248" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A248" s="3">
         <v>707</v>
       </c>
@@ -11258,7 +11253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="249" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A249" s="3">
         <v>683</v>
       </c>
@@ -11288,7 +11283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="250" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A250" s="3">
         <v>1342</v>
       </c>
@@ -11350,7 +11345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="252" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A252" s="3">
         <v>761</v>
       </c>
@@ -11380,7 +11375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="253" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A253" s="3">
         <v>906</v>
       </c>
@@ -11410,7 +11405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="254" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A254" s="3">
         <v>953</v>
       </c>
@@ -11440,7 +11435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="255" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A255" s="3">
         <v>926</v>
       </c>
@@ -11470,7 +11465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="256" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A256" s="3">
         <v>961</v>
       </c>
@@ -11500,7 +11495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="257" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A257" s="3">
         <v>1358</v>
       </c>
@@ -11530,7 +11525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="258" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A258" s="3">
         <v>1044</v>
       </c>
@@ -11560,7 +11555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="259" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A259" s="3">
         <v>856</v>
       </c>
@@ -11590,7 +11585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="260" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A260" s="3">
         <v>678</v>
       </c>
@@ -11620,7 +11615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="261" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A261" s="3">
         <v>1391</v>
       </c>
@@ -11650,7 +11645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="262" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A262" s="3">
         <v>927</v>
       </c>
@@ -11680,7 +11675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="263" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A263" s="3">
         <v>981</v>
       </c>
@@ -11710,7 +11705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="264" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A264" s="3">
         <v>849</v>
       </c>
@@ -11740,7 +11735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="265" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A265" s="3">
         <v>801</v>
       </c>
@@ -11770,7 +11765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="266" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A266" s="3">
         <v>1508</v>
       </c>
@@ -11864,7 +11859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="269" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A269" s="3">
         <v>895</v>
       </c>
@@ -11958,7 +11953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="272" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A272" s="3">
         <v>1038</v>
       </c>
@@ -11988,7 +11983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="273" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A273" s="3">
         <v>945</v>
       </c>
@@ -12018,7 +12013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="274" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A274" s="3">
         <v>692</v>
       </c>
@@ -12048,7 +12043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="275" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A275" s="3">
         <v>979</v>
       </c>
@@ -12078,7 +12073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="276" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A276" s="3">
         <v>770</v>
       </c>
@@ -12108,7 +12103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="277" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A277" s="3">
         <v>1055</v>
       </c>
@@ -12138,7 +12133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="278" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A278" s="3">
         <v>669</v>
       </c>
@@ -12168,7 +12163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="279" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A279" s="3">
         <v>768</v>
       </c>
@@ -12198,7 +12193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="280" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A280" s="3">
         <v>732</v>
       </c>
@@ -12228,7 +12223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="281" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A281" s="3">
         <v>673</v>
       </c>
@@ -12258,7 +12253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="282" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A282" s="3">
         <v>693</v>
       </c>
@@ -12288,7 +12283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="283" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A283" s="3">
         <v>867</v>
       </c>
@@ -12318,7 +12313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="284" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A284" s="3">
         <v>934</v>
       </c>
@@ -12348,7 +12343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="285" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A285" s="3">
         <v>748</v>
       </c>
@@ -12378,7 +12373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="286" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A286" s="3">
         <v>787</v>
       </c>
@@ -12408,7 +12403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="287" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A287" s="3">
         <v>970</v>
       </c>
@@ -12438,7 +12433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="288" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A288" s="3">
         <v>721</v>
       </c>
@@ -12468,7 +12463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="289" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A289" s="3">
         <v>1014</v>
       </c>
@@ -12498,7 +12493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="290" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A290" s="3">
         <v>965</v>
       </c>
@@ -12528,7 +12523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="291" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A291" s="3">
         <v>988</v>
       </c>
@@ -12558,7 +12553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="292" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A292" s="3">
         <v>1010</v>
       </c>
@@ -12588,7 +12583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="293" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A293" s="3">
         <v>1197</v>
       </c>
@@ -12618,7 +12613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="294" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A294" s="3">
         <v>966</v>
       </c>
@@ -12648,7 +12643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="295" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A295" s="3">
         <v>698</v>
       </c>
@@ -12678,7 +12673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="296" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A296" s="3">
         <v>1011</v>
       </c>
@@ -12708,7 +12703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="297" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A297" s="3">
         <v>792</v>
       </c>
@@ -12770,7 +12765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="299" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A299" s="3">
         <v>1381</v>
       </c>
@@ -12800,7 +12795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="300" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A300" s="3">
         <v>1449</v>
       </c>
@@ -12830,7 +12825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="301" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A301" s="3">
         <v>905</v>
       </c>
@@ -12860,7 +12855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="302" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A302" s="3">
         <v>1329</v>
       </c>
@@ -12922,7 +12917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="304" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A304" s="3">
         <v>775</v>
       </c>
@@ -12984,7 +12979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="306" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A306" s="3">
         <v>704</v>
       </c>
@@ -13014,7 +13009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="307" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A307" s="3">
         <v>780</v>
       </c>
@@ -13044,7 +13039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="308" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A308" s="3">
         <v>1362</v>
       </c>
@@ -13074,7 +13069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="309" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A309" s="3">
         <v>796</v>
       </c>
@@ -13104,7 +13099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="310" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A310" s="3">
         <v>1034</v>
       </c>
@@ -13134,7 +13129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="311" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A311" s="3">
         <v>897</v>
       </c>
@@ -13164,7 +13159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="312" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A312" s="3">
         <v>949</v>
       </c>
@@ -13194,7 +13189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="313" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A313" s="3">
         <v>1377</v>
       </c>
@@ -13224,7 +13219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="314" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A314" s="3">
         <v>974</v>
       </c>
@@ -13254,7 +13249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="315" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A315" s="3">
         <v>1337</v>
       </c>
@@ -13284,7 +13279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="316" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A316" s="3">
         <v>893</v>
       </c>
@@ -13314,7 +13309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="317" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A317" s="3">
         <v>1375</v>
       </c>
@@ -13344,7 +13339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="318" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A318" s="3">
         <v>719</v>
       </c>
@@ -13374,7 +13369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="319" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A319" s="3">
         <v>920</v>
       </c>
@@ -13404,7 +13399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="320" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A320" s="3">
         <v>783</v>
       </c>
@@ -13434,7 +13429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="321" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A321" s="3">
         <v>715</v>
       </c>
@@ -13464,7 +13459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="322" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A322" s="3">
         <v>857</v>
       </c>
@@ -13494,7 +13489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="323" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A323" s="3">
         <v>1065</v>
       </c>
@@ -13524,7 +13519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="324" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A324" s="3">
         <v>717</v>
       </c>
@@ -13554,7 +13549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="325" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A325" s="3">
         <v>778</v>
       </c>
@@ -13584,7 +13579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="326" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A326" s="3">
         <v>899</v>
       </c>
@@ -13614,7 +13609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="327" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A327" s="3">
         <v>915</v>
       </c>
@@ -13644,7 +13639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="328" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A328" s="3">
         <v>1399</v>
       </c>
@@ -13674,7 +13669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="329" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A329" s="3">
         <v>836</v>
       </c>
@@ -13704,7 +13699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="330" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A330" s="3">
         <v>832</v>
       </c>
@@ -13734,7 +13729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="331" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A331" s="3">
         <v>1194</v>
       </c>
@@ -13764,7 +13759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="332" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A332" s="3">
         <v>711</v>
       </c>
@@ -13794,7 +13789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="333" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A333" s="3">
         <v>1352</v>
       </c>
@@ -13824,7 +13819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="334" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A334" s="3">
         <v>680</v>
       </c>
@@ -13854,7 +13849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="335" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A335" s="3">
         <v>716</v>
       </c>
@@ -13884,7 +13879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="336" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A336" s="3">
         <v>1053</v>
       </c>
@@ -13914,7 +13909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="337" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A337" s="3">
         <v>1294</v>
       </c>
@@ -13944,7 +13939,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="338" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A338" s="3">
         <v>1405</v>
       </c>
@@ -13974,7 +13969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="339" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A339" s="3">
         <v>771</v>
       </c>
@@ -14004,7 +13999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="340" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A340" s="3">
         <v>1277</v>
       </c>
@@ -14034,7 +14029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="341" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A341" s="3">
         <v>1413</v>
       </c>
@@ -14064,7 +14059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="342" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A342" s="3">
         <v>835</v>
       </c>
@@ -14094,7 +14089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="343" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A343" s="3">
         <v>939</v>
       </c>
@@ -14124,7 +14119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="344" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A344" s="3">
         <v>1158</v>
       </c>
@@ -14154,7 +14149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="345" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A345" s="3">
         <v>1345</v>
       </c>
@@ -14184,7 +14179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="346" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A346" s="3">
         <v>672</v>
       </c>
@@ -14214,7 +14209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="347" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A347" s="3">
         <v>1393</v>
       </c>
@@ -14244,7 +14239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="348" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A348" s="3">
         <v>731</v>
       </c>
@@ -14274,7 +14269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="349" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A349" s="3">
         <v>982</v>
       </c>
@@ -14304,7 +14299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="350" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A350" s="3">
         <v>776</v>
       </c>
@@ -14334,7 +14329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="351" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A351" s="3">
         <v>791</v>
       </c>
@@ -14364,7 +14359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="352" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A352" s="3">
         <v>1351</v>
       </c>
@@ -14394,7 +14389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="353" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A353" s="3">
         <v>734</v>
       </c>
@@ -14424,7 +14419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="354" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A354" s="3">
         <v>1064</v>
       </c>
@@ -14454,7 +14449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="355" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A355" s="3">
         <v>842</v>
       </c>
@@ -14484,7 +14479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="356" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A356" s="3">
         <v>995</v>
       </c>
@@ -14514,7 +14509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="357" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A357" s="3">
         <v>1291</v>
       </c>
@@ -14544,7 +14539,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="358" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A358" s="3">
         <v>860</v>
       </c>
@@ -14574,7 +14569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="359" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A359" s="3">
         <v>1049</v>
       </c>
@@ -14636,7 +14631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="361" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A361" s="3">
         <v>898</v>
       </c>
@@ -14666,7 +14661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="362" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A362" s="3">
         <v>891</v>
       </c>
@@ -14696,7 +14691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="363" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A363" s="3">
         <v>1394</v>
       </c>
@@ -14726,7 +14721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="364" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A364" s="3">
         <v>1403</v>
       </c>
@@ -14756,7 +14751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="365" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A365" s="3">
         <v>887</v>
       </c>
@@ -14786,7 +14781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="366" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A366" s="3">
         <v>1372</v>
       </c>
@@ -14816,7 +14811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="367" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A367" s="3">
         <v>1326</v>
       </c>
@@ -14846,7 +14841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="368" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A368" s="3">
         <v>724</v>
       </c>
@@ -14876,7 +14871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="369" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A369" s="3">
         <v>1081</v>
       </c>
@@ -14906,7 +14901,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="370" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A370" s="3">
         <v>1041</v>
       </c>
@@ -14936,7 +14931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="371" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A371" s="3">
         <v>1185</v>
       </c>
@@ -14966,7 +14961,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="372" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A372" s="3">
         <v>735</v>
       </c>
@@ -14996,7 +14991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="373" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A373" s="3">
         <v>728</v>
       </c>
@@ -15026,7 +15021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="374" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A374" s="3">
         <v>1004</v>
       </c>
@@ -15056,7 +15051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="375" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A375" s="3">
         <v>998</v>
       </c>
@@ -15086,7 +15081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="376" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A376" s="3">
         <v>1063</v>
       </c>
@@ -15116,7 +15111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="377" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A377" s="3">
         <v>1205</v>
       </c>
@@ -15146,7 +15141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="378" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A378" s="3">
         <v>890</v>
       </c>
@@ -15176,7 +15171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="379" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A379" s="3">
         <v>1402</v>
       </c>
@@ -15206,7 +15201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="380" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A380" s="3">
         <v>1328</v>
       </c>
@@ -15268,7 +15263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="382" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A382" s="3">
         <v>788</v>
       </c>
@@ -15298,7 +15293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="383" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A383" s="3">
         <v>1331</v>
       </c>
@@ -15328,7 +15323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="384" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A384" s="3">
         <v>740</v>
       </c>
@@ -15358,7 +15353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="385" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A385" s="3">
         <v>854</v>
       </c>
@@ -15388,7 +15383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="386" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A386" s="3">
         <v>821</v>
       </c>
@@ -15418,7 +15413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="387" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A387" s="3">
         <v>1475</v>
       </c>
@@ -15448,7 +15443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="388" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A388" s="3">
         <v>1035</v>
       </c>
@@ -15478,7 +15473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="389" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A389" s="3">
         <v>1050</v>
       </c>
@@ -15508,7 +15503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="390" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A390" s="3">
         <v>1380</v>
       </c>
@@ -15538,7 +15533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="391" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A391" s="3">
         <v>1043</v>
       </c>
@@ -15600,7 +15595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="393" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A393" s="3">
         <v>1042</v>
       </c>
@@ -15630,7 +15625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="394" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A394" s="3">
         <v>1000</v>
       </c>
@@ -15660,7 +15655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="395" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A395" s="3">
         <v>743</v>
       </c>
@@ -15690,7 +15685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="396" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A396" s="3">
         <v>1137</v>
       </c>
@@ -15720,7 +15715,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="397" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A397" s="3">
         <v>1150</v>
       </c>
@@ -15750,7 +15745,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="398" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A398" s="3">
         <v>1459</v>
       </c>
@@ -15812,7 +15807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="400" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A400" s="3">
         <v>1390</v>
       </c>
@@ -15842,7 +15837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="401" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A401" s="3">
         <v>873</v>
       </c>
@@ -15872,7 +15867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="402" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A402" s="3">
         <v>697</v>
       </c>
@@ -15902,7 +15897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="403" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A403" s="3">
         <v>1061</v>
       </c>
@@ -15932,7 +15927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="404" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A404" s="3">
         <v>900</v>
       </c>
@@ -15994,7 +15989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="406" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A406" s="3">
         <v>671</v>
       </c>
@@ -16024,7 +16019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="407" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A407" s="3">
         <v>1094</v>
       </c>
@@ -16054,7 +16049,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="408" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A408" s="3">
         <v>1135</v>
       </c>
@@ -16084,7 +16079,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="409" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A409" s="3">
         <v>1257</v>
       </c>
@@ -16114,7 +16109,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="410" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A410" s="3">
         <v>1244</v>
       </c>
@@ -16144,7 +16139,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="411" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A411" s="3">
         <v>1136</v>
       </c>
@@ -16174,7 +16169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="412" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A412" s="3">
         <v>1401</v>
       </c>
@@ -16204,7 +16199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="413" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A413" s="3">
         <v>786</v>
       </c>
@@ -16234,7 +16229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="414" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A414" s="3">
         <v>1006</v>
       </c>
@@ -16296,7 +16291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="416" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A416" s="3">
         <v>1299</v>
       </c>
@@ -16326,7 +16321,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="417" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A417" s="3">
         <v>790</v>
       </c>
@@ -16356,7 +16351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="418" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A418" s="3">
         <v>1341</v>
       </c>
@@ -16386,7 +16381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="419" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A419" s="3">
         <v>1419</v>
       </c>
@@ -16448,7 +16443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="421" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A421" s="3">
         <v>727</v>
       </c>
@@ -16478,7 +16473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="422" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A422" s="3">
         <v>1347</v>
       </c>
@@ -16508,7 +16503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="423" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A423" s="3">
         <v>1223</v>
       </c>
@@ -16538,7 +16533,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="424" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A424" s="3">
         <v>705</v>
       </c>
@@ -16568,7 +16563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="425" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A425" s="3">
         <v>1384</v>
       </c>
@@ -16598,7 +16593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="426" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A426" s="3">
         <v>737</v>
       </c>
@@ -16628,7 +16623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="427" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A427" s="3">
         <v>736</v>
       </c>
@@ -16658,7 +16653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="428" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A428" s="3">
         <v>709</v>
       </c>
@@ -16688,7 +16683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="429" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A429" s="3">
         <v>839</v>
       </c>
@@ -16718,7 +16713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="430" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A430" s="3">
         <v>813</v>
       </c>
@@ -16748,7 +16743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="431" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A431" s="3">
         <v>901</v>
       </c>
@@ -16778,7 +16773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="432" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A432" s="3">
         <v>875</v>
       </c>
@@ -16808,7 +16803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="433" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A433" s="3">
         <v>696</v>
       </c>
@@ -16870,7 +16865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="435" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A435" s="3">
         <v>794</v>
       </c>
@@ -16900,7 +16895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="436" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A436" s="3">
         <v>1335</v>
       </c>
@@ -16962,7 +16957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="438" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A438" s="3">
         <v>781</v>
       </c>
@@ -16992,7 +16987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="439" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A439" s="3">
         <v>894</v>
       </c>
@@ -17022,7 +17017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="440" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A440" s="3">
         <v>1047</v>
       </c>
@@ -17052,7 +17047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="441" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A441" s="3">
         <v>1072</v>
       </c>
@@ -17082,7 +17077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="442" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A442" s="3">
         <v>1318</v>
       </c>
@@ -17112,7 +17107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="443" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A443" s="3">
         <v>713</v>
       </c>
@@ -17142,7 +17137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="444" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A444" s="3">
         <v>969</v>
       </c>
@@ -17172,7 +17167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="445" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A445" s="3">
         <v>975</v>
       </c>
@@ -17202,7 +17197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="446" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A446" s="3">
         <v>1030</v>
       </c>
@@ -17232,7 +17227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="447" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A447" s="3">
         <v>1013</v>
       </c>
@@ -17294,7 +17289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="449" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A449" s="3">
         <v>1239</v>
       </c>
@@ -17324,7 +17319,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="450" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A450" s="3">
         <v>1438</v>
       </c>
@@ -17386,7 +17381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="452" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A452" s="3">
         <v>1240</v>
       </c>
@@ -17416,7 +17411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="453" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A453" s="3">
         <v>1232</v>
       </c>
@@ -17446,7 +17441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="454" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A454" s="3">
         <v>1152</v>
       </c>
@@ -17476,7 +17471,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="455" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A455" s="3">
         <v>1048</v>
       </c>
@@ -17506,7 +17501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="456" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A456" s="3">
         <v>1317</v>
       </c>
@@ -17536,7 +17531,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="457" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A457" s="3">
         <v>972</v>
       </c>
@@ -17566,7 +17561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="458" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A458" s="3">
         <v>1233</v>
       </c>
@@ -17596,7 +17591,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="459" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A459" s="3">
         <v>833</v>
       </c>
@@ -17626,7 +17621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="460" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A460" s="3">
         <v>723</v>
       </c>
@@ -17656,7 +17651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="461" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A461" s="3">
         <v>976</v>
       </c>
@@ -17686,7 +17681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="462" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A462" s="3">
         <v>1031</v>
       </c>
@@ -17716,7 +17711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="463" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A463" s="3">
         <v>1143</v>
       </c>
@@ -17746,7 +17741,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="464" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A464" s="3">
         <v>684</v>
       </c>
@@ -17776,7 +17771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="465" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A465" s="3">
         <v>977</v>
       </c>
@@ -17806,7 +17801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="466" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A466" s="3">
         <v>1020</v>
       </c>
@@ -17836,7 +17831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="467" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A467" s="3">
         <v>1333</v>
       </c>
@@ -17866,7 +17861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="468" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A468" s="3">
         <v>1036</v>
       </c>
@@ -17896,7 +17891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="469" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A469" s="3">
         <v>1060</v>
       </c>
@@ -17926,7 +17921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="470" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A470" s="3">
         <v>772</v>
       </c>
@@ -17956,7 +17951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="471" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A471" s="3">
         <v>793</v>
       </c>
@@ -17986,7 +17981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="472" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A472" s="3">
         <v>1334</v>
       </c>
@@ -18016,7 +18011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="473" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A473" s="3">
         <v>689</v>
       </c>
@@ -18046,7 +18041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="474" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A474" s="3">
         <v>1141</v>
       </c>
@@ -18076,7 +18071,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="475" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A475" s="3">
         <v>797</v>
       </c>
@@ -18106,7 +18101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="476" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A476" s="3">
         <v>681</v>
       </c>
@@ -18136,7 +18131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="477" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A477" s="3">
         <v>730</v>
       </c>
@@ -18166,7 +18161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="478" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A478" s="3">
         <v>1228</v>
       </c>
@@ -18196,7 +18191,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="479" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A479" s="3">
         <v>1045</v>
       </c>
@@ -18226,7 +18221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="480" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A480" s="3">
         <v>759</v>
       </c>
@@ -18256,7 +18251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="481" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A481" s="3">
         <v>1059</v>
       </c>
@@ -18286,7 +18281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="482" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A482" s="3">
         <v>1033</v>
       </c>
@@ -18316,7 +18311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="483" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A483" s="3">
         <v>726</v>
       </c>
@@ -18346,7 +18341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="484" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A484" s="3">
         <v>1012</v>
       </c>
@@ -18376,7 +18371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="485" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A485" s="3">
         <v>973</v>
       </c>
@@ -18406,7 +18401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="486" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A486" s="3">
         <v>702</v>
       </c>
@@ -18436,7 +18431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="487" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A487" s="3">
         <v>1046</v>
       </c>
@@ -18466,7 +18461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="488" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A488" s="3">
         <v>1272</v>
       </c>
@@ -18496,7 +18491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="489" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A489" s="3">
         <v>785</v>
       </c>
@@ -18526,7 +18521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="490" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A490" s="3">
         <v>1385</v>
       </c>
@@ -18556,7 +18551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="491" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A491" s="3">
         <v>1015</v>
       </c>
@@ -18586,7 +18581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="492" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A492" s="3">
         <v>722</v>
       </c>
@@ -18616,7 +18611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="493" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A493" s="3">
         <v>725</v>
       </c>
@@ -18646,7 +18641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="494" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A494" s="3">
         <v>902</v>
       </c>
@@ -18676,7 +18671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="495" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A495" s="3">
         <v>1410</v>
       </c>
@@ -18706,7 +18701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="496" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A496" s="3">
         <v>1285</v>
       </c>
@@ -18736,7 +18731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="497" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A497" s="3">
         <v>1355</v>
       </c>
@@ -18766,7 +18761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="498" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A498" s="3">
         <v>1246</v>
       </c>
@@ -18796,7 +18791,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="499" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A499" s="3">
         <v>789</v>
       </c>
@@ -18826,7 +18821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="500" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A500" s="3">
         <v>1234</v>
       </c>
@@ -18856,7 +18851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="501" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A501" s="3">
         <v>798</v>
       </c>
@@ -18886,7 +18881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="502" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A502" s="3">
         <v>1073</v>
       </c>
@@ -18916,7 +18911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="503" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A503" s="3">
         <v>1430</v>
       </c>
@@ -18946,7 +18941,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="504" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A504" s="3">
         <v>1315</v>
       </c>
@@ -18976,7 +18971,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="505" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A505" s="3">
         <v>1186</v>
       </c>
@@ -19006,7 +19001,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="506" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A506" s="3">
         <v>1166</v>
       </c>
@@ -19036,7 +19031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="507" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A507" s="3">
         <v>980</v>
       </c>
@@ -19066,7 +19061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="508" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A508" s="3">
         <v>1386</v>
       </c>
@@ -19096,7 +19091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="509" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A509" s="3">
         <v>1054</v>
       </c>
@@ -19158,7 +19153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="511" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A511" s="3">
         <v>1149</v>
       </c>
@@ -19188,7 +19183,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="512" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A512" s="3">
         <v>1251</v>
       </c>
@@ -19218,7 +19213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="513" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A513" s="3">
         <v>1382</v>
       </c>
@@ -19248,7 +19243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="514" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A514" s="3">
         <v>1340</v>
       </c>
@@ -19278,7 +19273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="515" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A515" s="3">
         <v>1235</v>
       </c>
@@ -19308,7 +19303,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="516" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A516" s="3">
         <v>757</v>
       </c>
@@ -19338,7 +19333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="517" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A517" s="3">
         <v>1056</v>
       </c>
@@ -19368,7 +19363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="518" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A518" s="3">
         <v>1373</v>
       </c>
@@ -19398,7 +19393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="519" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A519" s="3">
         <v>1245</v>
       </c>
@@ -19428,7 +19423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="520" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A520" s="3">
         <v>729</v>
       </c>
@@ -19458,7 +19453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="521" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A521" s="3">
         <v>910</v>
       </c>
@@ -19488,7 +19483,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="522" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A522" s="3">
         <v>1067</v>
       </c>
@@ -19518,7 +19513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="523" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A523" s="3">
         <v>1280</v>
       </c>
@@ -19548,7 +19543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="524" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A524" s="3">
         <v>799</v>
       </c>
@@ -19578,7 +19573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="525" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A525" s="3">
         <v>1018</v>
       </c>
@@ -19608,7 +19603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="526" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A526" s="3">
         <v>782</v>
       </c>
@@ -19638,7 +19633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="527" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A527" s="3">
         <v>1383</v>
       </c>
@@ -19668,7 +19663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="528" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A528" s="3">
         <v>1376</v>
       </c>
@@ -19698,7 +19693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="529" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A529" s="3">
         <v>756</v>
       </c>
@@ -19728,7 +19723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="530" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A530" s="3">
         <v>1062</v>
       </c>
@@ -19758,7 +19753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="531" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A531" s="3">
         <v>795</v>
       </c>
@@ -19788,7 +19783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="532" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A532" s="3">
         <v>1314</v>
       </c>
@@ -19818,7 +19813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="533" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A533" s="3">
         <v>745</v>
       </c>
@@ -19848,7 +19843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="534" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A534" s="3">
         <v>1075</v>
       </c>
@@ -19878,7 +19873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="535" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A535" s="3">
         <v>1069</v>
       </c>
@@ -19908,7 +19903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="536" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A536" s="3">
         <v>1282</v>
       </c>
@@ -19938,7 +19933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="537" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A537" s="3">
         <v>1068</v>
       </c>
@@ -19968,7 +19963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="538" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A538" s="3">
         <v>738</v>
       </c>
@@ -19998,7 +19993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="539" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A539" s="3">
         <v>1140</v>
       </c>
@@ -20028,7 +20023,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="540" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A540" s="3">
         <v>1071</v>
       </c>
@@ -20058,7 +20053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="541" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A541" s="3">
         <v>1153</v>
       </c>
@@ -20088,7 +20083,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="542" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A542" s="3">
         <v>1350</v>
       </c>
@@ -20118,7 +20113,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="543" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A543" s="3">
         <v>1070</v>
       </c>
@@ -20148,7 +20143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="544" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A544" s="3">
         <v>1144</v>
       </c>
@@ -20178,7 +20173,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="545" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A545" s="3">
         <v>1268</v>
       </c>
@@ -20208,7 +20203,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="546" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A546" s="3">
         <v>1206</v>
       </c>
@@ -20238,7 +20233,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="547" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A547" s="3">
         <v>1346</v>
       </c>
@@ -20268,7 +20263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="548" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A548" s="3">
         <v>742</v>
       </c>
@@ -20298,7 +20293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="549" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A549" s="3">
         <v>1090</v>
       </c>
@@ -20328,7 +20323,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="550" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A550" s="3">
         <v>1237</v>
       </c>
@@ -20358,7 +20353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="551" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A551" s="3">
         <v>1227</v>
       </c>
@@ -20388,7 +20383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="552" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A552" s="3">
         <v>1079</v>
       </c>
@@ -20418,7 +20413,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="553" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A553" s="3">
         <v>1155</v>
       </c>
@@ -20448,7 +20443,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="554" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A554" s="3">
         <v>1281</v>
       </c>
@@ -20478,7 +20473,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="555" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A555" s="3">
         <v>1200</v>
       </c>
@@ -20508,7 +20503,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="556" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A556" s="3">
         <v>1327</v>
       </c>
@@ -20538,7 +20533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="557" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A557" s="3">
         <v>1051</v>
       </c>
@@ -20568,7 +20563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="558" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A558" s="3">
         <v>1145</v>
       </c>
@@ -20598,7 +20593,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="559" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A559" s="3">
         <v>741</v>
       </c>
@@ -20628,7 +20623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="560" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A560" s="3">
         <v>1182</v>
       </c>
@@ -20658,7 +20653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="561" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A561" s="3">
         <v>1076</v>
       </c>
@@ -20688,7 +20683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="562" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A562" s="3">
         <v>1089</v>
       </c>
@@ -20718,7 +20713,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="563" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A563" s="3">
         <v>1216</v>
       </c>
@@ -20748,7 +20743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="564" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A564" s="3">
         <v>1151</v>
       </c>
@@ -20778,7 +20773,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="565" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A565" s="3">
         <v>925</v>
       </c>
@@ -20808,7 +20803,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="566" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A566" s="3">
         <v>739</v>
       </c>
@@ -20838,7 +20833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="567" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A567" s="3">
         <v>1147</v>
       </c>
@@ -20868,7 +20863,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="568" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A568" s="3">
         <v>1220</v>
       </c>
@@ -20898,7 +20893,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="569" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A569" s="3">
         <v>1201</v>
       </c>
@@ -20928,7 +20923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="570" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A570" s="3">
         <v>1324</v>
       </c>
@@ -20958,7 +20953,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="571" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A571" s="3">
         <v>1221</v>
       </c>
@@ -20988,7 +20983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="572" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A572" s="3">
         <v>1243</v>
       </c>
@@ -21018,7 +21013,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="573" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A573" s="3">
         <v>1447</v>
       </c>
@@ -21048,7 +21043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="574" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A574" s="3">
         <v>1074</v>
       </c>
@@ -21078,7 +21073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="575" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A575" s="3">
         <v>1156</v>
       </c>
@@ -21108,7 +21103,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="576" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A576" s="3">
         <v>1225</v>
       </c>
@@ -21170,7 +21165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="578" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A578" s="3">
         <v>1348</v>
       </c>
@@ -21200,7 +21195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="579" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A579" s="3">
         <v>1276</v>
       </c>
@@ -21230,7 +21225,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="580" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A580" s="3">
         <v>1095</v>
       </c>
@@ -21260,7 +21255,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="581" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A581" s="3">
         <v>908</v>
       </c>
@@ -21290,7 +21285,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="582" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A582" s="3">
         <v>909</v>
       </c>
@@ -21320,7 +21315,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="583" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A583" s="3">
         <v>1349</v>
       </c>
@@ -21350,7 +21345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="584" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A584" s="3">
         <v>1222</v>
       </c>
@@ -21380,7 +21375,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="585" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A585" s="3">
         <v>1274</v>
       </c>
@@ -21410,7 +21405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="586" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A586" s="3">
         <v>1178</v>
       </c>
@@ -21440,7 +21435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="587" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A587" s="3">
         <v>1207</v>
       </c>
@@ -21470,7 +21465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="588" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A588" s="3">
         <v>1091</v>
       </c>
@@ -21500,7 +21495,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="589" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A589" s="3">
         <v>992</v>
       </c>
@@ -21530,7 +21525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="590" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A590" s="3">
         <v>1188</v>
       </c>
@@ -21560,7 +21555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="591" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A591" s="3">
         <v>1189</v>
       </c>
@@ -21590,7 +21585,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="592" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A592" s="3">
         <v>1238</v>
       </c>
@@ -21620,7 +21615,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="593" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A593" s="3">
         <v>1247</v>
       </c>
@@ -21650,7 +21645,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="594" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A594" s="3">
         <v>1273</v>
       </c>
@@ -21680,7 +21675,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="595" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A595" s="3">
         <v>1442</v>
       </c>
@@ -21742,7 +21737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="597" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A597" s="3">
         <v>1411</v>
       </c>
@@ -21772,7 +21767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="598" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A598" s="3">
         <v>1330</v>
       </c>
@@ -21802,7 +21797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="599" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A599" s="3">
         <v>1138</v>
       </c>
@@ -21832,7 +21827,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="600" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A600" s="3">
         <v>1077</v>
       </c>
@@ -21862,7 +21857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="601" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A601" s="3">
         <v>1196</v>
       </c>
@@ -21892,7 +21887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="602" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A602" s="3">
         <v>1173</v>
       </c>
@@ -21922,7 +21917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="603" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A603" s="3">
         <v>1379</v>
       </c>
@@ -21952,7 +21947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="604" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A604" s="3">
         <v>829</v>
       </c>
@@ -21982,7 +21977,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="605" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A605" s="3">
         <v>1360</v>
       </c>
@@ -22012,7 +22007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="606" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A606" s="3">
         <v>1087</v>
       </c>
@@ -22074,7 +22069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="608" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A608" s="3">
         <v>1213</v>
       </c>
@@ -22104,7 +22099,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="609" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A609" s="3">
         <v>1226</v>
       </c>
@@ -22134,7 +22129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="610" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A610" s="3">
         <v>1111</v>
       </c>
@@ -22164,7 +22159,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="611" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A611" s="3">
         <v>1202</v>
       </c>
@@ -22194,7 +22189,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="612" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A612" s="3">
         <v>1102</v>
       </c>
@@ -22224,7 +22219,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="613" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A613" s="3">
         <v>1113</v>
       </c>
@@ -22254,7 +22249,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="614" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A614" s="3">
         <v>1209</v>
       </c>
@@ -22284,7 +22279,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="615" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A615" s="3">
         <v>1250</v>
       </c>
@@ -22314,7 +22309,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="616" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A616" s="3">
         <v>1108</v>
       </c>
@@ -22344,7 +22339,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="617" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A617" s="3">
         <v>1177</v>
       </c>
@@ -22374,7 +22369,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="618" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A618" s="3">
         <v>1212</v>
       </c>
@@ -22404,7 +22399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="619" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A619" s="3">
         <v>1162</v>
       </c>
@@ -22434,7 +22429,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="620" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A620" s="3">
         <v>907</v>
       </c>
@@ -22464,7 +22459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="621" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A621" s="3">
         <v>1325</v>
       </c>
@@ -22494,7 +22489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="622" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A622" s="3">
         <v>1146</v>
       </c>
@@ -22524,7 +22519,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="623" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A623" s="3">
         <v>1229</v>
       </c>
@@ -22554,7 +22549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="624" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A624" s="3">
         <v>1157</v>
       </c>
@@ -22584,7 +22579,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="625" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A625" s="3">
         <v>1389</v>
       </c>
@@ -22614,7 +22609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="626" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A626" s="3">
         <v>1142</v>
       </c>
@@ -22644,7 +22639,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="627" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A627" s="3">
         <v>1203</v>
       </c>
@@ -22674,7 +22669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="628" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A628" s="3">
         <v>1017</v>
       </c>
@@ -22704,7 +22699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="629" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A629" s="3">
         <v>1208</v>
       </c>
@@ -22734,7 +22729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="630" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A630" s="3">
         <v>1163</v>
       </c>
@@ -22764,7 +22759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="631" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A631" s="3">
         <v>1312</v>
       </c>
@@ -22794,7 +22789,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="632" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A632" s="3">
         <v>1370</v>
       </c>
@@ -22824,7 +22819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="633" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A633" s="3">
         <v>1170</v>
       </c>
@@ -22854,7 +22849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="634" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A634" s="3">
         <v>1027</v>
       </c>
@@ -22884,7 +22879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="635" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A635" s="3">
         <v>1443</v>
       </c>
@@ -22914,7 +22909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="636" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A636" s="3">
         <v>1211</v>
       </c>
@@ -22944,7 +22939,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="637" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A637" s="3">
         <v>779</v>
       </c>
@@ -22974,7 +22969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="638" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A638" s="3">
         <v>1378</v>
       </c>
@@ -23004,7 +22999,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="639" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A639" s="3">
         <v>1164</v>
       </c>
@@ -23034,7 +23029,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="640" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A640" s="3">
         <v>1300</v>
       </c>
@@ -23064,7 +23059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="641" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A641" s="3">
         <v>1254</v>
       </c>
@@ -23094,7 +23089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="642" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A642" s="3">
         <v>1316</v>
       </c>
@@ -23124,7 +23119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="643" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A643" s="3">
         <v>1190</v>
       </c>
@@ -23154,7 +23149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="644" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A644" s="3">
         <v>903</v>
       </c>
@@ -23184,7 +23179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="645" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A645" s="3">
         <v>1261</v>
       </c>
@@ -23214,7 +23209,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="646" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A646" s="3">
         <v>1218</v>
       </c>
@@ -23244,7 +23239,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="647" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A647" s="3">
         <v>1308</v>
       </c>
@@ -23274,7 +23269,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="648" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A648" s="3">
         <v>1230</v>
       </c>
@@ -23336,7 +23331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="650" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A650" s="3">
         <v>1174</v>
       </c>
@@ -23366,7 +23361,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="651" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A651" s="3">
         <v>1160</v>
       </c>
@@ -23396,7 +23391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="652" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A652" s="3">
         <v>1005</v>
       </c>
@@ -23490,7 +23485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="655" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A655" s="3">
         <v>1271</v>
       </c>
@@ -23552,7 +23547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="657" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A657" s="3">
         <v>1214</v>
       </c>
@@ -23614,7 +23609,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="659" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A659" s="3">
         <v>1085</v>
       </c>
@@ -23644,7 +23639,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="660" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A660" s="3">
         <v>1097</v>
       </c>
@@ -23674,7 +23669,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="661" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A661" s="3">
         <v>1083</v>
       </c>
@@ -23704,7 +23699,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="662" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A662" s="3">
         <v>1241</v>
       </c>
@@ -23734,7 +23729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="663" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A663" s="3">
         <v>1022</v>
       </c>
@@ -23764,7 +23759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="664" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A664" s="3">
         <v>1242</v>
       </c>
@@ -23794,7 +23789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="665" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A665" s="3">
         <v>1134</v>
       </c>
@@ -23824,7 +23819,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="666" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A666" s="3">
         <v>1132</v>
       </c>
@@ -23854,7 +23849,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="667" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A667" s="3">
         <v>1099</v>
       </c>
@@ -23884,7 +23879,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="668" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A668" s="3">
         <v>1183</v>
       </c>
@@ -23914,7 +23909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="669" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A669" s="3">
         <v>1215</v>
       </c>
@@ -23944,7 +23939,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="670" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A670" s="3">
         <v>960</v>
       </c>
@@ -23974,7 +23969,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="671" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A671" s="3">
         <v>1098</v>
       </c>
@@ -24004,7 +23999,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="672" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A672" s="3">
         <v>1256</v>
       </c>
@@ -24034,7 +24029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="673" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A673" s="3">
         <v>1408</v>
       </c>
@@ -24064,7 +24059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="674" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A674" s="3">
         <v>1270</v>
       </c>
@@ -24094,7 +24089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="675" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A675" s="3">
         <v>1191</v>
       </c>
@@ -24124,7 +24119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="676" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="676" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A676" s="3">
         <v>1437</v>
       </c>
@@ -24154,7 +24149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="677" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A677" s="3">
         <v>1231</v>
       </c>
@@ -24184,7 +24179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="678" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A678" s="3">
         <v>1290</v>
       </c>
@@ -24246,7 +24241,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="680" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A680" s="3">
         <v>1082</v>
       </c>
@@ -24276,7 +24271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="681" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A681" s="3">
         <v>1210</v>
       </c>
@@ -24306,7 +24301,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="682" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="682" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A682" s="3">
         <v>1279</v>
       </c>
@@ -24336,7 +24331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="683" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A683" s="3">
         <v>1093</v>
       </c>
@@ -24366,7 +24361,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="684" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="684" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A684" s="3">
         <v>1293</v>
       </c>
@@ -24396,7 +24391,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="685" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="685" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A685" s="3">
         <v>1179</v>
       </c>
@@ -24426,7 +24421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="686" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="686" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A686" s="3">
         <v>1428</v>
       </c>
@@ -24456,7 +24451,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="687" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A687" s="3">
         <v>804</v>
       </c>
@@ -24486,7 +24481,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="688" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A688" s="3">
         <v>1264</v>
       </c>
@@ -24516,7 +24511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="689" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A689" s="3">
         <v>1148</v>
       </c>
@@ -24546,7 +24541,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="690" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A690" s="3">
         <v>1259</v>
       </c>
@@ -24576,7 +24571,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="691" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="691" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A691" s="3">
         <v>1262</v>
       </c>
@@ -24606,7 +24601,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="692" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="692" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A692" s="3">
         <v>1175</v>
       </c>
@@ -24636,7 +24631,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="693" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="693" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A693" s="3">
         <v>1313</v>
       </c>
@@ -24666,7 +24661,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="694" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A694" s="3">
         <v>1249</v>
       </c>
@@ -24696,7 +24691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="695" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A695" s="3">
         <v>1172</v>
       </c>
@@ -24726,7 +24721,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="696" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A696" s="3">
         <v>1253</v>
       </c>
@@ -24756,7 +24751,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="697" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A697" s="3">
         <v>1446</v>
       </c>
@@ -24818,7 +24813,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="699" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A699" s="3">
         <v>1414</v>
       </c>
@@ -24848,7 +24843,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="700" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A700" s="3">
         <v>1292</v>
       </c>
@@ -24878,7 +24873,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="701" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A701" s="3">
         <v>815</v>
       </c>
@@ -24940,7 +24935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="703" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A703" s="3">
         <v>1159</v>
       </c>
@@ -24970,7 +24965,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="704" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A704" s="3">
         <v>1255</v>
       </c>
@@ -25000,7 +24995,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="705" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A705" s="3">
         <v>1236</v>
       </c>
@@ -25030,7 +25025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="706" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A706" s="3">
         <v>1193</v>
       </c>
@@ -25060,7 +25055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="707" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A707" s="3">
         <v>1371</v>
       </c>
@@ -25090,7 +25085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="708" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A708" s="3">
         <v>1424</v>
       </c>
@@ -25120,7 +25115,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="709" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A709" s="3">
         <v>1303</v>
       </c>
@@ -25150,7 +25145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="710" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A710" s="3">
         <v>1181</v>
       </c>
@@ -25180,7 +25175,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="711" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A711" s="3">
         <v>1168</v>
       </c>
@@ -25210,7 +25205,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="712" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A712" s="3">
         <v>1287</v>
       </c>
@@ -25240,7 +25235,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="713" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A713" s="3">
         <v>1439</v>
       </c>
@@ -25270,7 +25265,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="714" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A714" s="3">
         <v>1078</v>
       </c>
@@ -25300,7 +25295,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="715" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A715" s="3">
         <v>1368</v>
       </c>
@@ -25330,7 +25325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="716" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A716" s="3">
         <v>1288</v>
       </c>
@@ -25360,7 +25355,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="717" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="717" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A717" s="3">
         <v>1429</v>
       </c>
@@ -25390,7 +25385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="718" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A718" s="3">
         <v>1066</v>
       </c>
@@ -25420,7 +25415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="719" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A719" s="3">
         <v>1080</v>
       </c>
@@ -25450,7 +25445,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="720" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A720" s="3">
         <v>858</v>
       </c>
@@ -25480,7 +25475,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="721" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A721" s="3">
         <v>1286</v>
       </c>
@@ -25510,7 +25505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="722" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A722" s="3">
         <v>744</v>
       </c>
@@ -25540,7 +25535,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="723" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="723" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A723" s="3">
         <v>1217</v>
       </c>
@@ -25570,7 +25565,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="724" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="724" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A724" s="3">
         <v>845</v>
       </c>
@@ -25600,7 +25595,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="725" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A725" s="3">
         <v>1310</v>
       </c>
@@ -25630,7 +25625,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="726" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A726" s="3">
         <v>1224</v>
       </c>
@@ -25660,7 +25655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="727" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A727" s="3">
         <v>1260</v>
       </c>
@@ -25690,7 +25685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="728" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A728" s="3">
         <v>1296</v>
       </c>
@@ -25720,7 +25715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="729" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A729" s="3">
         <v>1278</v>
       </c>
@@ -25750,7 +25745,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="730" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A730" s="3">
         <v>1307</v>
       </c>
@@ -25780,7 +25775,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="731" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A731" s="3">
         <v>1295</v>
       </c>
@@ -25810,7 +25805,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="732" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A732" s="3">
         <v>1432</v>
       </c>
@@ -25840,7 +25835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="733" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A733" s="3">
         <v>1298</v>
       </c>
@@ -25870,7 +25865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="734" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A734" s="3">
         <v>1088</v>
       </c>
@@ -25900,7 +25895,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="735" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A735" s="3">
         <v>1433</v>
       </c>
@@ -25930,7 +25925,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="736" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A736" s="3">
         <v>1425</v>
       </c>
@@ -25960,7 +25955,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="737" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A737" s="3">
         <v>766</v>
       </c>
@@ -25990,7 +25985,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="738" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A738" s="3">
         <v>784</v>
       </c>
@@ -26020,7 +26015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="739" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A739" s="3">
         <v>1092</v>
       </c>
@@ -26050,7 +26045,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="740" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A740" s="3">
         <v>1103</v>
       </c>
@@ -26080,7 +26075,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="741" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A741" s="3">
         <v>1180</v>
       </c>
@@ -26110,7 +26105,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="742" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A742" s="3">
         <v>765</v>
       </c>
@@ -26140,7 +26135,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="743" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A743" s="3">
         <v>1252</v>
       </c>
@@ -26170,7 +26165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="744" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A744" s="3">
         <v>1165</v>
       </c>
@@ -26200,7 +26195,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="745" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A745" s="3">
         <v>1106</v>
       </c>
@@ -26230,7 +26225,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="746" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A746" s="3">
         <v>1195</v>
       </c>
@@ -26260,7 +26255,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="747" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A747" s="3">
         <v>1434</v>
       </c>
@@ -26290,7 +26285,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="748" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="748" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A748" s="3">
         <v>1192</v>
       </c>
@@ -26320,7 +26315,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="749" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="749" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A749" s="3">
         <v>1199</v>
       </c>
@@ -26350,7 +26345,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="750" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A750" s="3">
         <v>1204</v>
       </c>
@@ -26380,7 +26375,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="751" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A751" s="3">
         <v>1263</v>
       </c>
@@ -26442,7 +26437,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="753" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="753" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A753" s="3">
         <v>1418</v>
       </c>
@@ -26472,7 +26467,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="754" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A754" s="3">
         <v>1301</v>
       </c>
@@ -26502,7 +26497,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="755" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="755" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A755" s="3">
         <v>1426</v>
       </c>
@@ -26532,7 +26527,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="756" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A756" s="3">
         <v>1086</v>
       </c>
@@ -26562,7 +26557,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="757" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A757" s="3">
         <v>1265</v>
       </c>
@@ -26592,7 +26587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="758" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A758" s="3">
         <v>1101</v>
       </c>
@@ -26622,7 +26617,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="759" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A759" s="3">
         <v>1359</v>
       </c>
@@ -26652,7 +26647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="760" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A760" s="3">
         <v>1305</v>
       </c>
@@ -26682,7 +26677,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="761" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A761" s="3">
         <v>959</v>
       </c>
@@ -26712,7 +26707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="762" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A762" s="3">
         <v>1356</v>
       </c>
@@ -26742,7 +26737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="763" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A763" s="3">
         <v>1417</v>
       </c>
@@ -26772,7 +26767,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="764" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="764" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A764" s="3">
         <v>1309</v>
       </c>
@@ -26802,7 +26797,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="765" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A765" s="3">
         <v>1363</v>
       </c>
@@ -26864,7 +26859,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="767" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A767" s="3">
         <v>1266</v>
       </c>
@@ -26958,7 +26953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="770" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="770" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A770" s="3">
         <v>1422</v>
       </c>
@@ -26988,7 +26983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="771" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="771" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A771" s="3">
         <v>1100</v>
       </c>
@@ -27018,7 +27013,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="772" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A772" s="3">
         <v>1171</v>
       </c>
@@ -27048,7 +27043,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="773" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A773" s="3">
         <v>1105</v>
       </c>
@@ -27078,7 +27073,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="774" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A774" s="3">
         <v>1120</v>
       </c>
@@ -27108,7 +27103,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="775" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A775" s="3">
         <v>1306</v>
       </c>
@@ -27138,7 +27133,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="776" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A776" s="3">
         <v>1267</v>
       </c>
@@ -27168,7 +27163,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="777" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A777" s="3">
         <v>1445</v>
       </c>
@@ -27198,7 +27193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="778" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="778" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A778" s="3">
         <v>1187</v>
       </c>
@@ -27228,7 +27223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="779" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="779" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A779" s="3">
         <v>674</v>
       </c>
@@ -27258,7 +27253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="780" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="780" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A780" s="3">
         <v>1407</v>
       </c>
@@ -27288,7 +27283,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="781" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="781" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A781" s="3">
         <v>1084</v>
       </c>
@@ -27318,7 +27313,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="782" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="782" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A782" s="3">
         <v>1131</v>
       </c>
@@ -27348,7 +27343,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="783" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="783" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A783" s="3">
         <v>762</v>
       </c>
@@ -27378,7 +27373,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="784" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="784" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A784" s="3">
         <v>767</v>
       </c>
@@ -27408,7 +27403,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="785" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="785" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A785" s="3">
         <v>800</v>
       </c>
@@ -27438,7 +27433,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="786" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="786" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A786" s="3">
         <v>978</v>
       </c>
@@ -27468,7 +27463,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="787" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="787" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A787" s="3">
         <v>1096</v>
       </c>
@@ -27498,7 +27493,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="788" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="788" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A788" s="3">
         <v>1104</v>
       </c>
@@ -27528,7 +27523,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="789" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="789" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A789" s="3">
         <v>1107</v>
       </c>
@@ -27558,7 +27553,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="790" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="790" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A790" s="3">
         <v>1109</v>
       </c>
@@ -27588,7 +27583,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="791" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="791" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A791" s="3">
         <v>1110</v>
       </c>
@@ -27618,7 +27613,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="792" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="792" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A792" s="3">
         <v>1112</v>
       </c>
@@ -27648,7 +27643,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="793" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="793" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A793" s="3">
         <v>1114</v>
       </c>
@@ -27678,7 +27673,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="794" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="794" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A794" s="3">
         <v>1115</v>
       </c>
@@ -27708,7 +27703,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="795" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="795" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A795" s="3">
         <v>1116</v>
       </c>
@@ -27738,7 +27733,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="796" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="796" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A796" s="3">
         <v>1117</v>
       </c>
@@ -27768,7 +27763,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="797" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="797" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A797" s="3">
         <v>1118</v>
       </c>
@@ -27798,7 +27793,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="798" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="798" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A798" s="3">
         <v>1119</v>
       </c>
@@ -27828,7 +27823,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="799" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="799" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A799" s="3">
         <v>1121</v>
       </c>
@@ -27858,7 +27853,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="800" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="800" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A800" s="3">
         <v>1122</v>
       </c>
@@ -27888,7 +27883,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="801" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="801" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A801" s="3">
         <v>1123</v>
       </c>
@@ -27918,7 +27913,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="802" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="802" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A802" s="3">
         <v>1124</v>
       </c>
@@ -27948,7 +27943,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="803" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="803" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A803" s="3">
         <v>1125</v>
       </c>
@@ -27978,7 +27973,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="804" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="804" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A804" s="3">
         <v>1126</v>
       </c>
@@ -28008,7 +28003,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="805" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="805" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A805" s="3">
         <v>1127</v>
       </c>
@@ -28038,7 +28033,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="806" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="806" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A806" s="3">
         <v>1128</v>
       </c>
@@ -28068,7 +28063,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="807" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A807" s="3">
         <v>1129</v>
       </c>
@@ -28098,7 +28093,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="808" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="808" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A808" s="3">
         <v>1130</v>
       </c>
@@ -28128,7 +28123,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="809" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="809" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A809" s="3">
         <v>1133</v>
       </c>
@@ -28158,7 +28153,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="810" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="810" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A810" s="3">
         <v>1198</v>
       </c>
@@ -28188,7 +28183,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="811" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="811" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A811" s="3">
         <v>1219</v>
       </c>
@@ -28218,7 +28213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="812" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A812" s="3">
         <v>1269</v>
       </c>
@@ -28248,7 +28243,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="813" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A813" s="3">
         <v>1289</v>
       </c>
@@ -28278,7 +28273,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="814" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A814" s="3">
         <v>1297</v>
       </c>
@@ -28308,7 +28303,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="815" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="815" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A815" s="3">
         <v>1302</v>
       </c>
@@ -28338,7 +28333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="816" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="816" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A816" s="3">
         <v>1304</v>
       </c>
@@ -28368,7 +28363,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="817" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="817" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A817" s="3">
         <v>1311</v>
       </c>
@@ -28398,7 +28393,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="818" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="818" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A818" s="3">
         <v>1332</v>
       </c>
@@ -28428,7 +28423,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="819" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A819" s="3">
         <v>1343</v>
       </c>
@@ -28458,7 +28453,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="820" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="820" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A820" s="3">
         <v>1344</v>
       </c>
@@ -28488,7 +28483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="821" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A821" s="3">
         <v>1365</v>
       </c>
@@ -28518,7 +28513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="822" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A822" s="3">
         <v>1374</v>
       </c>
@@ -28548,7 +28543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="823" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="823" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A823" s="3">
         <v>1412</v>
       </c>
@@ -28578,7 +28573,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="824" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="824" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A824" s="3">
         <v>1415</v>
       </c>
@@ -28608,7 +28603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="825" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="825" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A825" s="3">
         <v>1416</v>
       </c>
@@ -28638,7 +28633,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="826" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="826" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A826" s="3">
         <v>1421</v>
       </c>
@@ -28668,7 +28663,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="827" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A827" s="3">
         <v>1427</v>
       </c>
@@ -28698,7 +28693,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="828" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="828" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A828" s="3">
         <v>1431</v>
       </c>
@@ -28728,7 +28723,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="829" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A829" s="3">
         <v>1435</v>
       </c>
@@ -28758,7 +28753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="830" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A830" s="3">
         <v>1436</v>
       </c>
@@ -29242,7 +29237,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="846" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="846" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A846" s="3">
         <v>1441</v>
       </c>
@@ -29332,7 +29327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="849" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="849" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A849" s="3">
         <v>1448</v>
       </c>
@@ -30218,7 +30213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="878" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="878" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A878" s="3">
         <v>802</v>
       </c>
@@ -31668,7 +31663,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="926" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="926" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A926" s="3">
         <v>1444</v>
       </c>
@@ -31968,7 +31963,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="936" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="936" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A936" s="3">
         <v>1440</v>
       </c>
@@ -36184,7 +36179,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="1076" spans="1:10" ht="18.600000000000001" customHeight="1">
+    <row r="1076" spans="1:10" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1076" s="3">
         <v>1283</v>
       </c>

--- a/高考全国院校投档线-文件转换_数据清洗/江西/2023/二本.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2023/二本.xlsx
@@ -4050,12 +4050,90 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J1516" totalsRowShown="0">
   <autoFilter ref="A1:J1516">
     <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="理工"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
       <filters>
-        <filter val="理工"/>
+        <filter val="辽宁何氏医学院"/>
+        <filter val="福建中医药大学"/>
+        <filter val="新疆医科大学"/>
+        <filter val="安徽中医药大学"/>
+        <filter val="湖北中医药大学"/>
+        <filter val="黑龙江中医药大学"/>
+        <filter val="辽宁中医药大学"/>
+        <filter val="昆明医科大学"/>
+        <filter val="长春中医药大学(国家专项计划)"/>
+        <filter val="西南医科大学"/>
+        <filter val="哈尔滨医科大学"/>
+        <filter val="辽宁中医药大学杏林学院"/>
+        <filter val="新疆第二医学院"/>
+        <filter val="赣南医学院"/>
+        <filter val="广西中医药大学赛恩斯新医药学院"/>
+        <filter val="齐鲁医药学院"/>
+        <filter val="内蒙古科技大学包头医学院"/>
+        <filter val="长沙医学院"/>
+        <filter val="长治医学院"/>
+        <filter val="齐齐哈尔医学院"/>
+        <filter val="吉林医药学院"/>
+        <filter val="锦州医科大学"/>
+        <filter val="山东中医药大学"/>
+        <filter val="北京中医药大学东方学院"/>
+        <filter val="北京中医药大学"/>
+        <filter val="山西医科大学"/>
+        <filter val="遵义医科大学"/>
+        <filter val="山西中医药大学"/>
+        <filter val="南昌医学院"/>
+        <filter val="厦门医学院"/>
+        <filter val="江西中医药大学"/>
+        <filter val="安徽医科大学临床医学院"/>
+        <filter val="天津医科大学临床医学院"/>
+        <filter val="川北医学院"/>
+        <filter val="湖南中医药大学湘杏学院"/>
+        <filter val="承德医学院"/>
+        <filter val="新乡医学院"/>
+        <filter val="成都医学院"/>
+        <filter val="杭州医学院"/>
+        <filter val="桂林医学院"/>
+        <filter val="甘肃中医药大学"/>
+        <filter val="广西医科大学"/>
+        <filter val="湖北医药学院药护学院"/>
+        <filter val="海南医学院"/>
+        <filter val="济宁医学院"/>
+        <filter val="温州医科大学仁济学院"/>
+        <filter val="潍坊医学院"/>
+        <filter val="滨州医学院"/>
+        <filter val="大连医科大学中山学院"/>
+        <filter val="沈阳医学院"/>
+        <filter val="昆明医科大学海源学院"/>
+        <filter val="南京医科大学康达学院"/>
+        <filter val="锦州医科大学医疗学院"/>
+        <filter val="牡丹江医学院"/>
+        <filter val="皖南医学院"/>
+        <filter val="甘肃医学院"/>
+        <filter val="贵州中医药大学"/>
+        <filter val="广西中医药大学"/>
+        <filter val="云南中医药大学"/>
+        <filter val="右江民族医学院"/>
+        <filter val="山东第一医科大学"/>
+        <filter val="长春中医药大学"/>
+        <filter val="贵州医科大学"/>
+        <filter val="河北中医药大学"/>
+        <filter val="河南中医药大学"/>
+        <filter val="遵义医科大学医学与科技学院"/>
+        <filter val="湖北医药学院"/>
+        <filter val="湖南医药学院"/>
+        <filter val="内蒙古医科大学"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="公办"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:J1516">
+  <sortState ref="A1:J1516">
     <sortCondition ref="F1"/>
   </sortState>
   <tableColumns count="10">
@@ -4361,8 +4439,8 @@
   <sheetPr/>
   <dimension ref="A1:J1516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
-      <selection activeCell="J824" sqref="J824"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="D467" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4411,7 +4489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:10">
+    <row r="2" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A2" s="2">
         <v>1361</v>
       </c>
@@ -4471,7 +4549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="18.6" customHeight="1" spans="1:10">
+    <row r="4" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A4" s="2">
         <v>668</v>
       </c>
@@ -4501,7 +4579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="18.6" customHeight="1" spans="1:10">
+    <row r="5" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A5" s="2">
         <v>956</v>
       </c>
@@ -4531,7 +4609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="18.6" customHeight="1" spans="1:10">
+    <row r="6" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A6" s="2">
         <v>991</v>
       </c>
@@ -4561,7 +4639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="18.6" customHeight="1" spans="1:10">
+    <row r="7" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A7" s="2">
         <v>912</v>
       </c>
@@ -4591,7 +4669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="18.6" customHeight="1" spans="1:10">
+    <row r="8" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>675</v>
       </c>
@@ -4621,7 +4699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="18.6" customHeight="1" spans="1:10">
+    <row r="9" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A9" s="2">
         <v>691</v>
       </c>
@@ -4651,7 +4729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="18.6" customHeight="1" spans="1:10">
+    <row r="10" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A10" s="2">
         <v>676</v>
       </c>
@@ -4681,7 +4759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" spans="1:10">
+    <row r="11" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A11" s="2">
         <v>1176</v>
       </c>
@@ -4711,7 +4789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" spans="1:10">
+    <row r="12" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A12" s="2">
         <v>999</v>
       </c>
@@ -4741,7 +4819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="18.6" customHeight="1" spans="1:10">
+    <row r="13" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A13" s="2">
         <v>805</v>
       </c>
@@ -4771,7 +4849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="18.6" customHeight="1" spans="1:10">
+    <row r="14" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A14" s="2">
         <v>814</v>
       </c>
@@ -4801,7 +4879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="18.6" customHeight="1" spans="1:10">
+    <row r="15" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A15" s="2">
         <v>851</v>
       </c>
@@ -4831,7 +4909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="18.6" customHeight="1" spans="1:10">
+    <row r="16" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A16" s="2">
         <v>952</v>
       </c>
@@ -4861,7 +4939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="18.6" customHeight="1" spans="1:10">
+    <row r="17" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A17" s="2">
         <v>983</v>
       </c>
@@ -4891,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="18.6" customHeight="1" spans="1:10">
+    <row r="18" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A18" s="2">
         <v>803</v>
       </c>
@@ -4951,7 +5029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="18.6" customHeight="1" spans="1:10">
+    <row r="20" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A20" s="2">
         <v>911</v>
       </c>
@@ -5011,7 +5089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="18.6" customHeight="1" spans="1:10">
+    <row r="22" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A22" s="2">
         <v>769</v>
       </c>
@@ -5041,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="18.6" customHeight="1" spans="1:10">
+    <row r="23" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A23" s="2">
         <v>687</v>
       </c>
@@ -5071,7 +5149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="18.6" customHeight="1" spans="1:10">
+    <row r="24" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A24" s="2">
         <v>686</v>
       </c>
@@ -5101,7 +5179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="18.6" customHeight="1" spans="1:10">
+    <row r="25" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A25" s="2">
         <v>1139</v>
       </c>
@@ -5131,7 +5209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="18.6" customHeight="1" spans="1:10">
+    <row r="26" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A26" s="2">
         <v>942</v>
       </c>
@@ -5161,7 +5239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="18.6" customHeight="1" spans="1:10">
+    <row r="27" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A27" s="2">
         <v>817</v>
       </c>
@@ -5221,7 +5299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="18.6" customHeight="1" spans="1:10">
+    <row r="29" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A29" s="2">
         <v>944</v>
       </c>
@@ -5251,7 +5329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="18.6" customHeight="1" spans="1:10">
+    <row r="30" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A30" s="2">
         <v>1023</v>
       </c>
@@ -5281,7 +5359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" ht="18.6" customHeight="1" spans="1:10">
+    <row r="31" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A31" s="2">
         <v>822</v>
       </c>
@@ -5311,7 +5389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" ht="18.6" customHeight="1" spans="1:10">
+    <row r="32" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A32" s="2">
         <v>997</v>
       </c>
@@ -5371,7 +5449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" ht="18.6" customHeight="1" spans="1:10">
+    <row r="34" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A34" s="2">
         <v>1154</v>
       </c>
@@ -5401,7 +5479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" ht="18.6" customHeight="1" spans="1:10">
+    <row r="35" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A35" s="2">
         <v>882</v>
       </c>
@@ -5431,7 +5509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" ht="18.6" customHeight="1" spans="1:10">
+    <row r="36" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A36" s="2">
         <v>1404</v>
       </c>
@@ -5461,7 +5539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="18.6" customHeight="1" spans="1:10">
+    <row r="37" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A37" s="2">
         <v>811</v>
       </c>
@@ -5491,7 +5569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" ht="18.6" customHeight="1" spans="1:10">
+    <row r="38" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A38" s="2">
         <v>827</v>
       </c>
@@ -5521,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" ht="18.6" customHeight="1" spans="1:10">
+    <row r="39" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A39" s="2">
         <v>824</v>
       </c>
@@ -5551,7 +5629,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" ht="18.6" customHeight="1" spans="1:10">
+    <row r="40" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A40" s="2">
         <v>1397</v>
       </c>
@@ -5581,7 +5659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" ht="18.6" customHeight="1" spans="1:10">
+    <row r="41" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A41" s="2">
         <v>1450</v>
       </c>
@@ -5641,7 +5719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" ht="18.6" customHeight="1" spans="1:10">
+    <row r="43" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A43" s="2">
         <v>1366</v>
       </c>
@@ -5671,7 +5749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" ht="18.6" customHeight="1" spans="1:10">
+    <row r="44" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A44" s="2">
         <v>809</v>
       </c>
@@ -5701,7 +5779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" ht="18.6" customHeight="1" spans="1:10">
+    <row r="45" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A45" s="2">
         <v>938</v>
       </c>
@@ -5731,7 +5809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" ht="18.6" customHeight="1" spans="1:10">
+    <row r="46" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A46" s="2">
         <v>987</v>
       </c>
@@ -5791,7 +5869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" ht="18.6" customHeight="1" spans="1:10">
+    <row r="48" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A48" s="2">
         <v>746</v>
       </c>
@@ -5821,7 +5899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" ht="18.6" customHeight="1" spans="1:10">
+    <row r="49" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A49" s="2">
         <v>1319</v>
       </c>
@@ -5851,7 +5929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" ht="18.6" customHeight="1" spans="1:10">
+    <row r="50" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A50" s="2">
         <v>884</v>
       </c>
@@ -5881,7 +5959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" ht="18.6" customHeight="1" spans="1:10">
+    <row r="51" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A51" s="2">
         <v>810</v>
       </c>
@@ -5941,7 +6019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" ht="18.6" customHeight="1" spans="1:10">
+    <row r="53" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A53" s="2">
         <v>694</v>
       </c>
@@ -5971,7 +6049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" ht="18.6" customHeight="1" spans="1:10">
+    <row r="54" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A54" s="2">
         <v>855</v>
       </c>
@@ -6001,7 +6079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="18.6" customHeight="1" spans="1:10">
+    <row r="55" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A55" s="2">
         <v>1471</v>
       </c>
@@ -6033,7 +6111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" ht="18.6" customHeight="1" spans="1:10">
+    <row r="56" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A56" s="2">
         <v>818</v>
       </c>
@@ -6063,7 +6141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" ht="18.6" customHeight="1" spans="1:10">
+    <row r="57" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A57" s="2">
         <v>946</v>
       </c>
@@ -6093,7 +6171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" ht="18.6" customHeight="1" spans="1:10">
+    <row r="58" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A58" s="2">
         <v>994</v>
       </c>
@@ -6123,7 +6201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" ht="18.6" customHeight="1" spans="1:10">
+    <row r="59" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A59" s="2">
         <v>955</v>
       </c>
@@ -6153,7 +6231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" ht="18.6" customHeight="1" spans="1:10">
+    <row r="60" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A60" s="2">
         <v>922</v>
       </c>
@@ -6183,7 +6261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" ht="18.6" customHeight="1" spans="1:10">
+    <row r="61" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A61" s="2">
         <v>677</v>
       </c>
@@ -6213,7 +6291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" ht="18.6" customHeight="1" spans="1:10">
+    <row r="62" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A62" s="2">
         <v>834</v>
       </c>
@@ -6243,7 +6321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" ht="18.6" customHeight="1" spans="1:10">
+    <row r="63" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A63" s="2">
         <v>714</v>
       </c>
@@ -6273,7 +6351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" ht="18.6" customHeight="1" spans="1:10">
+    <row r="64" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A64" s="2">
         <v>1472</v>
       </c>
@@ -6305,7 +6383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" ht="18.6" customHeight="1" spans="1:10">
+    <row r="65" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A65" s="2">
         <v>1396</v>
       </c>
@@ -6335,7 +6413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" ht="18.6" customHeight="1" spans="1:10">
+    <row r="66" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A66" s="2">
         <v>963</v>
       </c>
@@ -6365,7 +6443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" ht="18.6" customHeight="1" spans="1:10">
+    <row r="67" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A67" s="2">
         <v>1357</v>
       </c>
@@ -6425,7 +6503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" ht="18.6" customHeight="1" spans="1:10">
+    <row r="69" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A69" s="2">
         <v>749</v>
       </c>
@@ -6455,7 +6533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" ht="18.6" customHeight="1" spans="1:10">
+    <row r="70" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A70" s="2">
         <v>883</v>
       </c>
@@ -6485,7 +6563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" ht="18.6" customHeight="1" spans="1:10">
+    <row r="71" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A71" s="2">
         <v>928</v>
       </c>
@@ -6545,7 +6623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" ht="18.6" customHeight="1" spans="1:10">
+    <row r="73" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A73" s="2">
         <v>688</v>
       </c>
@@ -6575,7 +6653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" ht="18.6" customHeight="1" spans="1:10">
+    <row r="74" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A74" s="2">
         <v>1052</v>
       </c>
@@ -6605,7 +6683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" ht="18.6" customHeight="1" spans="1:10">
+    <row r="75" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A75" s="2">
         <v>933</v>
       </c>
@@ -6635,7 +6713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" ht="18.6" customHeight="1" spans="1:10">
+    <row r="76" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A76" s="2">
         <v>1039</v>
       </c>
@@ -6665,7 +6743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" ht="18.6" customHeight="1" spans="1:10">
+    <row r="77" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A77" s="2">
         <v>1169</v>
       </c>
@@ -6695,7 +6773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" ht="18.6" customHeight="1" spans="1:10">
+    <row r="78" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A78" s="2">
         <v>1493</v>
       </c>
@@ -6727,7 +6805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" ht="18.6" customHeight="1" spans="1:10">
+    <row r="79" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A79" s="2">
         <v>846</v>
       </c>
@@ -6757,7 +6835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" ht="18.6" customHeight="1" spans="1:10">
+    <row r="80" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A80" s="2">
         <v>886</v>
       </c>
@@ -6787,7 +6865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" ht="18.6" customHeight="1" spans="1:10">
+    <row r="81" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A81" s="2">
         <v>881</v>
       </c>
@@ -6817,7 +6895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" ht="18.6" customHeight="1" spans="1:10">
+    <row r="82" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A82" s="2">
         <v>868</v>
       </c>
@@ -6847,7 +6925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" ht="18.6" customHeight="1" spans="1:10">
+    <row r="83" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A83" s="2">
         <v>750</v>
       </c>
@@ -6907,7 +6985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" ht="18.6" customHeight="1" spans="1:10">
+    <row r="85" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A85" s="2">
         <v>764</v>
       </c>
@@ -6937,7 +7015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" ht="18.6" customHeight="1" spans="1:10">
+    <row r="86" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A86" s="2">
         <v>840</v>
       </c>
@@ -6967,7 +7045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" ht="18.6" customHeight="1" spans="1:10">
+    <row r="87" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A87" s="2">
         <v>1470</v>
       </c>
@@ -6999,7 +7077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" ht="18.6" customHeight="1" spans="1:10">
+    <row r="88" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A88" s="2">
         <v>1028</v>
       </c>
@@ -7029,7 +7107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" ht="18.6" customHeight="1" spans="1:10">
+    <row r="89" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A89" s="2">
         <v>984</v>
       </c>
@@ -7059,7 +7137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" ht="18.6" customHeight="1" spans="1:10">
+    <row r="90" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A90" s="2">
         <v>685</v>
       </c>
@@ -7089,7 +7167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" ht="18.6" customHeight="1" spans="1:10">
+    <row r="91" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A91" s="2">
         <v>837</v>
       </c>
@@ -7119,7 +7197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" ht="18.6" customHeight="1" spans="1:10">
+    <row r="92" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A92" s="2">
         <v>1452</v>
       </c>
@@ -7151,7 +7229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" ht="18.6" customHeight="1" spans="1:10">
+    <row r="93" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A93" s="2">
         <v>703</v>
       </c>
@@ -7181,7 +7259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" ht="18.6" customHeight="1" spans="1:10">
+    <row r="94" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A94" s="2">
         <v>950</v>
       </c>
@@ -7241,7 +7319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" ht="18.6" customHeight="1" spans="1:10">
+    <row r="96" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A96" s="2">
         <v>1451</v>
       </c>
@@ -7303,7 +7381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" ht="18.6" customHeight="1" spans="1:10">
+    <row r="98" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A98" s="2">
         <v>825</v>
       </c>
@@ -7333,7 +7411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" ht="18.6" customHeight="1" spans="1:10">
+    <row r="99" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A99" s="2">
         <v>957</v>
       </c>
@@ -7363,7 +7441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" ht="18.6" customHeight="1" spans="1:10">
+    <row r="100" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A100" s="2">
         <v>924</v>
       </c>
@@ -7393,7 +7471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" ht="18.6" customHeight="1" spans="1:10">
+    <row r="101" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A101" s="2">
         <v>1387</v>
       </c>
@@ -7453,7 +7531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" ht="18.6" customHeight="1" spans="1:10">
+    <row r="103" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A103" s="2">
         <v>812</v>
       </c>
@@ -7483,7 +7561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" ht="18.6" customHeight="1" spans="1:10">
+    <row r="104" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A104" s="2">
         <v>755</v>
       </c>
@@ -7513,7 +7591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" ht="18.6" customHeight="1" spans="1:10">
+    <row r="105" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A105" s="2">
         <v>1058</v>
       </c>
@@ -7543,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" ht="18.6" customHeight="1" spans="1:10">
+    <row r="106" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A106" s="2">
         <v>941</v>
       </c>
@@ -7573,7 +7651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" ht="18.6" customHeight="1" spans="1:10">
+    <row r="107" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A107" s="2">
         <v>679</v>
       </c>
@@ -7603,7 +7681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" ht="18.6" customHeight="1" spans="1:10">
+    <row r="108" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A108" s="2">
         <v>831</v>
       </c>
@@ -7693,7 +7771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" ht="18.6" customHeight="1" spans="1:10">
+    <row r="111" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A111" s="2">
         <v>932</v>
       </c>
@@ -7723,7 +7801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" ht="18.6" customHeight="1" spans="1:10">
+    <row r="112" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A112" s="2">
         <v>986</v>
       </c>
@@ -7753,7 +7831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" ht="18.6" customHeight="1" spans="1:10">
+    <row r="113" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A113" s="2">
         <v>923</v>
       </c>
@@ -7783,7 +7861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" ht="18.6" customHeight="1" spans="1:10">
+    <row r="114" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A114" s="2">
         <v>1322</v>
       </c>
@@ -7813,7 +7891,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" ht="18.6" customHeight="1" spans="1:10">
+    <row r="115" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A115" s="2">
         <v>826</v>
       </c>
@@ -7843,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" ht="18.6" customHeight="1" spans="1:10">
+    <row r="116" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A116" s="2">
         <v>989</v>
       </c>
@@ -7873,7 +7951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" ht="18.6" customHeight="1" spans="1:10">
+    <row r="117" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A117" s="2">
         <v>874</v>
       </c>
@@ -7933,7 +8011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" ht="18.6" customHeight="1" spans="1:10">
+    <row r="119" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A119" s="2">
         <v>1032</v>
       </c>
@@ -7963,7 +8041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" ht="18.6" customHeight="1" spans="1:10">
+    <row r="120" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A120" s="2">
         <v>850</v>
       </c>
@@ -8023,7 +8101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" ht="18.6" customHeight="1" spans="1:10">
+    <row r="122" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A122" s="2">
         <v>937</v>
       </c>
@@ -8053,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" ht="18.6" customHeight="1" spans="1:10">
+    <row r="123" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A123" s="2">
         <v>929</v>
       </c>
@@ -8083,7 +8161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" ht="18.6" customHeight="1" spans="1:10">
+    <row r="124" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A124" s="2">
         <v>852</v>
       </c>
@@ -8113,7 +8191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" ht="18.6" customHeight="1" spans="1:10">
+    <row r="125" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A125" s="2">
         <v>847</v>
       </c>
@@ -8143,7 +8221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" ht="18.6" customHeight="1" spans="1:10">
+    <row r="126" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A126" s="2">
         <v>1275</v>
       </c>
@@ -8173,7 +8251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" ht="18.6" customHeight="1" spans="1:10">
+    <row r="127" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A127" s="2">
         <v>1161</v>
       </c>
@@ -8203,7 +8281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" ht="18.6" customHeight="1" spans="1:10">
+    <row r="128" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A128" s="2">
         <v>1037</v>
       </c>
@@ -8233,7 +8311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" ht="18.6" customHeight="1" spans="1:10">
+    <row r="129" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A129" s="2">
         <v>752</v>
       </c>
@@ -8263,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" ht="18.6" customHeight="1" spans="1:10">
+    <row r="130" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A130" s="2">
         <v>1469</v>
       </c>
@@ -8295,7 +8373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" ht="18.6" customHeight="1" spans="1:10">
+    <row r="131" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A131" s="2">
         <v>1353</v>
       </c>
@@ -8325,7 +8403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" ht="18.6" customHeight="1" spans="1:10">
+    <row r="132" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A132" s="2">
         <v>1026</v>
       </c>
@@ -8385,7 +8463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" ht="18.6" customHeight="1" spans="1:10">
+    <row r="134" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A134" s="2">
         <v>940</v>
       </c>
@@ -8415,7 +8493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" ht="18.6" customHeight="1" spans="1:10">
+    <row r="135" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A135" s="2">
         <v>865</v>
       </c>
@@ -8445,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" ht="18.6" customHeight="1" spans="1:10">
+    <row r="136" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A136" s="2">
         <v>841</v>
       </c>
@@ -8475,7 +8553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" ht="18.6" customHeight="1" spans="1:10">
+    <row r="137" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A137" s="2">
         <v>823</v>
       </c>
@@ -8595,7 +8673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" ht="18.6" customHeight="1" spans="1:10">
+    <row r="141" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A141" s="2">
         <v>870</v>
       </c>
@@ -8625,7 +8703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" ht="18.6" customHeight="1" spans="1:10">
+    <row r="142" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A142" s="2">
         <v>954</v>
       </c>
@@ -8655,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" ht="18.6" customHeight="1" spans="1:10">
+    <row r="143" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A143" s="2">
         <v>947</v>
       </c>
@@ -8685,7 +8763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" ht="18.6" customHeight="1" spans="1:10">
+    <row r="144" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A144" s="2">
         <v>1423</v>
       </c>
@@ -8715,7 +8793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" ht="18.6" customHeight="1" spans="1:10">
+    <row r="145" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A145" s="2">
         <v>701</v>
       </c>
@@ -8745,7 +8823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" ht="18.6" customHeight="1" spans="1:10">
+    <row r="146" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A146" s="2">
         <v>1040</v>
       </c>
@@ -8775,7 +8853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" ht="18.6" customHeight="1" spans="1:10">
+    <row r="147" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A147" s="2">
         <v>1454</v>
       </c>
@@ -8807,7 +8885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" ht="18.6" customHeight="1" spans="1:10">
+    <row r="148" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A148" s="2">
         <v>936</v>
       </c>
@@ -8837,7 +8915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" ht="18.6" customHeight="1" spans="1:10">
+    <row r="149" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A149" s="2">
         <v>699</v>
       </c>
@@ -8867,7 +8945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" ht="18.6" customHeight="1" spans="1:10">
+    <row r="150" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A150" s="2">
         <v>1453</v>
       </c>
@@ -8899,7 +8977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" ht="18.6" customHeight="1" spans="1:10">
+    <row r="151" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A151" s="2">
         <v>996</v>
       </c>
@@ -8929,7 +9007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" ht="18.6" customHeight="1" spans="1:10">
+    <row r="152" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A152" s="2">
         <v>747</v>
       </c>
@@ -8959,7 +9037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" ht="18.6" customHeight="1" spans="1:10">
+    <row r="153" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A153" s="2">
         <v>695</v>
       </c>
@@ -8989,7 +9067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" ht="18.6" customHeight="1" spans="1:10">
+    <row r="154" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A154" s="2">
         <v>1029</v>
       </c>
@@ -9019,7 +9097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" ht="18.6" customHeight="1" spans="1:10">
+    <row r="155" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A155" s="2">
         <v>930</v>
       </c>
@@ -9079,7 +9157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" ht="18.6" customHeight="1" spans="1:10">
+    <row r="157" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A157" s="2">
         <v>751</v>
       </c>
@@ -9109,7 +9187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" ht="18.6" customHeight="1" spans="1:10">
+    <row r="158" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A158" s="2">
         <v>1364</v>
       </c>
@@ -9139,7 +9217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" ht="18.6" customHeight="1" spans="1:10">
+    <row r="159" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A159" s="2">
         <v>1009</v>
       </c>
@@ -9229,7 +9307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" ht="18.6" customHeight="1" spans="1:10">
+    <row r="162" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A162" s="2">
         <v>864</v>
       </c>
@@ -9259,7 +9337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" ht="18.6" customHeight="1" spans="1:10">
+    <row r="163" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A163" s="2">
         <v>993</v>
       </c>
@@ -9289,7 +9367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" ht="18.6" customHeight="1" spans="1:10">
+    <row r="164" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A164" s="2">
         <v>820</v>
       </c>
@@ -9319,7 +9397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" ht="18.6" customHeight="1" spans="1:10">
+    <row r="165" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A165" s="2">
         <v>985</v>
       </c>
@@ -9349,7 +9427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" ht="18.6" customHeight="1" spans="1:10">
+    <row r="166" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A166" s="2">
         <v>1167</v>
       </c>
@@ -9379,7 +9457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" ht="18.6" customHeight="1" spans="1:10">
+    <row r="167" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A167" s="2">
         <v>777</v>
       </c>
@@ -9409,7 +9487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" ht="18.6" customHeight="1" spans="1:10">
+    <row r="168" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A168" s="2">
         <v>1492</v>
       </c>
@@ -9441,7 +9519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" ht="18.6" customHeight="1" spans="1:10">
+    <row r="169" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A169" s="2">
         <v>990</v>
       </c>
@@ -9471,7 +9549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" ht="18.6" customHeight="1" spans="1:10">
+    <row r="170" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A170" s="2">
         <v>1321</v>
       </c>
@@ -9501,7 +9579,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" ht="18.6" customHeight="1" spans="1:10">
+    <row r="171" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A171" s="2">
         <v>968</v>
       </c>
@@ -9531,7 +9609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" ht="18.6" customHeight="1" spans="1:10">
+    <row r="172" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A172" s="2">
         <v>859</v>
       </c>
@@ -9561,7 +9639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" ht="18.6" customHeight="1" spans="1:10">
+    <row r="173" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A173" s="2">
         <v>916</v>
       </c>
@@ -9591,7 +9669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" ht="18.6" customHeight="1" spans="1:10">
+    <row r="174" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A174" s="2">
         <v>1284</v>
       </c>
@@ -9621,7 +9699,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" ht="18.6" customHeight="1" spans="1:10">
+    <row r="175" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A175" s="2">
         <v>971</v>
       </c>
@@ -9651,7 +9729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" ht="18.6" customHeight="1" spans="1:10">
+    <row r="176" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A176" s="2">
         <v>1057</v>
       </c>
@@ -9681,7 +9759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" ht="18.6" customHeight="1" spans="1:10">
+    <row r="177" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A177" s="2">
         <v>877</v>
       </c>
@@ -9711,7 +9789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" ht="18.6" customHeight="1" spans="1:10">
+    <row r="178" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A178" s="2">
         <v>885</v>
       </c>
@@ -9801,7 +9879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" ht="18.6" customHeight="1" spans="1:10">
+    <row r="181" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A181" s="2">
         <v>904</v>
       </c>
@@ -9831,7 +9909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" ht="18.6" customHeight="1" spans="1:10">
+    <row r="182" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A182" s="2">
         <v>774</v>
       </c>
@@ -9861,7 +9939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" ht="18.6" customHeight="1" spans="1:10">
+    <row r="183" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A183" s="2">
         <v>718</v>
       </c>
@@ -9891,7 +9969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" ht="18.6" customHeight="1" spans="1:10">
+    <row r="184" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A184" s="2">
         <v>758</v>
       </c>
@@ -9921,7 +9999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" ht="18.6" customHeight="1" spans="1:10">
+    <row r="185" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A185" s="2">
         <v>1420</v>
       </c>
@@ -9951,7 +10029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" ht="18.6" customHeight="1" spans="1:10">
+    <row r="186" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A186" s="2">
         <v>1323</v>
       </c>
@@ -9981,7 +10059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" ht="18.6" customHeight="1" spans="1:10">
+    <row r="187" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A187" s="2">
         <v>951</v>
       </c>
@@ -10011,7 +10089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" ht="18.6" customHeight="1" spans="1:10">
+    <row r="188" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A188" s="2">
         <v>918</v>
       </c>
@@ -10071,7 +10149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" ht="18.6" customHeight="1" spans="1:10">
+    <row r="190" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A190" s="2">
         <v>879</v>
       </c>
@@ -10101,7 +10179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" ht="18.6" customHeight="1" spans="1:10">
+    <row r="191" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A191" s="2">
         <v>943</v>
       </c>
@@ -10131,7 +10209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" ht="18.6" customHeight="1" spans="1:10">
+    <row r="192" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A192" s="2">
         <v>708</v>
       </c>
@@ -10161,7 +10239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" ht="18.6" customHeight="1" spans="1:10">
+    <row r="193" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A193" s="2">
         <v>917</v>
       </c>
@@ -10191,7 +10269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" ht="18.6" customHeight="1" spans="1:10">
+    <row r="194" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A194" s="2">
         <v>690</v>
       </c>
@@ -10221,7 +10299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" ht="18.6" customHeight="1" spans="1:10">
+    <row r="195" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A195" s="2">
         <v>861</v>
       </c>
@@ -10251,7 +10329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" ht="18.6" customHeight="1" spans="1:10">
+    <row r="196" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A196" s="2">
         <v>844</v>
       </c>
@@ -10281,7 +10359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" ht="18.6" customHeight="1" spans="1:10">
+    <row r="197" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A197" s="2">
         <v>935</v>
       </c>
@@ -10311,7 +10389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" ht="18.6" customHeight="1" spans="1:10">
+    <row r="198" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A198" s="2">
         <v>919</v>
       </c>
@@ -10341,7 +10419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" ht="18.6" customHeight="1" spans="1:10">
+    <row r="199" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A199" s="2">
         <v>1455</v>
       </c>
@@ -10373,7 +10451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" ht="18.6" customHeight="1" spans="1:10">
+    <row r="200" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A200" s="2">
         <v>1184</v>
       </c>
@@ -10403,7 +10481,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" ht="18.6" customHeight="1" spans="1:10">
+    <row r="201" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A201" s="2">
         <v>1339</v>
       </c>
@@ -10433,7 +10511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" ht="18.6" customHeight="1" spans="1:10">
+    <row r="202" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A202" s="2">
         <v>1369</v>
       </c>
@@ -10493,7 +10571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" ht="18.6" customHeight="1" spans="1:10">
+    <row r="204" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A204" s="2">
         <v>958</v>
       </c>
@@ -10523,7 +10601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" ht="18.6" customHeight="1" spans="1:10">
+    <row r="205" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A205" s="2">
         <v>962</v>
       </c>
@@ -10583,7 +10661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" ht="18.6" customHeight="1" spans="1:10">
+    <row r="207" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A207" s="2">
         <v>807</v>
       </c>
@@ -10613,7 +10691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" ht="18.6" customHeight="1" spans="1:10">
+    <row r="208" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A208" s="2">
         <v>816</v>
       </c>
@@ -10643,7 +10721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" ht="18.6" customHeight="1" spans="1:10">
+    <row r="209" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A209" s="2">
         <v>700</v>
       </c>
@@ -10673,7 +10751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" ht="18.6" customHeight="1" spans="1:10">
+    <row r="210" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A210" s="2">
         <v>914</v>
       </c>
@@ -10703,7 +10781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" ht="18.6" customHeight="1" spans="1:10">
+    <row r="211" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A211" s="2">
         <v>866</v>
       </c>
@@ -10733,7 +10811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" ht="18.6" customHeight="1" spans="1:10">
+    <row r="212" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A212" s="2">
         <v>1248</v>
       </c>
@@ -10763,7 +10841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" ht="18.6" customHeight="1" spans="1:10">
+    <row r="213" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A213" s="2">
         <v>869</v>
       </c>
@@ -10793,7 +10871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" ht="18.6" customHeight="1" spans="1:10">
+    <row r="214" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A214" s="2">
         <v>853</v>
       </c>
@@ -10823,7 +10901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" ht="18.6" customHeight="1" spans="1:10">
+    <row r="215" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A215" s="2">
         <v>1320</v>
       </c>
@@ -10853,7 +10931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" ht="18.6" customHeight="1" spans="1:10">
+    <row r="216" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A216" s="2">
         <v>1367</v>
       </c>
@@ -10883,7 +10961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" ht="18.6" customHeight="1" spans="1:10">
+    <row r="217" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A217" s="2">
         <v>1461</v>
       </c>
@@ -10915,7 +10993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" ht="18.6" customHeight="1" spans="1:10">
+    <row r="218" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A218" s="2">
         <v>763</v>
       </c>
@@ -10945,7 +11023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" ht="18.6" customHeight="1" spans="1:10">
+    <row r="219" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A219" s="2">
         <v>670</v>
       </c>
@@ -10975,7 +11053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" ht="18.6" customHeight="1" spans="1:10">
+    <row r="220" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A220" s="2">
         <v>1406</v>
       </c>
@@ -11005,7 +11083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" ht="18.6" customHeight="1" spans="1:10">
+    <row r="221" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A221" s="2">
         <v>1003</v>
       </c>
@@ -11035,7 +11113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" ht="18.6" customHeight="1" spans="1:10">
+    <row r="222" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A222" s="2">
         <v>948</v>
       </c>
@@ -11065,7 +11143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" ht="18.6" customHeight="1" spans="1:10">
+    <row r="223" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A223" s="2">
         <v>1409</v>
       </c>
@@ -11095,7 +11173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" ht="18.6" customHeight="1" spans="1:10">
+    <row r="224" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A224" s="2">
         <v>828</v>
       </c>
@@ -11125,7 +11203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" ht="18.6" customHeight="1" spans="1:10">
+    <row r="225" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A225" s="2">
         <v>773</v>
       </c>
@@ -11155,7 +11233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" ht="18.6" customHeight="1" spans="1:10">
+    <row r="226" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A226" s="2">
         <v>1473</v>
       </c>
@@ -11187,7 +11265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" ht="18.6" customHeight="1" spans="1:10">
+    <row r="227" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A227" s="2">
         <v>753</v>
       </c>
@@ -11217,7 +11295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" ht="18.6" customHeight="1" spans="1:10">
+    <row r="228" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A228" s="2">
         <v>712</v>
       </c>
@@ -11247,7 +11325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" ht="18.6" customHeight="1" spans="1:10">
+    <row r="229" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A229" s="2">
         <v>1338</v>
       </c>
@@ -11277,7 +11355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" ht="18.6" customHeight="1" spans="1:10">
+    <row r="230" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A230" s="2">
         <v>1258</v>
       </c>
@@ -11307,7 +11385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="231" ht="18.6" customHeight="1" spans="1:10">
+    <row r="231" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A231" s="2">
         <v>1466</v>
       </c>
@@ -11339,7 +11417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" ht="18.6" customHeight="1" spans="1:10">
+    <row r="232" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A232" s="2">
         <v>863</v>
       </c>
@@ -11369,7 +11447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" ht="18.6" customHeight="1" spans="1:10">
+    <row r="233" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A233" s="2">
         <v>1019</v>
       </c>
@@ -11399,7 +11477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" ht="18.6" customHeight="1" spans="1:10">
+    <row r="234" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A234" s="2">
         <v>808</v>
       </c>
@@ -11429,7 +11507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" ht="18.6" customHeight="1" spans="1:10">
+    <row r="235" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A235" s="2">
         <v>1395</v>
       </c>
@@ -11459,7 +11537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" ht="18.6" customHeight="1" spans="1:10">
+    <row r="236" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A236" s="2">
         <v>1400</v>
       </c>
@@ -11489,7 +11567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" ht="18.6" customHeight="1" spans="1:10">
+    <row r="237" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A237" s="2">
         <v>876</v>
       </c>
@@ -11519,7 +11597,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" ht="18.6" customHeight="1" spans="1:10">
+    <row r="238" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A238" s="2">
         <v>1336</v>
       </c>
@@ -11549,7 +11627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" ht="18.6" customHeight="1" spans="1:10">
+    <row r="239" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A239" s="2">
         <v>806</v>
       </c>
@@ -11579,7 +11657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" ht="18.6" customHeight="1" spans="1:10">
+    <row r="240" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A240" s="2">
         <v>862</v>
       </c>
@@ -11609,7 +11687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" ht="18.6" customHeight="1" spans="1:10">
+    <row r="241" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A241" s="2">
         <v>830</v>
       </c>
@@ -11639,7 +11717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" ht="18.6" customHeight="1" spans="1:10">
+    <row r="242" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A242" s="2">
         <v>896</v>
       </c>
@@ -11669,7 +11747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" ht="18.6" customHeight="1" spans="1:10">
+    <row r="243" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A243" s="2">
         <v>1016</v>
       </c>
@@ -11699,7 +11777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" ht="18.6" customHeight="1" spans="1:10">
+    <row r="244" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A244" s="2">
         <v>819</v>
       </c>
@@ -11729,7 +11807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" ht="18.6" customHeight="1" spans="1:10">
+    <row r="245" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A245" s="2">
         <v>892</v>
       </c>
@@ -11759,7 +11837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" ht="18.6" customHeight="1" spans="1:10">
+    <row r="246" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A246" s="2">
         <v>1024</v>
       </c>
@@ -11789,7 +11867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" ht="18.6" customHeight="1" spans="1:10">
+    <row r="247" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A247" s="2">
         <v>931</v>
       </c>
@@ -11819,7 +11897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" ht="18.6" customHeight="1" spans="1:10">
+    <row r="248" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A248" s="2">
         <v>707</v>
       </c>
@@ -11879,7 +11957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" ht="18.6" customHeight="1" spans="1:10">
+    <row r="250" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A250" s="2">
         <v>1342</v>
       </c>
@@ -11909,7 +11987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" ht="18.6" customHeight="1" spans="1:10">
+    <row r="251" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A251" s="2">
         <v>1486</v>
       </c>
@@ -11941,7 +12019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" ht="18.6" customHeight="1" spans="1:10">
+    <row r="252" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A252" s="2">
         <v>761</v>
       </c>
@@ -11971,7 +12049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" ht="18.6" customHeight="1" spans="1:10">
+    <row r="253" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A253" s="2">
         <v>906</v>
       </c>
@@ -12001,7 +12079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" ht="18.6" customHeight="1" spans="1:10">
+    <row r="254" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A254" s="2">
         <v>953</v>
       </c>
@@ -12031,7 +12109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" ht="18.6" customHeight="1" spans="1:10">
+    <row r="255" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A255" s="2">
         <v>926</v>
       </c>
@@ -12061,7 +12139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" ht="18.6" customHeight="1" spans="1:10">
+    <row r="256" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A256" s="2">
         <v>961</v>
       </c>
@@ -12091,7 +12169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" ht="18.6" customHeight="1" spans="1:10">
+    <row r="257" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A257" s="2">
         <v>1358</v>
       </c>
@@ -12121,7 +12199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" ht="18.6" customHeight="1" spans="1:10">
+    <row r="258" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A258" s="2">
         <v>1044</v>
       </c>
@@ -12151,7 +12229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" ht="18.6" customHeight="1" spans="1:10">
+    <row r="259" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A259" s="2">
         <v>856</v>
       </c>
@@ -12181,7 +12259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" ht="18.6" customHeight="1" spans="1:10">
+    <row r="260" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A260" s="2">
         <v>678</v>
       </c>
@@ -12211,7 +12289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" ht="18.6" customHeight="1" spans="1:10">
+    <row r="261" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A261" s="2">
         <v>1391</v>
       </c>
@@ -12241,7 +12319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" ht="18.6" customHeight="1" spans="1:10">
+    <row r="262" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A262" s="2">
         <v>927</v>
       </c>
@@ -12271,7 +12349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" ht="18.6" customHeight="1" spans="1:10">
+    <row r="263" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A263" s="2">
         <v>981</v>
       </c>
@@ -12301,7 +12379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" ht="18.6" customHeight="1" spans="1:10">
+    <row r="264" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A264" s="2">
         <v>849</v>
       </c>
@@ -12361,7 +12439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" ht="18.6" customHeight="1" spans="1:10">
+    <row r="266" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A266" s="2">
         <v>1508</v>
       </c>
@@ -12391,7 +12469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" ht="18.6" customHeight="1" spans="1:10">
+    <row r="267" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A267" s="2">
         <v>1487</v>
       </c>
@@ -12423,7 +12501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" ht="18.6" customHeight="1" spans="1:10">
+    <row r="268" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A268" s="2">
         <v>1490</v>
       </c>
@@ -12455,7 +12533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" ht="18.6" customHeight="1" spans="1:10">
+    <row r="269" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A269" s="2">
         <v>895</v>
       </c>
@@ -12485,7 +12563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" ht="18.6" customHeight="1" spans="1:10">
+    <row r="270" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A270" s="2">
         <v>1456</v>
       </c>
@@ -12517,7 +12595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" ht="18.6" customHeight="1" spans="1:10">
+    <row r="271" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A271" s="2">
         <v>1464</v>
       </c>
@@ -12549,7 +12627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" ht="18.6" customHeight="1" spans="1:10">
+    <row r="272" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A272" s="2">
         <v>1038</v>
       </c>
@@ -12579,7 +12657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" ht="18.6" customHeight="1" spans="1:10">
+    <row r="273" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A273" s="2">
         <v>945</v>
       </c>
@@ -12609,7 +12687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" ht="18.6" customHeight="1" spans="1:10">
+    <row r="274" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A274" s="2">
         <v>692</v>
       </c>
@@ -12639,7 +12717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" ht="18.6" customHeight="1" spans="1:10">
+    <row r="275" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A275" s="2">
         <v>979</v>
       </c>
@@ -12669,7 +12747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" ht="18.6" customHeight="1" spans="1:10">
+    <row r="276" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A276" s="2">
         <v>770</v>
       </c>
@@ -12699,7 +12777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" ht="18.6" customHeight="1" spans="1:10">
+    <row r="277" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A277" s="2">
         <v>1055</v>
       </c>
@@ -12729,7 +12807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" ht="18.6" customHeight="1" spans="1:10">
+    <row r="278" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A278" s="2">
         <v>669</v>
       </c>
@@ -12759,7 +12837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" ht="18.6" customHeight="1" spans="1:10">
+    <row r="279" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A279" s="2">
         <v>768</v>
       </c>
@@ -12789,7 +12867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" ht="18.6" customHeight="1" spans="1:10">
+    <row r="280" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A280" s="2">
         <v>732</v>
       </c>
@@ -12819,7 +12897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" ht="18.6" customHeight="1" spans="1:10">
+    <row r="281" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A281" s="2">
         <v>673</v>
       </c>
@@ -12849,7 +12927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" ht="18.6" customHeight="1" spans="1:10">
+    <row r="282" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A282" s="2">
         <v>693</v>
       </c>
@@ -12879,7 +12957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" ht="18.6" customHeight="1" spans="1:10">
+    <row r="283" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A283" s="2">
         <v>867</v>
       </c>
@@ -12909,7 +12987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" ht="18.6" customHeight="1" spans="1:10">
+    <row r="284" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A284" s="2">
         <v>934</v>
       </c>
@@ -12939,7 +13017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" ht="18.6" customHeight="1" spans="1:10">
+    <row r="285" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A285" s="2">
         <v>748</v>
       </c>
@@ -12969,7 +13047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" ht="18.6" customHeight="1" spans="1:10">
+    <row r="286" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A286" s="2">
         <v>787</v>
       </c>
@@ -12999,7 +13077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" ht="18.6" customHeight="1" spans="1:10">
+    <row r="287" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A287" s="2">
         <v>970</v>
       </c>
@@ -13059,7 +13137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" ht="18.6" customHeight="1" spans="1:10">
+    <row r="289" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A289" s="2">
         <v>1014</v>
       </c>
@@ -13119,7 +13197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" ht="18.6" customHeight="1" spans="1:10">
+    <row r="291" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A291" s="2">
         <v>988</v>
       </c>
@@ -13149,7 +13227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" ht="18.6" customHeight="1" spans="1:10">
+    <row r="292" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A292" s="2">
         <v>1010</v>
       </c>
@@ -13179,7 +13257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" ht="18.6" customHeight="1" spans="1:10">
+    <row r="293" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A293" s="2">
         <v>1197</v>
       </c>
@@ -13239,7 +13317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" ht="18.6" customHeight="1" spans="1:10">
+    <row r="295" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A295" s="2">
         <v>698</v>
       </c>
@@ -13269,7 +13347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" ht="18.6" customHeight="1" spans="1:10">
+    <row r="296" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A296" s="2">
         <v>1011</v>
       </c>
@@ -13299,7 +13377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" ht="18.6" customHeight="1" spans="1:10">
+    <row r="297" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A297" s="2">
         <v>792</v>
       </c>
@@ -13361,7 +13439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" ht="18.6" customHeight="1" spans="1:10">
+    <row r="299" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A299" s="2">
         <v>1381</v>
       </c>
@@ -13391,7 +13469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" ht="18.6" customHeight="1" spans="1:10">
+    <row r="300" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A300" s="2">
         <v>1449</v>
       </c>
@@ -13421,7 +13499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" ht="18.6" customHeight="1" spans="1:10">
+    <row r="301" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A301" s="2">
         <v>905</v>
       </c>
@@ -13451,7 +13529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" ht="18.6" customHeight="1" spans="1:10">
+    <row r="302" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A302" s="2">
         <v>1329</v>
       </c>
@@ -13481,7 +13559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" ht="18.6" customHeight="1" spans="1:10">
+    <row r="303" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A303" s="2">
         <v>1460</v>
       </c>
@@ -13513,7 +13591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" ht="18.6" customHeight="1" spans="1:10">
+    <row r="304" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A304" s="2">
         <v>775</v>
       </c>
@@ -13543,7 +13621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" ht="18.6" customHeight="1" spans="1:10">
+    <row r="305" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A305" s="2">
         <v>1457</v>
       </c>
@@ -13575,7 +13653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" ht="18.6" customHeight="1" spans="1:10">
+    <row r="306" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A306" s="2">
         <v>704</v>
       </c>
@@ -13605,7 +13683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" ht="18.6" customHeight="1" spans="1:10">
+    <row r="307" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A307" s="2">
         <v>780</v>
       </c>
@@ -13635,7 +13713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" ht="18.6" customHeight="1" spans="1:10">
+    <row r="308" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A308" s="2">
         <v>1362</v>
       </c>
@@ -13695,7 +13773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" ht="18.6" customHeight="1" spans="1:10">
+    <row r="310" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A310" s="2">
         <v>1034</v>
       </c>
@@ -13725,7 +13803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" ht="18.6" customHeight="1" spans="1:10">
+    <row r="311" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A311" s="2">
         <v>897</v>
       </c>
@@ -13755,7 +13833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" ht="18.6" customHeight="1" spans="1:10">
+    <row r="312" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A312" s="2">
         <v>949</v>
       </c>
@@ -13785,7 +13863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" ht="18.6" customHeight="1" spans="1:10">
+    <row r="313" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A313" s="2">
         <v>1377</v>
       </c>
@@ -13815,7 +13893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" ht="18.6" customHeight="1" spans="1:10">
+    <row r="314" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A314" s="2">
         <v>974</v>
       </c>
@@ -13845,7 +13923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" ht="18.6" customHeight="1" spans="1:10">
+    <row r="315" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A315" s="2">
         <v>1337</v>
       </c>
@@ -13875,7 +13953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" ht="18.6" customHeight="1" spans="1:10">
+    <row r="316" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A316" s="2">
         <v>893</v>
       </c>
@@ -13905,7 +13983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" ht="18.6" customHeight="1" spans="1:10">
+    <row r="317" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A317" s="2">
         <v>1375</v>
       </c>
@@ -13965,7 +14043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" ht="18.6" customHeight="1" spans="1:10">
+    <row r="319" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A319" s="2">
         <v>920</v>
       </c>
@@ -14025,7 +14103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" ht="18.6" customHeight="1" spans="1:10">
+    <row r="321" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A321" s="2">
         <v>715</v>
       </c>
@@ -14055,7 +14133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" ht="18.6" customHeight="1" spans="1:10">
+    <row r="322" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A322" s="2">
         <v>857</v>
       </c>
@@ -14085,7 +14163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" ht="18.6" customHeight="1" spans="1:10">
+    <row r="323" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A323" s="2">
         <v>1065</v>
       </c>
@@ -14115,7 +14193,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" ht="18.6" customHeight="1" spans="1:10">
+    <row r="324" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A324" s="2">
         <v>717</v>
       </c>
@@ -14145,7 +14223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" ht="18.6" customHeight="1" spans="1:10">
+    <row r="325" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A325" s="2">
         <v>778</v>
       </c>
@@ -14175,7 +14253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" ht="18.6" customHeight="1" spans="1:10">
+    <row r="326" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A326" s="2">
         <v>899</v>
       </c>
@@ -14205,7 +14283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" ht="18.6" customHeight="1" spans="1:10">
+    <row r="327" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A327" s="2">
         <v>915</v>
       </c>
@@ -14235,7 +14313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" ht="18.6" customHeight="1" spans="1:10">
+    <row r="328" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A328" s="2">
         <v>1399</v>
       </c>
@@ -14265,7 +14343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" ht="18.6" customHeight="1" spans="1:10">
+    <row r="329" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A329" s="2">
         <v>836</v>
       </c>
@@ -14295,7 +14373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" ht="18.6" customHeight="1" spans="1:10">
+    <row r="330" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A330" s="2">
         <v>832</v>
       </c>
@@ -14325,7 +14403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" ht="18.6" customHeight="1" spans="1:10">
+    <row r="331" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A331" s="2">
         <v>1194</v>
       </c>
@@ -14355,7 +14433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" ht="18.6" customHeight="1" spans="1:10">
+    <row r="332" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A332" s="2">
         <v>711</v>
       </c>
@@ -14385,7 +14463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" ht="18.6" customHeight="1" spans="1:10">
+    <row r="333" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A333" s="2">
         <v>1352</v>
       </c>
@@ -14415,7 +14493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" ht="18.6" customHeight="1" spans="1:10">
+    <row r="334" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A334" s="2">
         <v>680</v>
       </c>
@@ -14445,7 +14523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" ht="18.6" customHeight="1" spans="1:10">
+    <row r="335" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A335" s="2">
         <v>716</v>
       </c>
@@ -14505,7 +14583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" ht="18.6" customHeight="1" spans="1:10">
+    <row r="337" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A337" s="2">
         <v>1294</v>
       </c>
@@ -14535,7 +14613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="338" ht="18.6" customHeight="1" spans="1:10">
+    <row r="338" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A338" s="2">
         <v>1405</v>
       </c>
@@ -14595,7 +14673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" ht="18.6" customHeight="1" spans="1:10">
+    <row r="340" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A340" s="2">
         <v>1277</v>
       </c>
@@ -14625,7 +14703,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="341" ht="18.6" customHeight="1" spans="1:10">
+    <row r="341" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A341" s="2">
         <v>1413</v>
       </c>
@@ -14655,7 +14733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" ht="18.6" customHeight="1" spans="1:10">
+    <row r="342" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A342" s="2">
         <v>835</v>
       </c>
@@ -14685,7 +14763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" ht="18.6" customHeight="1" spans="1:10">
+    <row r="343" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A343" s="2">
         <v>939</v>
       </c>
@@ -14715,7 +14793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" ht="18.6" customHeight="1" spans="1:10">
+    <row r="344" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A344" s="2">
         <v>1158</v>
       </c>
@@ -14775,7 +14853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" ht="18.6" customHeight="1" spans="1:10">
+    <row r="346" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A346" s="2">
         <v>672</v>
       </c>
@@ -14805,7 +14883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" ht="18.6" customHeight="1" spans="1:10">
+    <row r="347" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A347" s="2">
         <v>1393</v>
       </c>
@@ -14835,7 +14913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" ht="18.6" customHeight="1" spans="1:10">
+    <row r="348" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A348" s="2">
         <v>731</v>
       </c>
@@ -14865,7 +14943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" ht="18.6" customHeight="1" spans="1:10">
+    <row r="349" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A349" s="2">
         <v>982</v>
       </c>
@@ -14895,7 +14973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" ht="18.6" customHeight="1" spans="1:10">
+    <row r="350" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A350" s="2">
         <v>776</v>
       </c>
@@ -14925,7 +15003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" ht="18.6" customHeight="1" spans="1:10">
+    <row r="351" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A351" s="2">
         <v>791</v>
       </c>
@@ -14955,7 +15033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" ht="18.6" customHeight="1" spans="1:10">
+    <row r="352" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A352" s="2">
         <v>1351</v>
       </c>
@@ -14985,7 +15063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" ht="18.6" customHeight="1" spans="1:10">
+    <row r="353" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A353" s="2">
         <v>734</v>
       </c>
@@ -15015,7 +15093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" ht="18.6" customHeight="1" spans="1:10">
+    <row r="354" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A354" s="2">
         <v>1064</v>
       </c>
@@ -15045,7 +15123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" ht="18.6" customHeight="1" spans="1:10">
+    <row r="355" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A355" s="2">
         <v>842</v>
       </c>
@@ -15075,7 +15153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" ht="18.6" customHeight="1" spans="1:10">
+    <row r="356" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A356" s="2">
         <v>995</v>
       </c>
@@ -15105,7 +15183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" ht="18.6" customHeight="1" spans="1:10">
+    <row r="357" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A357" s="2">
         <v>1291</v>
       </c>
@@ -15135,7 +15213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="358" ht="18.6" customHeight="1" spans="1:10">
+    <row r="358" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A358" s="2">
         <v>860</v>
       </c>
@@ -15165,7 +15243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" ht="18.6" customHeight="1" spans="1:10">
+    <row r="359" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A359" s="2">
         <v>1049</v>
       </c>
@@ -15195,7 +15273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" ht="18.6" customHeight="1" spans="1:10">
+    <row r="360" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A360" s="2">
         <v>1462</v>
       </c>
@@ -15227,7 +15305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" ht="18.6" customHeight="1" spans="1:10">
+    <row r="361" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A361" s="2">
         <v>898</v>
       </c>
@@ -15257,7 +15335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" ht="18.6" customHeight="1" spans="1:10">
+    <row r="362" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A362" s="2">
         <v>891</v>
       </c>
@@ -15287,7 +15365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" ht="18.6" customHeight="1" spans="1:10">
+    <row r="363" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A363" s="2">
         <v>1394</v>
       </c>
@@ -15317,7 +15395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" ht="18.6" customHeight="1" spans="1:10">
+    <row r="364" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A364" s="2">
         <v>1403</v>
       </c>
@@ -15347,7 +15425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" ht="18.6" customHeight="1" spans="1:10">
+    <row r="365" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A365" s="2">
         <v>887</v>
       </c>
@@ -15377,7 +15455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" ht="18.6" customHeight="1" spans="1:10">
+    <row r="366" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A366" s="2">
         <v>1372</v>
       </c>
@@ -15407,7 +15485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" ht="18.6" customHeight="1" spans="1:10">
+    <row r="367" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A367" s="2">
         <v>1326</v>
       </c>
@@ -15437,7 +15515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" ht="18.6" customHeight="1" spans="1:10">
+    <row r="368" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A368" s="2">
         <v>724</v>
       </c>
@@ -15467,7 +15545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" ht="18.6" customHeight="1" spans="1:10">
+    <row r="369" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A369" s="2">
         <v>1081</v>
       </c>
@@ -15497,7 +15575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="370" ht="18.6" customHeight="1" spans="1:10">
+    <row r="370" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A370" s="2">
         <v>1041</v>
       </c>
@@ -15527,7 +15605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" ht="18.6" customHeight="1" spans="1:10">
+    <row r="371" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A371" s="2">
         <v>1185</v>
       </c>
@@ -15557,7 +15635,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="372" ht="18.6" customHeight="1" spans="1:10">
+    <row r="372" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A372" s="2">
         <v>735</v>
       </c>
@@ -15587,7 +15665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" ht="18.6" customHeight="1" spans="1:10">
+    <row r="373" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A373" s="2">
         <v>728</v>
       </c>
@@ -15647,7 +15725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" ht="18.6" customHeight="1" spans="1:10">
+    <row r="375" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A375" s="2">
         <v>998</v>
       </c>
@@ -15677,7 +15755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" ht="18.6" customHeight="1" spans="1:10">
+    <row r="376" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A376" s="2">
         <v>1063</v>
       </c>
@@ -15737,7 +15815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" ht="18.6" customHeight="1" spans="1:10">
+    <row r="378" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A378" s="2">
         <v>890</v>
       </c>
@@ -15767,7 +15845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" ht="18.6" customHeight="1" spans="1:10">
+    <row r="379" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A379" s="2">
         <v>1402</v>
       </c>
@@ -15797,7 +15875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" ht="18.6" customHeight="1" spans="1:10">
+    <row r="380" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A380" s="2">
         <v>1328</v>
       </c>
@@ -15827,7 +15905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" ht="18.6" customHeight="1" spans="1:10">
+    <row r="381" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A381" s="2">
         <v>1478</v>
       </c>
@@ -15859,7 +15937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" ht="18.6" customHeight="1" spans="1:10">
+    <row r="382" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A382" s="2">
         <v>788</v>
       </c>
@@ -15889,7 +15967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" ht="18.6" customHeight="1" spans="1:10">
+    <row r="383" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A383" s="2">
         <v>1331</v>
       </c>
@@ -15919,7 +15997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" ht="18.6" customHeight="1" spans="1:10">
+    <row r="384" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A384" s="2">
         <v>740</v>
       </c>
@@ -15949,7 +16027,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" ht="18.6" customHeight="1" spans="1:10">
+    <row r="385" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A385" s="2">
         <v>854</v>
       </c>
@@ -15979,7 +16057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" ht="18.6" customHeight="1" spans="1:10">
+    <row r="386" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A386" s="2">
         <v>821</v>
       </c>
@@ -16009,7 +16087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" ht="18.6" customHeight="1" spans="1:10">
+    <row r="387" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A387" s="2">
         <v>1475</v>
       </c>
@@ -16039,7 +16117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" ht="18.6" customHeight="1" spans="1:10">
+    <row r="388" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A388" s="2">
         <v>1035</v>
       </c>
@@ -16069,7 +16147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" ht="18.6" customHeight="1" spans="1:10">
+    <row r="389" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A389" s="2">
         <v>1050</v>
       </c>
@@ -16099,7 +16177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" ht="18.6" customHeight="1" spans="1:10">
+    <row r="390" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A390" s="2">
         <v>1380</v>
       </c>
@@ -16129,7 +16207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" ht="18.6" customHeight="1" spans="1:10">
+    <row r="391" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A391" s="2">
         <v>1043</v>
       </c>
@@ -16191,7 +16269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" ht="18.6" customHeight="1" spans="1:10">
+    <row r="393" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A393" s="2">
         <v>1042</v>
       </c>
@@ -16221,7 +16299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" ht="18.6" customHeight="1" spans="1:10">
+    <row r="394" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A394" s="2">
         <v>1000</v>
       </c>
@@ -16251,7 +16329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" ht="18.6" customHeight="1" spans="1:10">
+    <row r="395" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A395" s="2">
         <v>743</v>
       </c>
@@ -16281,7 +16359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" ht="18.6" customHeight="1" spans="1:10">
+    <row r="396" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A396" s="2">
         <v>1137</v>
       </c>
@@ -16311,7 +16389,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="397" ht="18.6" customHeight="1" spans="1:10">
+    <row r="397" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A397" s="2">
         <v>1150</v>
       </c>
@@ -16341,7 +16419,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="398" ht="18.6" customHeight="1" spans="1:10">
+    <row r="398" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A398" s="2">
         <v>1459</v>
       </c>
@@ -16371,7 +16449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" ht="18.6" customHeight="1" spans="1:10">
+    <row r="399" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A399" s="2">
         <v>1465</v>
       </c>
@@ -16403,7 +16481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" ht="18.6" customHeight="1" spans="1:10">
+    <row r="400" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A400" s="2">
         <v>1390</v>
       </c>
@@ -16433,7 +16511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" ht="18.6" customHeight="1" spans="1:10">
+    <row r="401" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A401" s="2">
         <v>873</v>
       </c>
@@ -16463,7 +16541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" ht="18.6" customHeight="1" spans="1:10">
+    <row r="402" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A402" s="2">
         <v>697</v>
       </c>
@@ -16493,7 +16571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" ht="18.6" customHeight="1" spans="1:10">
+    <row r="403" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A403" s="2">
         <v>1061</v>
       </c>
@@ -16523,7 +16601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" ht="18.6" customHeight="1" spans="1:10">
+    <row r="404" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A404" s="2">
         <v>900</v>
       </c>
@@ -16553,7 +16631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" ht="18.6" customHeight="1" spans="1:10">
+    <row r="405" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A405" s="2">
         <v>1501</v>
       </c>
@@ -16585,7 +16663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" ht="18.6" customHeight="1" spans="1:10">
+    <row r="406" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A406" s="2">
         <v>671</v>
       </c>
@@ -16615,7 +16693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" ht="18.6" customHeight="1" spans="1:10">
+    <row r="407" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A407" s="2">
         <v>1094</v>
       </c>
@@ -16645,7 +16723,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="408" ht="18.6" customHeight="1" spans="1:10">
+    <row r="408" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A408" s="2">
         <v>1135</v>
       </c>
@@ -16675,7 +16753,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="409" ht="18.6" customHeight="1" spans="1:10">
+    <row r="409" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A409" s="2">
         <v>1257</v>
       </c>
@@ -16705,7 +16783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" ht="18.6" customHeight="1" spans="1:10">
+    <row r="410" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A410" s="2">
         <v>1244</v>
       </c>
@@ -16735,7 +16813,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="411" ht="18.6" customHeight="1" spans="1:10">
+    <row r="411" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A411" s="2">
         <v>1136</v>
       </c>
@@ -16765,7 +16843,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="412" ht="18.6" customHeight="1" spans="1:10">
+    <row r="412" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A412" s="2">
         <v>1401</v>
       </c>
@@ -16795,7 +16873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" ht="18.6" customHeight="1" spans="1:10">
+    <row r="413" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A413" s="2">
         <v>786</v>
       </c>
@@ -16825,7 +16903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" ht="18.6" customHeight="1" spans="1:10">
+    <row r="414" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A414" s="2">
         <v>1006</v>
       </c>
@@ -16855,7 +16933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" ht="18.6" customHeight="1" spans="1:10">
+    <row r="415" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A415" s="2">
         <v>1479</v>
       </c>
@@ -16887,7 +16965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" ht="18.6" customHeight="1" spans="1:10">
+    <row r="416" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A416" s="2">
         <v>1299</v>
       </c>
@@ -16917,7 +16995,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="417" ht="18.6" customHeight="1" spans="1:10">
+    <row r="417" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A417" s="2">
         <v>790</v>
       </c>
@@ -16947,7 +17025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" ht="18.6" customHeight="1" spans="1:10">
+    <row r="418" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A418" s="2">
         <v>1341</v>
       </c>
@@ -16977,7 +17055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" ht="18.6" customHeight="1" spans="1:10">
+    <row r="419" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A419" s="2">
         <v>1419</v>
       </c>
@@ -17007,7 +17085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" ht="18.6" customHeight="1" spans="1:10">
+    <row r="420" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A420" s="2">
         <v>1474</v>
       </c>
@@ -17039,7 +17117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" ht="18.6" customHeight="1" spans="1:10">
+    <row r="421" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A421" s="2">
         <v>727</v>
       </c>
@@ -17069,7 +17147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" ht="18.6" customHeight="1" spans="1:10">
+    <row r="422" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A422" s="2">
         <v>1347</v>
       </c>
@@ -17099,7 +17177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" ht="18.6" customHeight="1" spans="1:10">
+    <row r="423" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A423" s="2">
         <v>1223</v>
       </c>
@@ -17129,7 +17207,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="424" ht="18.6" customHeight="1" spans="1:10">
+    <row r="424" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A424" s="2">
         <v>705</v>
       </c>
@@ -17159,7 +17237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" ht="18.6" customHeight="1" spans="1:10">
+    <row r="425" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A425" s="2">
         <v>1384</v>
       </c>
@@ -17189,7 +17267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" ht="18.6" customHeight="1" spans="1:10">
+    <row r="426" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A426" s="2">
         <v>737</v>
       </c>
@@ -17219,7 +17297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" ht="18.6" customHeight="1" spans="1:10">
+    <row r="427" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A427" s="2">
         <v>736</v>
       </c>
@@ -17249,7 +17327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" ht="18.6" customHeight="1" spans="1:10">
+    <row r="428" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A428" s="2">
         <v>709</v>
       </c>
@@ -17279,7 +17357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" ht="18.6" customHeight="1" spans="1:10">
+    <row r="429" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A429" s="2">
         <v>839</v>
       </c>
@@ -17309,7 +17387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" ht="18.6" customHeight="1" spans="1:10">
+    <row r="430" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A430" s="2">
         <v>813</v>
       </c>
@@ -17339,7 +17417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" ht="18.6" customHeight="1" spans="1:10">
+    <row r="431" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A431" s="2">
         <v>901</v>
       </c>
@@ -17369,7 +17447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" ht="18.6" customHeight="1" spans="1:10">
+    <row r="432" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A432" s="2">
         <v>875</v>
       </c>
@@ -17399,7 +17477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" ht="18.6" customHeight="1" spans="1:10">
+    <row r="433" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A433" s="2">
         <v>696</v>
       </c>
@@ -17429,7 +17507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" ht="18.6" customHeight="1" spans="1:10">
+    <row r="434" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A434" s="2">
         <v>1463</v>
       </c>
@@ -17461,7 +17539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" ht="18.6" customHeight="1" spans="1:10">
+    <row r="435" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A435" s="2">
         <v>794</v>
       </c>
@@ -17521,7 +17599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" ht="18.6" customHeight="1" spans="1:10">
+    <row r="437" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A437" s="2">
         <v>1502</v>
       </c>
@@ -17553,7 +17631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" ht="18.6" customHeight="1" spans="1:10">
+    <row r="438" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A438" s="2">
         <v>781</v>
       </c>
@@ -17583,7 +17661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" ht="18.6" customHeight="1" spans="1:10">
+    <row r="439" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A439" s="2">
         <v>894</v>
       </c>
@@ -17613,7 +17691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" ht="18.6" customHeight="1" spans="1:10">
+    <row r="440" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A440" s="2">
         <v>1047</v>
       </c>
@@ -17643,7 +17721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" ht="18.6" customHeight="1" spans="1:10">
+    <row r="441" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A441" s="2">
         <v>1072</v>
       </c>
@@ -17673,7 +17751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" ht="18.6" customHeight="1" spans="1:10">
+    <row r="442" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A442" s="2">
         <v>1318</v>
       </c>
@@ -17703,7 +17781,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" ht="18.6" customHeight="1" spans="1:10">
+    <row r="443" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A443" s="2">
         <v>713</v>
       </c>
@@ -17733,7 +17811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" ht="18.6" customHeight="1" spans="1:10">
+    <row r="444" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A444" s="2">
         <v>969</v>
       </c>
@@ -17763,7 +17841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" ht="18.6" customHeight="1" spans="1:10">
+    <row r="445" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A445" s="2">
         <v>975</v>
       </c>
@@ -17793,7 +17871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" ht="18.6" customHeight="1" spans="1:10">
+    <row r="446" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A446" s="2">
         <v>1030</v>
       </c>
@@ -17823,7 +17901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" ht="18.6" customHeight="1" spans="1:10">
+    <row r="447" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A447" s="2">
         <v>1013</v>
       </c>
@@ -17853,7 +17931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" ht="18.6" customHeight="1" spans="1:10">
+    <row r="448" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A448" s="2">
         <v>1477</v>
       </c>
@@ -17885,7 +17963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" ht="18.6" customHeight="1" spans="1:10">
+    <row r="449" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A449" s="2">
         <v>1239</v>
       </c>
@@ -17915,7 +17993,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="450" ht="18.6" customHeight="1" spans="1:10">
+    <row r="450" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A450" s="2">
         <v>1438</v>
       </c>
@@ -17945,7 +18023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" ht="18.6" customHeight="1" spans="1:10">
+    <row r="451" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A451" s="2">
         <v>1476</v>
       </c>
@@ -17977,7 +18055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" ht="18.6" customHeight="1" spans="1:10">
+    <row r="452" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A452" s="2">
         <v>1240</v>
       </c>
@@ -18007,7 +18085,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="453" ht="18.6" customHeight="1" spans="1:10">
+    <row r="453" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A453" s="2">
         <v>1232</v>
       </c>
@@ -18037,7 +18115,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="454" ht="18.6" customHeight="1" spans="1:10">
+    <row r="454" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A454" s="2">
         <v>1152</v>
       </c>
@@ -18067,7 +18145,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" ht="18.6" customHeight="1" spans="1:10">
+    <row r="455" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A455" s="2">
         <v>1048</v>
       </c>
@@ -18097,7 +18175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" ht="18.6" customHeight="1" spans="1:10">
+    <row r="456" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A456" s="2">
         <v>1317</v>
       </c>
@@ -18127,7 +18205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" ht="18.6" customHeight="1" spans="1:10">
+    <row r="457" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A457" s="2">
         <v>972</v>
       </c>
@@ -18157,7 +18235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" ht="18.6" customHeight="1" spans="1:10">
+    <row r="458" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A458" s="2">
         <v>1233</v>
       </c>
@@ -18187,7 +18265,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="459" ht="18.6" customHeight="1" spans="1:10">
+    <row r="459" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A459" s="2">
         <v>833</v>
       </c>
@@ -18217,7 +18295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" ht="18.6" customHeight="1" spans="1:10">
+    <row r="460" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A460" s="2">
         <v>723</v>
       </c>
@@ -18247,7 +18325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" ht="18.6" customHeight="1" spans="1:10">
+    <row r="461" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A461" s="2">
         <v>976</v>
       </c>
@@ -18277,7 +18355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" ht="18.6" customHeight="1" spans="1:10">
+    <row r="462" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A462" s="2">
         <v>1031</v>
       </c>
@@ -18307,7 +18385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" ht="18.6" customHeight="1" spans="1:10">
+    <row r="463" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A463" s="2">
         <v>1143</v>
       </c>
@@ -18367,7 +18445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" ht="18.6" customHeight="1" spans="1:10">
+    <row r="465" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A465" s="2">
         <v>977</v>
       </c>
@@ -18397,7 +18475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" ht="18.6" customHeight="1" spans="1:10">
+    <row r="466" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A466" s="2">
         <v>1020</v>
       </c>
@@ -18457,7 +18535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" ht="18.6" customHeight="1" spans="1:10">
+    <row r="468" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A468" s="2">
         <v>1036</v>
       </c>
@@ -18487,7 +18565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" ht="18.6" customHeight="1" spans="1:10">
+    <row r="469" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A469" s="2">
         <v>1060</v>
       </c>
@@ -18517,7 +18595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" ht="18.6" customHeight="1" spans="1:10">
+    <row r="470" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A470" s="2">
         <v>772</v>
       </c>
@@ -18547,7 +18625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" ht="18.6" customHeight="1" spans="1:10">
+    <row r="471" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A471" s="2">
         <v>793</v>
       </c>
@@ -18577,7 +18655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" ht="18.6" customHeight="1" spans="1:10">
+    <row r="472" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A472" s="2">
         <v>1334</v>
       </c>
@@ -18607,7 +18685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" ht="18.6" customHeight="1" spans="1:10">
+    <row r="473" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A473" s="2">
         <v>689</v>
       </c>
@@ -18637,7 +18715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="474" ht="18.6" customHeight="1" spans="1:10">
+    <row r="474" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A474" s="2">
         <v>1141</v>
       </c>
@@ -18667,7 +18745,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="475" ht="18.6" customHeight="1" spans="1:10">
+    <row r="475" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A475" s="2">
         <v>797</v>
       </c>
@@ -18697,7 +18775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" ht="18.6" customHeight="1" spans="1:10">
+    <row r="476" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A476" s="2">
         <v>681</v>
       </c>
@@ -18727,7 +18805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" ht="18.6" customHeight="1" spans="1:10">
+    <row r="477" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A477" s="2">
         <v>730</v>
       </c>
@@ -18757,7 +18835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" ht="18.6" customHeight="1" spans="1:10">
+    <row r="478" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A478" s="2">
         <v>1228</v>
       </c>
@@ -18787,7 +18865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="479" ht="18.6" customHeight="1" spans="1:10">
+    <row r="479" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A479" s="2">
         <v>1045</v>
       </c>
@@ -18817,7 +18895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" ht="18.6" customHeight="1" spans="1:10">
+    <row r="480" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A480" s="2">
         <v>759</v>
       </c>
@@ -18847,7 +18925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" ht="18.6" customHeight="1" spans="1:10">
+    <row r="481" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A481" s="2">
         <v>1059</v>
       </c>
@@ -18877,7 +18955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" ht="18.6" customHeight="1" spans="1:10">
+    <row r="482" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A482" s="2">
         <v>1033</v>
       </c>
@@ -18907,7 +18985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" ht="18.6" customHeight="1" spans="1:10">
+    <row r="483" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A483" s="2">
         <v>726</v>
       </c>
@@ -18937,7 +19015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" ht="18.6" customHeight="1" spans="1:10">
+    <row r="484" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A484" s="2">
         <v>1012</v>
       </c>
@@ -18967,7 +19045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="485" ht="18.6" customHeight="1" spans="1:10">
+    <row r="485" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A485" s="2">
         <v>973</v>
       </c>
@@ -18997,7 +19075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" ht="18.6" customHeight="1" spans="1:10">
+    <row r="486" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A486" s="2">
         <v>702</v>
       </c>
@@ -19027,7 +19105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" ht="18.6" customHeight="1" spans="1:10">
+    <row r="487" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A487" s="2">
         <v>1046</v>
       </c>
@@ -19057,7 +19135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" ht="18.6" customHeight="1" spans="1:10">
+    <row r="488" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A488" s="2">
         <v>1272</v>
       </c>
@@ -19087,7 +19165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="489" ht="18.6" customHeight="1" spans="1:10">
+    <row r="489" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A489" s="2">
         <v>785</v>
       </c>
@@ -19117,7 +19195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" ht="18.6" customHeight="1" spans="1:10">
+    <row r="490" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A490" s="2">
         <v>1385</v>
       </c>
@@ -19147,7 +19225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" ht="18.6" customHeight="1" spans="1:10">
+    <row r="491" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A491" s="2">
         <v>1015</v>
       </c>
@@ -19177,7 +19255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" ht="18.6" customHeight="1" spans="1:10">
+    <row r="492" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A492" s="2">
         <v>722</v>
       </c>
@@ -19207,7 +19285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" ht="18.6" customHeight="1" spans="1:10">
+    <row r="493" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A493" s="2">
         <v>725</v>
       </c>
@@ -19237,7 +19315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" ht="18.6" customHeight="1" spans="1:10">
+    <row r="494" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A494" s="2">
         <v>902</v>
       </c>
@@ -19267,7 +19345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" ht="18.6" customHeight="1" spans="1:10">
+    <row r="495" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A495" s="2">
         <v>1410</v>
       </c>
@@ -19297,7 +19375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" ht="18.6" customHeight="1" spans="1:10">
+    <row r="496" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A496" s="2">
         <v>1285</v>
       </c>
@@ -19357,7 +19435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" ht="18.6" customHeight="1" spans="1:10">
+    <row r="498" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A498" s="2">
         <v>1246</v>
       </c>
@@ -19387,7 +19465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="499" ht="18.6" customHeight="1" spans="1:10">
+    <row r="499" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A499" s="2">
         <v>789</v>
       </c>
@@ -19417,7 +19495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" ht="18.6" customHeight="1" spans="1:10">
+    <row r="500" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A500" s="2">
         <v>1234</v>
       </c>
@@ -19447,7 +19525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="501" ht="18.6" customHeight="1" spans="1:10">
+    <row r="501" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A501" s="2">
         <v>798</v>
       </c>
@@ -19507,7 +19585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" ht="18.6" customHeight="1" spans="1:10">
+    <row r="503" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A503" s="2">
         <v>1430</v>
       </c>
@@ -19537,7 +19615,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="504" ht="18.6" customHeight="1" spans="1:10">
+    <row r="504" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A504" s="2">
         <v>1315</v>
       </c>
@@ -19567,7 +19645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" ht="18.6" customHeight="1" spans="1:10">
+    <row r="505" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A505" s="2">
         <v>1186</v>
       </c>
@@ -19597,7 +19675,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="506" ht="18.6" customHeight="1" spans="1:10">
+    <row r="506" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A506" s="2">
         <v>1166</v>
       </c>
@@ -19627,7 +19705,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="507" ht="18.6" customHeight="1" spans="1:10">
+    <row r="507" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A507" s="2">
         <v>980</v>
       </c>
@@ -19657,7 +19735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" ht="18.6" customHeight="1" spans="1:10">
+    <row r="508" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A508" s="2">
         <v>1386</v>
       </c>
@@ -19687,7 +19765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" ht="18.6" customHeight="1" spans="1:10">
+    <row r="509" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A509" s="2">
         <v>1054</v>
       </c>
@@ -19749,7 +19827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" ht="18.6" customHeight="1" spans="1:10">
+    <row r="511" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A511" s="2">
         <v>1149</v>
       </c>
@@ -19779,7 +19857,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="512" ht="18.6" customHeight="1" spans="1:10">
+    <row r="512" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A512" s="2">
         <v>1251</v>
       </c>
@@ -19809,7 +19887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="513" ht="18.6" customHeight="1" spans="1:10">
+    <row r="513" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A513" s="2">
         <v>1382</v>
       </c>
@@ -19839,7 +19917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" ht="18.6" customHeight="1" spans="1:10">
+    <row r="514" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A514" s="2">
         <v>1340</v>
       </c>
@@ -19869,7 +19947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" ht="18.6" customHeight="1" spans="1:10">
+    <row r="515" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A515" s="2">
         <v>1235</v>
       </c>
@@ -19899,7 +19977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="516" ht="18.6" customHeight="1" spans="1:10">
+    <row r="516" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A516" s="2">
         <v>757</v>
       </c>
@@ -19929,7 +20007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" ht="18.6" customHeight="1" spans="1:10">
+    <row r="517" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A517" s="2">
         <v>1056</v>
       </c>
@@ -19959,7 +20037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" ht="18.6" customHeight="1" spans="1:10">
+    <row r="518" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A518" s="2">
         <v>1373</v>
       </c>
@@ -19989,7 +20067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" ht="18.6" customHeight="1" spans="1:10">
+    <row r="519" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A519" s="2">
         <v>1245</v>
       </c>
@@ -20019,7 +20097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" ht="18.6" customHeight="1" spans="1:10">
+    <row r="520" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A520" s="2">
         <v>729</v>
       </c>
@@ -20049,7 +20127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" ht="18.6" customHeight="1" spans="1:10">
+    <row r="521" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A521" s="2">
         <v>910</v>
       </c>
@@ -20079,7 +20157,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="522" ht="18.6" customHeight="1" spans="1:10">
+    <row r="522" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A522" s="2">
         <v>1067</v>
       </c>
@@ -20109,7 +20187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" ht="18.6" customHeight="1" spans="1:10">
+    <row r="523" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A523" s="2">
         <v>1280</v>
       </c>
@@ -20139,7 +20217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" ht="18.6" customHeight="1" spans="1:10">
+    <row r="524" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A524" s="2">
         <v>799</v>
       </c>
@@ -20169,7 +20247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" ht="18.6" customHeight="1" spans="1:10">
+    <row r="525" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A525" s="2">
         <v>1018</v>
       </c>
@@ -20199,7 +20277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" ht="18.6" customHeight="1" spans="1:10">
+    <row r="526" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A526" s="2">
         <v>782</v>
       </c>
@@ -20229,7 +20307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" ht="18.6" customHeight="1" spans="1:10">
+    <row r="527" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A527" s="2">
         <v>1383</v>
       </c>
@@ -20259,7 +20337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" ht="18.6" customHeight="1" spans="1:10">
+    <row r="528" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A528" s="2">
         <v>1376</v>
       </c>
@@ -20289,7 +20367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" ht="18.6" customHeight="1" spans="1:10">
+    <row r="529" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A529" s="2">
         <v>756</v>
       </c>
@@ -20349,7 +20427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" ht="18.6" customHeight="1" spans="1:10">
+    <row r="531" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A531" s="2">
         <v>795</v>
       </c>
@@ -20379,7 +20457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" ht="18.6" customHeight="1" spans="1:10">
+    <row r="532" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A532" s="2">
         <v>1314</v>
       </c>
@@ -20409,7 +20487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" ht="18.6" customHeight="1" spans="1:10">
+    <row r="533" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A533" s="2">
         <v>745</v>
       </c>
@@ -20439,7 +20517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="534" ht="18.6" customHeight="1" spans="1:10">
+    <row r="534" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A534" s="2">
         <v>1075</v>
       </c>
@@ -20469,7 +20547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="535" ht="18.6" customHeight="1" spans="1:10">
+    <row r="535" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A535" s="2">
         <v>1069</v>
       </c>
@@ -20499,7 +20577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" ht="18.6" customHeight="1" spans="1:10">
+    <row r="536" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A536" s="2">
         <v>1282</v>
       </c>
@@ -20529,7 +20607,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="537" ht="18.6" customHeight="1" spans="1:10">
+    <row r="537" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A537" s="2">
         <v>1068</v>
       </c>
@@ -20559,7 +20637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" ht="18.6" customHeight="1" spans="1:10">
+    <row r="538" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A538" s="2">
         <v>738</v>
       </c>
@@ -20589,7 +20667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="539" ht="18.6" customHeight="1" spans="1:10">
+    <row r="539" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A539" s="2">
         <v>1140</v>
       </c>
@@ -20619,7 +20697,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="540" ht="18.6" customHeight="1" spans="1:10">
+    <row r="540" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A540" s="2">
         <v>1071</v>
       </c>
@@ -20649,7 +20727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" ht="18.6" customHeight="1" spans="1:10">
+    <row r="541" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A541" s="2">
         <v>1153</v>
       </c>
@@ -20679,7 +20757,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="542" ht="18.6" customHeight="1" spans="1:10">
+    <row r="542" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A542" s="2">
         <v>1350</v>
       </c>
@@ -20709,7 +20787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="543" ht="18.6" customHeight="1" spans="1:10">
+    <row r="543" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A543" s="2">
         <v>1070</v>
       </c>
@@ -20739,7 +20817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" ht="18.6" customHeight="1" spans="1:10">
+    <row r="544" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A544" s="2">
         <v>1144</v>
       </c>
@@ -20769,7 +20847,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="545" ht="18.6" customHeight="1" spans="1:10">
+    <row r="545" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A545" s="2">
         <v>1268</v>
       </c>
@@ -20799,7 +20877,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="546" ht="18.6" customHeight="1" spans="1:10">
+    <row r="546" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A546" s="2">
         <v>1206</v>
       </c>
@@ -20829,7 +20907,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="547" ht="18.6" customHeight="1" spans="1:10">
+    <row r="547" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A547" s="2">
         <v>1346</v>
       </c>
@@ -20859,7 +20937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" ht="18.6" customHeight="1" spans="1:10">
+    <row r="548" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A548" s="2">
         <v>742</v>
       </c>
@@ -20889,7 +20967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" ht="18.6" customHeight="1" spans="1:10">
+    <row r="549" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A549" s="2">
         <v>1090</v>
       </c>
@@ -20919,7 +20997,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="550" ht="18.6" customHeight="1" spans="1:10">
+    <row r="550" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A550" s="2">
         <v>1237</v>
       </c>
@@ -20949,7 +21027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="551" ht="18.6" customHeight="1" spans="1:10">
+    <row r="551" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A551" s="2">
         <v>1227</v>
       </c>
@@ -20979,7 +21057,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="552" ht="18.6" customHeight="1" spans="1:10">
+    <row r="552" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A552" s="2">
         <v>1079</v>
       </c>
@@ -21009,7 +21087,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="553" ht="18.6" customHeight="1" spans="1:10">
+    <row r="553" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A553" s="2">
         <v>1155</v>
       </c>
@@ -21039,7 +21117,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="554" ht="18.6" customHeight="1" spans="1:10">
+    <row r="554" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A554" s="2">
         <v>1281</v>
       </c>
@@ -21069,7 +21147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="555" ht="18.6" customHeight="1" spans="1:10">
+    <row r="555" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A555" s="2">
         <v>1200</v>
       </c>
@@ -21099,7 +21177,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="556" ht="18.6" customHeight="1" spans="1:10">
+    <row r="556" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A556" s="2">
         <v>1327</v>
       </c>
@@ -21129,7 +21207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" ht="18.6" customHeight="1" spans="1:10">
+    <row r="557" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A557" s="2">
         <v>1051</v>
       </c>
@@ -21159,7 +21237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" ht="18.6" customHeight="1" spans="1:10">
+    <row r="558" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A558" s="2">
         <v>1145</v>
       </c>
@@ -21189,7 +21267,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="559" ht="18.6" customHeight="1" spans="1:10">
+    <row r="559" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A559" s="2">
         <v>741</v>
       </c>
@@ -21219,7 +21297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" ht="18.6" customHeight="1" spans="1:10">
+    <row r="560" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A560" s="2">
         <v>1182</v>
       </c>
@@ -21249,7 +21327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="561" ht="18.6" customHeight="1" spans="1:10">
+    <row r="561" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A561" s="2">
         <v>1076</v>
       </c>
@@ -21279,7 +21357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" ht="18.6" customHeight="1" spans="1:10">
+    <row r="562" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A562" s="2">
         <v>1089</v>
       </c>
@@ -21309,7 +21387,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="563" ht="18.6" customHeight="1" spans="1:10">
+    <row r="563" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A563" s="2">
         <v>1216</v>
       </c>
@@ -21339,7 +21417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="564" ht="18.6" customHeight="1" spans="1:10">
+    <row r="564" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A564" s="2">
         <v>1151</v>
       </c>
@@ -21369,7 +21447,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="565" ht="18.6" customHeight="1" spans="1:10">
+    <row r="565" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A565" s="2">
         <v>925</v>
       </c>
@@ -21399,7 +21477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="566" ht="18.6" customHeight="1" spans="1:10">
+    <row r="566" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A566" s="2">
         <v>739</v>
       </c>
@@ -21429,7 +21507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" ht="18.6" customHeight="1" spans="1:10">
+    <row r="567" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A567" s="2">
         <v>1147</v>
       </c>
@@ -21459,7 +21537,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="568" ht="18.6" customHeight="1" spans="1:10">
+    <row r="568" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A568" s="2">
         <v>1220</v>
       </c>
@@ -21489,7 +21567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="569" ht="18.6" customHeight="1" spans="1:10">
+    <row r="569" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A569" s="2">
         <v>1201</v>
       </c>
@@ -21519,7 +21597,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="570" ht="18.6" customHeight="1" spans="1:10">
+    <row r="570" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A570" s="2">
         <v>1324</v>
       </c>
@@ -21549,7 +21627,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" ht="18.6" customHeight="1" spans="1:10">
+    <row r="571" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A571" s="2">
         <v>1221</v>
       </c>
@@ -21579,7 +21657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="572" ht="18.6" customHeight="1" spans="1:10">
+    <row r="572" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A572" s="2">
         <v>1243</v>
       </c>
@@ -21609,7 +21687,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="573" ht="18.6" customHeight="1" spans="1:10">
+    <row r="573" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A573" s="2">
         <v>1447</v>
       </c>
@@ -21639,7 +21717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" ht="18.6" customHeight="1" spans="1:10">
+    <row r="574" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A574" s="2">
         <v>1074</v>
       </c>
@@ -21669,7 +21747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" ht="18.6" customHeight="1" spans="1:10">
+    <row r="575" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A575" s="2">
         <v>1156</v>
       </c>
@@ -21699,7 +21777,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="576" ht="18.6" customHeight="1" spans="1:10">
+    <row r="576" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A576" s="2">
         <v>1225</v>
       </c>
@@ -21729,7 +21807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="577" ht="18.6" customHeight="1" spans="1:10">
+    <row r="577" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A577" s="2">
         <v>1504</v>
       </c>
@@ -21761,7 +21839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="578" ht="18.6" customHeight="1" spans="1:10">
+    <row r="578" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A578" s="2">
         <v>1348</v>
       </c>
@@ -21791,7 +21869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" ht="18.6" customHeight="1" spans="1:10">
+    <row r="579" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A579" s="2">
         <v>1276</v>
       </c>
@@ -21821,7 +21899,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="580" ht="18.6" customHeight="1" spans="1:10">
+    <row r="580" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A580" s="2">
         <v>1095</v>
       </c>
@@ -21851,7 +21929,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="581" ht="18.6" customHeight="1" spans="1:10">
+    <row r="581" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A581" s="2">
         <v>908</v>
       </c>
@@ -21881,7 +21959,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="582" ht="18.6" customHeight="1" spans="1:10">
+    <row r="582" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A582" s="2">
         <v>909</v>
       </c>
@@ -21911,7 +21989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="583" ht="18.6" customHeight="1" spans="1:10">
+    <row r="583" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A583" s="2">
         <v>1349</v>
       </c>
@@ -21941,7 +22019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" ht="18.6" customHeight="1" spans="1:10">
+    <row r="584" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A584" s="2">
         <v>1222</v>
       </c>
@@ -21971,7 +22049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="585" ht="18.6" customHeight="1" spans="1:10">
+    <row r="585" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A585" s="2">
         <v>1274</v>
       </c>
@@ -22001,7 +22079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="586" ht="18.6" customHeight="1" spans="1:10">
+    <row r="586" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A586" s="2">
         <v>1178</v>
       </c>
@@ -22031,7 +22109,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="587" ht="18.6" customHeight="1" spans="1:10">
+    <row r="587" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A587" s="2">
         <v>1207</v>
       </c>
@@ -22061,7 +22139,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="588" ht="18.6" customHeight="1" spans="1:10">
+    <row r="588" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A588" s="2">
         <v>1091</v>
       </c>
@@ -22091,7 +22169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="589" ht="18.6" customHeight="1" spans="1:10">
+    <row r="589" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A589" s="2">
         <v>992</v>
       </c>
@@ -22121,7 +22199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" ht="18.6" customHeight="1" spans="1:10">
+    <row r="590" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A590" s="2">
         <v>1188</v>
       </c>
@@ -22151,7 +22229,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="591" ht="18.6" customHeight="1" spans="1:10">
+    <row r="591" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A591" s="2">
         <v>1189</v>
       </c>
@@ -22181,7 +22259,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="592" ht="18.6" customHeight="1" spans="1:10">
+    <row r="592" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A592" s="2">
         <v>1238</v>
       </c>
@@ -22211,7 +22289,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="593" ht="18.6" customHeight="1" spans="1:10">
+    <row r="593" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A593" s="2">
         <v>1247</v>
       </c>
@@ -22241,7 +22319,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="594" ht="18.6" customHeight="1" spans="1:10">
+    <row r="594" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A594" s="2">
         <v>1273</v>
       </c>
@@ -22271,7 +22349,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="595" ht="18.6" customHeight="1" spans="1:10">
+    <row r="595" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A595" s="2">
         <v>1442</v>
       </c>
@@ -22301,7 +22379,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="596" ht="18.6" customHeight="1" spans="1:10">
+    <row r="596" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A596" s="2">
         <v>1497</v>
       </c>
@@ -22333,7 +22411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="597" ht="18.6" customHeight="1" spans="1:10">
+    <row r="597" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A597" s="2">
         <v>1411</v>
       </c>
@@ -22363,7 +22441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" ht="18.6" customHeight="1" spans="1:10">
+    <row r="598" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A598" s="2">
         <v>1330</v>
       </c>
@@ -22393,7 +22471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" ht="18.6" customHeight="1" spans="1:10">
+    <row r="599" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A599" s="2">
         <v>1138</v>
       </c>
@@ -22423,7 +22501,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="600" ht="18.6" customHeight="1" spans="1:10">
+    <row r="600" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A600" s="2">
         <v>1077</v>
       </c>
@@ -22453,7 +22531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" ht="18.6" customHeight="1" spans="1:10">
+    <row r="601" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A601" s="2">
         <v>1196</v>
       </c>
@@ -22483,7 +22561,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="602" ht="18.6" customHeight="1" spans="1:10">
+    <row r="602" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A602" s="2">
         <v>1173</v>
       </c>
@@ -22543,7 +22621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" ht="18.6" customHeight="1" spans="1:10">
+    <row r="604" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A604" s="2">
         <v>829</v>
       </c>
@@ -22573,7 +22651,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="605" ht="18.6" customHeight="1" spans="1:10">
+    <row r="605" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A605" s="2">
         <v>1360</v>
       </c>
@@ -22603,7 +22681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" ht="18.6" customHeight="1" spans="1:10">
+    <row r="606" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A606" s="2">
         <v>1087</v>
       </c>
@@ -22633,7 +22711,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="607" ht="18.6" customHeight="1" spans="1:10">
+    <row r="607" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A607" s="2">
         <v>1495</v>
       </c>
@@ -22665,7 +22743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="608" ht="18.6" customHeight="1" spans="1:10">
+    <row r="608" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A608" s="2">
         <v>1213</v>
       </c>
@@ -22695,7 +22773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="609" ht="18.6" customHeight="1" spans="1:10">
+    <row r="609" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A609" s="2">
         <v>1226</v>
       </c>
@@ -22725,7 +22803,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="610" ht="18.6" customHeight="1" spans="1:10">
+    <row r="610" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A610" s="2">
         <v>1111</v>
       </c>
@@ -22755,7 +22833,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="611" ht="18.6" customHeight="1" spans="1:10">
+    <row r="611" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A611" s="2">
         <v>1202</v>
       </c>
@@ -22785,7 +22863,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="612" ht="18.6" customHeight="1" spans="1:10">
+    <row r="612" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A612" s="2">
         <v>1102</v>
       </c>
@@ -22815,7 +22893,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="613" ht="18.6" customHeight="1" spans="1:10">
+    <row r="613" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A613" s="2">
         <v>1113</v>
       </c>
@@ -22845,7 +22923,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="614" ht="18.6" customHeight="1" spans="1:10">
+    <row r="614" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A614" s="2">
         <v>1209</v>
       </c>
@@ -22875,7 +22953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="615" ht="18.6" customHeight="1" spans="1:10">
+    <row r="615" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A615" s="2">
         <v>1250</v>
       </c>
@@ -22905,7 +22983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="616" ht="18.6" customHeight="1" spans="1:10">
+    <row r="616" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A616" s="2">
         <v>1108</v>
       </c>
@@ -22935,7 +23013,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="617" ht="18.6" customHeight="1" spans="1:10">
+    <row r="617" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A617" s="2">
         <v>1177</v>
       </c>
@@ -22965,7 +23043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="618" ht="18.6" customHeight="1" spans="1:10">
+    <row r="618" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A618" s="2">
         <v>1212</v>
       </c>
@@ -22995,7 +23073,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="619" ht="18.6" customHeight="1" spans="1:10">
+    <row r="619" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A619" s="2">
         <v>1162</v>
       </c>
@@ -23025,7 +23103,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="620" ht="18.6" customHeight="1" spans="1:10">
+    <row r="620" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A620" s="2">
         <v>907</v>
       </c>
@@ -23055,7 +23133,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="621" ht="18.6" customHeight="1" spans="1:10">
+    <row r="621" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A621" s="2">
         <v>1325</v>
       </c>
@@ -23085,7 +23163,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" ht="18.6" customHeight="1" spans="1:10">
+    <row r="622" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A622" s="2">
         <v>1146</v>
       </c>
@@ -23115,7 +23193,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="623" ht="18.6" customHeight="1" spans="1:10">
+    <row r="623" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A623" s="2">
         <v>1229</v>
       </c>
@@ -23145,7 +23223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="624" ht="18.6" customHeight="1" spans="1:10">
+    <row r="624" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A624" s="2">
         <v>1157</v>
       </c>
@@ -23175,7 +23253,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="625" ht="18.6" customHeight="1" spans="1:10">
+    <row r="625" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A625" s="2">
         <v>1389</v>
       </c>
@@ -23205,7 +23283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" ht="18.6" customHeight="1" spans="1:10">
+    <row r="626" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A626" s="2">
         <v>1142</v>
       </c>
@@ -23235,7 +23313,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="627" ht="18.6" customHeight="1" spans="1:10">
+    <row r="627" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A627" s="2">
         <v>1203</v>
       </c>
@@ -23265,7 +23343,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="628" ht="18.6" customHeight="1" spans="1:10">
+    <row r="628" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A628" s="2">
         <v>1017</v>
       </c>
@@ -23295,7 +23373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" ht="18.6" customHeight="1" spans="1:10">
+    <row r="629" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A629" s="2">
         <v>1208</v>
       </c>
@@ -23325,7 +23403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="630" ht="18.6" customHeight="1" spans="1:10">
+    <row r="630" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A630" s="2">
         <v>1163</v>
       </c>
@@ -23355,7 +23433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="631" ht="18.6" customHeight="1" spans="1:10">
+    <row r="631" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A631" s="2">
         <v>1312</v>
       </c>
@@ -23385,7 +23463,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="632" ht="18.6" customHeight="1" spans="1:10">
+    <row r="632" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A632" s="2">
         <v>1370</v>
       </c>
@@ -23415,7 +23493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" ht="18.6" customHeight="1" spans="1:10">
+    <row r="633" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A633" s="2">
         <v>1170</v>
       </c>
@@ -23445,7 +23523,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="634" ht="18.6" customHeight="1" spans="1:10">
+    <row r="634" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A634" s="2">
         <v>1027</v>
       </c>
@@ -23475,7 +23553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" ht="18.6" customHeight="1" spans="1:10">
+    <row r="635" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A635" s="2">
         <v>1443</v>
       </c>
@@ -23505,7 +23583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="636" ht="18.6" customHeight="1" spans="1:10">
+    <row r="636" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A636" s="2">
         <v>1211</v>
       </c>
@@ -23535,7 +23613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="637" ht="18.6" customHeight="1" spans="1:10">
+    <row r="637" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A637" s="2">
         <v>779</v>
       </c>
@@ -23565,7 +23643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" ht="18.6" customHeight="1" spans="1:10">
+    <row r="638" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A638" s="2">
         <v>1378</v>
       </c>
@@ -23595,7 +23673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="639" ht="18.6" customHeight="1" spans="1:10">
+    <row r="639" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A639" s="2">
         <v>1164</v>
       </c>
@@ -23625,7 +23703,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="640" ht="18.6" customHeight="1" spans="1:10">
+    <row r="640" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A640" s="2">
         <v>1300</v>
       </c>
@@ -23655,7 +23733,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="641" ht="18.6" customHeight="1" spans="1:10">
+    <row r="641" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A641" s="2">
         <v>1254</v>
       </c>
@@ -23685,7 +23763,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" ht="18.6" customHeight="1" spans="1:10">
+    <row r="642" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A642" s="2">
         <v>1316</v>
       </c>
@@ -23715,7 +23793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" ht="18.6" customHeight="1" spans="1:10">
+    <row r="643" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A643" s="2">
         <v>1190</v>
       </c>
@@ -23745,7 +23823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="644" ht="18.6" customHeight="1" spans="1:10">
+    <row r="644" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A644" s="2">
         <v>903</v>
       </c>
@@ -23775,7 +23853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="645" ht="18.6" customHeight="1" spans="1:10">
+    <row r="645" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A645" s="2">
         <v>1261</v>
       </c>
@@ -23805,7 +23883,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="646" ht="18.6" customHeight="1" spans="1:10">
+    <row r="646" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A646" s="2">
         <v>1218</v>
       </c>
@@ -23835,7 +23913,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="647" ht="18.6" customHeight="1" spans="1:10">
+    <row r="647" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A647" s="2">
         <v>1308</v>
       </c>
@@ -23865,7 +23943,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="648" ht="18.6" customHeight="1" spans="1:10">
+    <row r="648" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A648" s="2">
         <v>1230</v>
       </c>
@@ -23895,7 +23973,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="649" ht="18.6" customHeight="1" spans="1:10">
+    <row r="649" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A649" s="2">
         <v>1503</v>
       </c>
@@ -23927,7 +24005,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="650" ht="18.6" customHeight="1" spans="1:10">
+    <row r="650" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A650" s="2">
         <v>1174</v>
       </c>
@@ -23957,7 +24035,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="651" ht="18.6" customHeight="1" spans="1:10">
+    <row r="651" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A651" s="2">
         <v>1160</v>
       </c>
@@ -23987,7 +24065,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="652" ht="18.6" customHeight="1" spans="1:10">
+    <row r="652" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A652" s="2">
         <v>1005</v>
       </c>
@@ -24017,7 +24095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="653" ht="18.6" customHeight="1" spans="1:10">
+    <row r="653" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A653" s="2">
         <v>1499</v>
       </c>
@@ -24049,7 +24127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="654" ht="18.6" customHeight="1" spans="1:10">
+    <row r="654" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A654" s="2">
         <v>1488</v>
       </c>
@@ -24081,7 +24159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="655" ht="18.6" customHeight="1" spans="1:10">
+    <row r="655" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A655" s="2">
         <v>1271</v>
       </c>
@@ -24111,7 +24189,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="656" ht="18.6" customHeight="1" spans="1:10">
+    <row r="656" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A656" s="2">
         <v>1496</v>
       </c>
@@ -24143,7 +24221,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="657" ht="18.6" customHeight="1" spans="1:10">
+    <row r="657" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A657" s="2">
         <v>1214</v>
       </c>
@@ -24173,7 +24251,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="658" ht="18.6" customHeight="1" spans="1:10">
+    <row r="658" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A658" s="2">
         <v>1468</v>
       </c>
@@ -24205,7 +24283,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="659" ht="18.6" customHeight="1" spans="1:10">
+    <row r="659" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A659" s="2">
         <v>1085</v>
       </c>
@@ -24235,7 +24313,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="660" ht="18.6" customHeight="1" spans="1:10">
+    <row r="660" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A660" s="2">
         <v>1097</v>
       </c>
@@ -24265,7 +24343,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="661" ht="18.6" customHeight="1" spans="1:10">
+    <row r="661" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A661" s="2">
         <v>1083</v>
       </c>
@@ -24295,7 +24373,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="662" ht="18.6" customHeight="1" spans="1:10">
+    <row r="662" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A662" s="2">
         <v>1241</v>
       </c>
@@ -24355,7 +24433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" ht="18.6" customHeight="1" spans="1:10">
+    <row r="664" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A664" s="2">
         <v>1242</v>
       </c>
@@ -24385,7 +24463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="665" ht="18.6" customHeight="1" spans="1:10">
+    <row r="665" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A665" s="2">
         <v>1134</v>
       </c>
@@ -24415,7 +24493,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="666" ht="18.6" customHeight="1" spans="1:10">
+    <row r="666" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A666" s="2">
         <v>1132</v>
       </c>
@@ -24445,7 +24523,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="667" ht="18.6" customHeight="1" spans="1:10">
+    <row r="667" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A667" s="2">
         <v>1099</v>
       </c>
@@ -24475,7 +24553,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="668" ht="18.6" customHeight="1" spans="1:10">
+    <row r="668" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A668" s="2">
         <v>1183</v>
       </c>
@@ -24505,7 +24583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="669" ht="18.6" customHeight="1" spans="1:10">
+    <row r="669" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A669" s="2">
         <v>1215</v>
       </c>
@@ -24535,7 +24613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="670" ht="18.6" customHeight="1" spans="1:10">
+    <row r="670" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A670" s="2">
         <v>960</v>
       </c>
@@ -24565,7 +24643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="671" ht="18.6" customHeight="1" spans="1:10">
+    <row r="671" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A671" s="2">
         <v>1098</v>
       </c>
@@ -24595,7 +24673,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="672" ht="18.6" customHeight="1" spans="1:10">
+    <row r="672" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A672" s="2">
         <v>1256</v>
       </c>
@@ -24625,7 +24703,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="673" ht="18.6" customHeight="1" spans="1:10">
+    <row r="673" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A673" s="2">
         <v>1408</v>
       </c>
@@ -24655,7 +24733,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="674" ht="18.6" customHeight="1" spans="1:10">
+    <row r="674" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A674" s="2">
         <v>1270</v>
       </c>
@@ -24685,7 +24763,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="675" ht="18.6" customHeight="1" spans="1:10">
+    <row r="675" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A675" s="2">
         <v>1191</v>
       </c>
@@ -24715,7 +24793,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="676" ht="18.6" customHeight="1" spans="1:10">
+    <row r="676" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A676" s="2">
         <v>1437</v>
       </c>
@@ -24745,7 +24823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="677" ht="18.6" customHeight="1" spans="1:10">
+    <row r="677" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A677" s="2">
         <v>1231</v>
       </c>
@@ -24775,7 +24853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="678" ht="18.6" customHeight="1" spans="1:10">
+    <row r="678" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A678" s="2">
         <v>1290</v>
       </c>
@@ -24805,7 +24883,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="679" ht="18.6" customHeight="1" spans="1:10">
+    <row r="679" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A679" s="2">
         <v>1498</v>
       </c>
@@ -24837,7 +24915,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="680" ht="18.6" customHeight="1" spans="1:10">
+    <row r="680" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A680" s="2">
         <v>1082</v>
       </c>
@@ -24867,7 +24945,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="681" ht="18.6" customHeight="1" spans="1:10">
+    <row r="681" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A681" s="2">
         <v>1210</v>
       </c>
@@ -24897,7 +24975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="682" ht="18.6" customHeight="1" spans="1:10">
+    <row r="682" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A682" s="2">
         <v>1279</v>
       </c>
@@ -24927,7 +25005,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="683" ht="18.6" customHeight="1" spans="1:10">
+    <row r="683" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A683" s="2">
         <v>1093</v>
       </c>
@@ -24957,7 +25035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="684" ht="18.6" customHeight="1" spans="1:10">
+    <row r="684" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A684" s="2">
         <v>1293</v>
       </c>
@@ -24987,7 +25065,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="685" ht="18.6" customHeight="1" spans="1:10">
+    <row r="685" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A685" s="2">
         <v>1179</v>
       </c>
@@ -25017,7 +25095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="686" ht="18.6" customHeight="1" spans="1:10">
+    <row r="686" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A686" s="2">
         <v>1428</v>
       </c>
@@ -25047,7 +25125,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="687" ht="18.6" customHeight="1" spans="1:10">
+    <row r="687" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A687" s="2">
         <v>804</v>
       </c>
@@ -25077,7 +25155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="688" ht="18.6" customHeight="1" spans="1:10">
+    <row r="688" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A688" s="2">
         <v>1264</v>
       </c>
@@ -25107,7 +25185,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="689" ht="18.6" customHeight="1" spans="1:10">
+    <row r="689" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A689" s="2">
         <v>1148</v>
       </c>
@@ -25137,7 +25215,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="690" ht="18.6" customHeight="1" spans="1:10">
+    <row r="690" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A690" s="2">
         <v>1259</v>
       </c>
@@ -25167,7 +25245,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="691" ht="18.6" customHeight="1" spans="1:10">
+    <row r="691" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A691" s="2">
         <v>1262</v>
       </c>
@@ -25197,7 +25275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="692" ht="18.6" customHeight="1" spans="1:10">
+    <row r="692" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A692" s="2">
         <v>1175</v>
       </c>
@@ -25227,7 +25305,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="693" ht="18.6" customHeight="1" spans="1:10">
+    <row r="693" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A693" s="2">
         <v>1313</v>
       </c>
@@ -25257,7 +25335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="694" ht="18.6" customHeight="1" spans="1:10">
+    <row r="694" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A694" s="2">
         <v>1249</v>
       </c>
@@ -25287,7 +25365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="695" ht="18.6" customHeight="1" spans="1:10">
+    <row r="695" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A695" s="2">
         <v>1172</v>
       </c>
@@ -25317,7 +25395,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="696" ht="18.6" customHeight="1" spans="1:10">
+    <row r="696" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A696" s="2">
         <v>1253</v>
       </c>
@@ -25347,7 +25425,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="697" ht="18.6" customHeight="1" spans="1:10">
+    <row r="697" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A697" s="2">
         <v>1446</v>
       </c>
@@ -25377,7 +25455,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="698" ht="18.6" customHeight="1" spans="1:10">
+    <row r="698" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A698" s="2">
         <v>1505</v>
       </c>
@@ -25409,7 +25487,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="699" ht="18.6" customHeight="1" spans="1:10">
+    <row r="699" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A699" s="2">
         <v>1414</v>
       </c>
@@ -25439,7 +25517,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="700" ht="18.6" customHeight="1" spans="1:10">
+    <row r="700" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A700" s="2">
         <v>1292</v>
       </c>
@@ -25469,7 +25547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="701" ht="18.6" customHeight="1" spans="1:10">
+    <row r="701" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A701" s="2">
         <v>815</v>
       </c>
@@ -25499,7 +25577,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="702" ht="18.6" customHeight="1" spans="1:10">
+    <row r="702" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A702" s="2">
         <v>1484</v>
       </c>
@@ -25531,7 +25609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" ht="18.6" customHeight="1" spans="1:10">
+    <row r="703" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A703" s="2">
         <v>1159</v>
       </c>
@@ -25561,7 +25639,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="704" ht="18.6" customHeight="1" spans="1:10">
+    <row r="704" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A704" s="2">
         <v>1255</v>
       </c>
@@ -25591,7 +25669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="705" ht="18.6" customHeight="1" spans="1:10">
+    <row r="705" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A705" s="2">
         <v>1236</v>
       </c>
@@ -25621,7 +25699,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="706" ht="18.6" customHeight="1" spans="1:10">
+    <row r="706" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A706" s="2">
         <v>1193</v>
       </c>
@@ -25651,7 +25729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="707" ht="18.6" customHeight="1" spans="1:10">
+    <row r="707" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A707" s="2">
         <v>1371</v>
       </c>
@@ -25681,7 +25759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="708" ht="18.6" customHeight="1" spans="1:10">
+    <row r="708" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A708" s="2">
         <v>1424</v>
       </c>
@@ -25711,7 +25789,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="709" ht="18.6" customHeight="1" spans="1:10">
+    <row r="709" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A709" s="2">
         <v>1303</v>
       </c>
@@ -25741,7 +25819,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="710" ht="18.6" customHeight="1" spans="1:10">
+    <row r="710" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A710" s="2">
         <v>1181</v>
       </c>
@@ -25771,7 +25849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="711" ht="18.6" customHeight="1" spans="1:10">
+    <row r="711" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A711" s="2">
         <v>1168</v>
       </c>
@@ -25801,7 +25879,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="712" ht="18.6" customHeight="1" spans="1:10">
+    <row r="712" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A712" s="2">
         <v>1287</v>
       </c>
@@ -25831,7 +25909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="713" ht="18.6" customHeight="1" spans="1:10">
+    <row r="713" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A713" s="2">
         <v>1439</v>
       </c>
@@ -25861,7 +25939,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="714" ht="18.6" customHeight="1" spans="1:10">
+    <row r="714" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A714" s="2">
         <v>1078</v>
       </c>
@@ -25891,7 +25969,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="715" ht="18.6" customHeight="1" spans="1:10">
+    <row r="715" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A715" s="2">
         <v>1368</v>
       </c>
@@ -25921,7 +25999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" ht="18.6" customHeight="1" spans="1:10">
+    <row r="716" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A716" s="2">
         <v>1288</v>
       </c>
@@ -25951,7 +26029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="717" ht="18.6" customHeight="1" spans="1:10">
+    <row r="717" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A717" s="2">
         <v>1429</v>
       </c>
@@ -25981,7 +26059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="718" ht="18.6" customHeight="1" spans="1:10">
+    <row r="718" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A718" s="2">
         <v>1066</v>
       </c>
@@ -26011,7 +26089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="719" ht="18.6" customHeight="1" spans="1:10">
+    <row r="719" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A719" s="2">
         <v>1080</v>
       </c>
@@ -26041,7 +26119,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="720" ht="18.6" customHeight="1" spans="1:10">
+    <row r="720" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A720" s="2">
         <v>858</v>
       </c>
@@ -26071,7 +26149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="721" ht="18.6" customHeight="1" spans="1:10">
+    <row r="721" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A721" s="2">
         <v>1286</v>
       </c>
@@ -26101,7 +26179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="722" ht="18.6" customHeight="1" spans="1:10">
+    <row r="722" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A722" s="2">
         <v>744</v>
       </c>
@@ -26131,7 +26209,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="723" ht="18.6" customHeight="1" spans="1:10">
+    <row r="723" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A723" s="2">
         <v>1217</v>
       </c>
@@ -26161,7 +26239,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="724" ht="18.6" customHeight="1" spans="1:10">
+    <row r="724" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A724" s="2">
         <v>845</v>
       </c>
@@ -26191,7 +26269,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="725" ht="18.6" customHeight="1" spans="1:10">
+    <row r="725" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A725" s="2">
         <v>1310</v>
       </c>
@@ -26221,7 +26299,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="726" ht="18.6" customHeight="1" spans="1:10">
+    <row r="726" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A726" s="2">
         <v>1224</v>
       </c>
@@ -26251,7 +26329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="727" ht="18.6" customHeight="1" spans="1:10">
+    <row r="727" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A727" s="2">
         <v>1260</v>
       </c>
@@ -26281,7 +26359,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="728" ht="18.6" customHeight="1" spans="1:10">
+    <row r="728" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A728" s="2">
         <v>1296</v>
       </c>
@@ -26311,7 +26389,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" ht="18.6" customHeight="1" spans="1:10">
+    <row r="729" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A729" s="2">
         <v>1278</v>
       </c>
@@ -26341,7 +26419,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="730" ht="18.6" customHeight="1" spans="1:10">
+    <row r="730" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A730" s="2">
         <v>1307</v>
       </c>
@@ -26371,7 +26449,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="731" ht="18.6" customHeight="1" spans="1:10">
+    <row r="731" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A731" s="2">
         <v>1295</v>
       </c>
@@ -26401,7 +26479,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="732" ht="18.6" customHeight="1" spans="1:10">
+    <row r="732" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A732" s="2">
         <v>1432</v>
       </c>
@@ -26431,7 +26509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="733" ht="18.6" customHeight="1" spans="1:10">
+    <row r="733" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A733" s="2">
         <v>1298</v>
       </c>
@@ -26461,7 +26539,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="734" ht="18.6" customHeight="1" spans="1:10">
+    <row r="734" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A734" s="2">
         <v>1088</v>
       </c>
@@ -26491,7 +26569,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="735" ht="18.6" customHeight="1" spans="1:10">
+    <row r="735" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A735" s="2">
         <v>1433</v>
       </c>
@@ -26521,7 +26599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="736" ht="18.6" customHeight="1" spans="1:10">
+    <row r="736" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A736" s="2">
         <v>1425</v>
       </c>
@@ -26551,7 +26629,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="737" ht="18.6" customHeight="1" spans="1:10">
+    <row r="737" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A737" s="2">
         <v>766</v>
       </c>
@@ -26581,7 +26659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="738" ht="18.6" customHeight="1" spans="1:10">
+    <row r="738" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A738" s="2">
         <v>784</v>
       </c>
@@ -26611,7 +26689,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="739" ht="18.6" customHeight="1" spans="1:10">
+    <row r="739" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A739" s="2">
         <v>1092</v>
       </c>
@@ -26641,7 +26719,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="740" ht="18.6" customHeight="1" spans="1:10">
+    <row r="740" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A740" s="2">
         <v>1103</v>
       </c>
@@ -26671,7 +26749,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="741" ht="18.6" customHeight="1" spans="1:10">
+    <row r="741" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A741" s="2">
         <v>1180</v>
       </c>
@@ -26701,7 +26779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="742" ht="18.6" customHeight="1" spans="1:10">
+    <row r="742" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A742" s="2">
         <v>765</v>
       </c>
@@ -26731,7 +26809,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="743" ht="18.6" customHeight="1" spans="1:10">
+    <row r="743" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A743" s="2">
         <v>1252</v>
       </c>
@@ -26761,7 +26839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="744" ht="18.6" customHeight="1" spans="1:10">
+    <row r="744" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A744" s="2">
         <v>1165</v>
       </c>
@@ -26791,7 +26869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="745" ht="18.6" customHeight="1" spans="1:10">
+    <row r="745" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A745" s="2">
         <v>1106</v>
       </c>
@@ -26821,7 +26899,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="746" ht="18.6" customHeight="1" spans="1:10">
+    <row r="746" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A746" s="2">
         <v>1195</v>
       </c>
@@ -26851,7 +26929,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="747" ht="18.6" customHeight="1" spans="1:10">
+    <row r="747" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A747" s="2">
         <v>1434</v>
       </c>
@@ -26881,7 +26959,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="748" ht="18.6" customHeight="1" spans="1:10">
+    <row r="748" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A748" s="2">
         <v>1192</v>
       </c>
@@ -26911,7 +26989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="749" ht="18.6" customHeight="1" spans="1:10">
+    <row r="749" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A749" s="2">
         <v>1199</v>
       </c>
@@ -26941,7 +27019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="750" ht="18.6" customHeight="1" spans="1:10">
+    <row r="750" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A750" s="2">
         <v>1204</v>
       </c>
@@ -26971,7 +27049,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="751" ht="18.6" customHeight="1" spans="1:10">
+    <row r="751" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A751" s="2">
         <v>1263</v>
       </c>
@@ -27001,7 +27079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="752" ht="18.6" customHeight="1" spans="1:10">
+    <row r="752" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A752" s="2">
         <v>1482</v>
       </c>
@@ -27033,7 +27111,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="753" ht="18.6" customHeight="1" spans="1:10">
+    <row r="753" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A753" s="2">
         <v>1418</v>
       </c>
@@ -27063,7 +27141,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="754" ht="18.6" customHeight="1" spans="1:10">
+    <row r="754" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A754" s="2">
         <v>1301</v>
       </c>
@@ -27093,7 +27171,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="755" ht="18.6" customHeight="1" spans="1:10">
+    <row r="755" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A755" s="2">
         <v>1426</v>
       </c>
@@ -27123,7 +27201,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="756" ht="18.6" customHeight="1" spans="1:10">
+    <row r="756" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A756" s="2">
         <v>1086</v>
       </c>
@@ -27153,7 +27231,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="757" ht="18.6" customHeight="1" spans="1:10">
+    <row r="757" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A757" s="2">
         <v>1265</v>
       </c>
@@ -27183,7 +27261,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="758" ht="18.6" customHeight="1" spans="1:10">
+    <row r="758" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A758" s="2">
         <v>1101</v>
       </c>
@@ -27213,7 +27291,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="759" ht="18.6" customHeight="1" spans="1:10">
+    <row r="759" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A759" s="2">
         <v>1359</v>
       </c>
@@ -27243,7 +27321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="760" ht="18.6" customHeight="1" spans="1:10">
+    <row r="760" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A760" s="2">
         <v>1305</v>
       </c>
@@ -27273,7 +27351,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="761" ht="18.6" customHeight="1" spans="1:10">
+    <row r="761" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A761" s="2">
         <v>959</v>
       </c>
@@ -27303,7 +27381,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="762" ht="18.6" customHeight="1" spans="1:10">
+    <row r="762" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A762" s="2">
         <v>1356</v>
       </c>
@@ -27333,7 +27411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="763" ht="18.6" customHeight="1" spans="1:10">
+    <row r="763" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A763" s="2">
         <v>1417</v>
       </c>
@@ -27363,7 +27441,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="764" ht="18.6" customHeight="1" spans="1:10">
+    <row r="764" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A764" s="2">
         <v>1309</v>
       </c>
@@ -27393,7 +27471,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="765" ht="18.6" customHeight="1" spans="1:10">
+    <row r="765" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A765" s="2">
         <v>1363</v>
       </c>
@@ -27423,7 +27501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="766" ht="18.6" customHeight="1" spans="1:10">
+    <row r="766" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A766" s="2">
         <v>1500</v>
       </c>
@@ -27455,7 +27533,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="767" ht="18.6" customHeight="1" spans="1:10">
+    <row r="767" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A767" s="2">
         <v>1266</v>
       </c>
@@ -27485,7 +27563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="768" ht="18.6" customHeight="1" spans="1:10">
+    <row r="768" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A768" s="2">
         <v>1467</v>
       </c>
@@ -27517,7 +27595,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="769" ht="18.6" customHeight="1" spans="1:10">
+    <row r="769" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A769" s="2">
         <v>1480</v>
       </c>
@@ -27549,7 +27627,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="770" ht="18.6" customHeight="1" spans="1:10">
+    <row r="770" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A770" s="2">
         <v>1422</v>
       </c>
@@ -27579,7 +27657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="771" ht="18.6" customHeight="1" spans="1:10">
+    <row r="771" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A771" s="2">
         <v>1100</v>
       </c>
@@ -27609,7 +27687,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="772" ht="18.6" customHeight="1" spans="1:10">
+    <row r="772" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A772" s="2">
         <v>1171</v>
       </c>
@@ -27639,7 +27717,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="773" ht="18.6" customHeight="1" spans="1:10">
+    <row r="773" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A773" s="2">
         <v>1105</v>
       </c>
@@ -27669,7 +27747,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="774" ht="18.6" customHeight="1" spans="1:10">
+    <row r="774" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A774" s="2">
         <v>1120</v>
       </c>
@@ -27699,7 +27777,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="775" ht="18.6" customHeight="1" spans="1:10">
+    <row r="775" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A775" s="2">
         <v>1306</v>
       </c>
@@ -27729,7 +27807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="776" ht="18.6" customHeight="1" spans="1:10">
+    <row r="776" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A776" s="2">
         <v>1267</v>
       </c>
@@ -27759,7 +27837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="777" ht="18.6" customHeight="1" spans="1:10">
+    <row r="777" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A777" s="2">
         <v>1445</v>
       </c>
@@ -27789,7 +27867,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="778" ht="18.6" customHeight="1" spans="1:10">
+    <row r="778" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A778" s="2">
         <v>1187</v>
       </c>
@@ -27819,7 +27897,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="779" ht="18.6" customHeight="1" spans="1:10">
+    <row r="779" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A779" s="2">
         <v>674</v>
       </c>
@@ -27849,7 +27927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="780" ht="18.6" customHeight="1" spans="1:10">
+    <row r="780" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A780" s="2">
         <v>1407</v>
       </c>
@@ -27879,7 +27957,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="781" ht="18.6" customHeight="1" spans="1:10">
+    <row r="781" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A781" s="2">
         <v>1084</v>
       </c>
@@ -27909,7 +27987,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="782" ht="18.6" customHeight="1" spans="1:10">
+    <row r="782" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A782" s="2">
         <v>1131</v>
       </c>
@@ -27939,7 +28017,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="783" ht="18.6" customHeight="1" spans="1:10">
+    <row r="783" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A783" s="2">
         <v>762</v>
       </c>
@@ -27969,7 +28047,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="784" ht="18.6" customHeight="1" spans="1:10">
+    <row r="784" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A784" s="2">
         <v>767</v>
       </c>
@@ -27999,7 +28077,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="785" ht="18.6" customHeight="1" spans="1:10">
+    <row r="785" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A785" s="2">
         <v>800</v>
       </c>
@@ -28029,7 +28107,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="786" ht="18.6" customHeight="1" spans="1:10">
+    <row r="786" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A786" s="2">
         <v>978</v>
       </c>
@@ -28059,7 +28137,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="787" ht="18.6" customHeight="1" spans="1:10">
+    <row r="787" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A787" s="2">
         <v>1096</v>
       </c>
@@ -28089,7 +28167,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="788" ht="18.6" customHeight="1" spans="1:10">
+    <row r="788" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A788" s="2">
         <v>1104</v>
       </c>
@@ -28119,7 +28197,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="789" ht="18.6" customHeight="1" spans="1:10">
+    <row r="789" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A789" s="2">
         <v>1107</v>
       </c>
@@ -28149,7 +28227,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="790" ht="18.6" customHeight="1" spans="1:10">
+    <row r="790" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A790" s="2">
         <v>1109</v>
       </c>
@@ -28179,7 +28257,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="791" ht="18.6" customHeight="1" spans="1:10">
+    <row r="791" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A791" s="2">
         <v>1110</v>
       </c>
@@ -28209,7 +28287,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="792" ht="18.6" customHeight="1" spans="1:10">
+    <row r="792" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A792" s="2">
         <v>1112</v>
       </c>
@@ -28239,7 +28317,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="793" ht="18.6" customHeight="1" spans="1:10">
+    <row r="793" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A793" s="2">
         <v>1114</v>
       </c>
@@ -28269,7 +28347,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="794" ht="18.6" customHeight="1" spans="1:10">
+    <row r="794" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A794" s="2">
         <v>1115</v>
       </c>
@@ -28299,7 +28377,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="795" ht="18.6" customHeight="1" spans="1:10">
+    <row r="795" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A795" s="2">
         <v>1116</v>
       </c>
@@ -28329,7 +28407,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="796" ht="18.6" customHeight="1" spans="1:10">
+    <row r="796" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A796" s="2">
         <v>1117</v>
       </c>
@@ -28359,7 +28437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="797" ht="18.6" customHeight="1" spans="1:10">
+    <row r="797" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A797" s="2">
         <v>1118</v>
       </c>
@@ -28389,7 +28467,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="798" ht="18.6" customHeight="1" spans="1:10">
+    <row r="798" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A798" s="2">
         <v>1119</v>
       </c>
@@ -28419,7 +28497,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="799" ht="18.6" customHeight="1" spans="1:10">
+    <row r="799" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A799" s="2">
         <v>1121</v>
       </c>
@@ -28449,7 +28527,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="800" ht="18.6" customHeight="1" spans="1:10">
+    <row r="800" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A800" s="2">
         <v>1122</v>
       </c>
@@ -28479,7 +28557,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="801" ht="18.6" customHeight="1" spans="1:10">
+    <row r="801" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A801" s="2">
         <v>1123</v>
       </c>
@@ -28509,7 +28587,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="802" ht="18.6" customHeight="1" spans="1:10">
+    <row r="802" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A802" s="2">
         <v>1124</v>
       </c>
@@ -28539,7 +28617,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="803" ht="18.6" customHeight="1" spans="1:10">
+    <row r="803" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A803" s="2">
         <v>1125</v>
       </c>
@@ -28569,7 +28647,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="804" ht="18.6" customHeight="1" spans="1:10">
+    <row r="804" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A804" s="2">
         <v>1126</v>
       </c>
@@ -28599,7 +28677,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="805" ht="18.6" customHeight="1" spans="1:10">
+    <row r="805" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A805" s="2">
         <v>1127</v>
       </c>
@@ -28629,7 +28707,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="806" ht="18.6" customHeight="1" spans="1:10">
+    <row r="806" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A806" s="2">
         <v>1128</v>
       </c>
@@ -28659,7 +28737,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="807" ht="18.6" customHeight="1" spans="1:10">
+    <row r="807" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A807" s="2">
         <v>1129</v>
       </c>
@@ -28689,7 +28767,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="808" ht="18.6" customHeight="1" spans="1:10">
+    <row r="808" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A808" s="2">
         <v>1130</v>
       </c>
@@ -28719,7 +28797,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="809" ht="18.6" customHeight="1" spans="1:10">
+    <row r="809" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A809" s="2">
         <v>1133</v>
       </c>
@@ -28749,7 +28827,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="810" ht="18.6" customHeight="1" spans="1:10">
+    <row r="810" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A810" s="2">
         <v>1198</v>
       </c>
@@ -28779,7 +28857,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="811" ht="18.6" customHeight="1" spans="1:10">
+    <row r="811" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A811" s="2">
         <v>1219</v>
       </c>
@@ -28809,7 +28887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="812" ht="18.6" customHeight="1" spans="1:10">
+    <row r="812" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A812" s="2">
         <v>1269</v>
       </c>
@@ -28839,7 +28917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="813" ht="18.6" customHeight="1" spans="1:10">
+    <row r="813" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A813" s="2">
         <v>1289</v>
       </c>
@@ -28869,7 +28947,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="814" ht="18.6" customHeight="1" spans="1:10">
+    <row r="814" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A814" s="2">
         <v>1297</v>
       </c>
@@ -28899,7 +28977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="815" ht="18.6" customHeight="1" spans="1:10">
+    <row r="815" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A815" s="2">
         <v>1302</v>
       </c>
@@ -28929,7 +29007,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="816" ht="18.6" customHeight="1" spans="1:10">
+    <row r="816" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A816" s="2">
         <v>1304</v>
       </c>
@@ -28959,7 +29037,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="817" ht="18.6" customHeight="1" spans="1:10">
+    <row r="817" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A817" s="2">
         <v>1311</v>
       </c>
@@ -28989,7 +29067,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="818" ht="18.6" customHeight="1" spans="1:10">
+    <row r="818" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A818" s="2">
         <v>1332</v>
       </c>
@@ -29019,7 +29097,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="819" ht="18.6" customHeight="1" spans="1:10">
+    <row r="819" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A819" s="2">
         <v>1343</v>
       </c>
@@ -29049,7 +29127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="820" ht="18.6" customHeight="1" spans="1:10">
+    <row r="820" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A820" s="2">
         <v>1344</v>
       </c>
@@ -29079,7 +29157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="821" ht="18.6" customHeight="1" spans="1:10">
+    <row r="821" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A821" s="2">
         <v>1365</v>
       </c>
@@ -29109,7 +29187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" ht="18.6" customHeight="1" spans="1:10">
+    <row r="822" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A822" s="2">
         <v>1374</v>
       </c>
@@ -29139,7 +29217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="823" ht="18.6" customHeight="1" spans="1:10">
+    <row r="823" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A823" s="2">
         <v>1412</v>
       </c>
@@ -29169,7 +29247,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="824" ht="18.6" customHeight="1" spans="1:10">
+    <row r="824" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A824" s="2">
         <v>1415</v>
       </c>
@@ -29199,7 +29277,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="825" ht="18.6" customHeight="1" spans="1:10">
+    <row r="825" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A825" s="2">
         <v>1416</v>
       </c>
@@ -29229,7 +29307,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="826" ht="18.6" customHeight="1" spans="1:10">
+    <row r="826" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A826" s="2">
         <v>1421</v>
       </c>
@@ -29259,7 +29337,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="827" ht="18.6" customHeight="1" spans="1:10">
+    <row r="827" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A827" s="2">
         <v>1427</v>
       </c>
@@ -29289,7 +29367,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="828" ht="18.6" customHeight="1" spans="1:10">
+    <row r="828" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A828" s="2">
         <v>1431</v>
       </c>
@@ -29319,7 +29397,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="829" ht="18.6" customHeight="1" spans="1:10">
+    <row r="829" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A829" s="2">
         <v>1435</v>
       </c>
@@ -29349,7 +29427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="830" ht="18.6" customHeight="1" spans="1:10">
+    <row r="830" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A830" s="2">
         <v>1436</v>
       </c>
@@ -29829,7 +29907,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="846" ht="18.6" customHeight="1" spans="1:10">
+    <row r="846" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A846" s="2">
         <v>1441</v>
       </c>
@@ -29919,7 +29997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="849" ht="18.6" customHeight="1" spans="1:10">
+    <row r="849" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A849" s="2">
         <v>1448</v>
       </c>
@@ -29949,7 +30027,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="850" ht="18.6" customHeight="1" spans="1:10">
+    <row r="850" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A850" s="2">
         <v>1481</v>
       </c>
@@ -30101,7 +30179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" ht="18.6" customHeight="1" spans="1:10">
+    <row r="855" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A855" s="2">
         <v>1483</v>
       </c>
@@ -30163,7 +30241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="857" ht="18.6" customHeight="1" spans="1:10">
+    <row r="857" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A857" s="2">
         <v>1491</v>
       </c>
@@ -30255,7 +30333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="860" ht="18.6" customHeight="1" spans="1:10">
+    <row r="860" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A860" s="2">
         <v>1494</v>
       </c>
@@ -30587,7 +30665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="871" ht="18.6" customHeight="1" spans="1:10">
+    <row r="871" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A871" s="2">
         <v>1506</v>
       </c>
@@ -30709,7 +30787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="875" ht="18.6" customHeight="1" spans="1:10">
+    <row r="875" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A875" s="2">
         <v>1507</v>
       </c>
@@ -30801,7 +30879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="878" ht="18.6" customHeight="1" spans="1:10">
+    <row r="878" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A878" s="2">
         <v>802</v>
       </c>
@@ -32249,7 +32327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="926" ht="18.6" customHeight="1" spans="1:10">
+    <row r="926" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A926" s="2">
         <v>1444</v>
       </c>
@@ -32549,7 +32627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="936" ht="18.6" customHeight="1" spans="1:10">
+    <row r="936" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A936" s="2">
         <v>1440</v>
       </c>
@@ -36771,7 +36849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1076" ht="18.6" customHeight="1" spans="1:10">
+    <row r="1076" ht="18.6" hidden="1" customHeight="1" spans="1:10">
       <c r="A1076" s="2">
         <v>1283</v>
       </c>
